--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_642.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_642.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
   <si>
     <t>STR#</t>
   </si>
@@ -61,6 +61,15 @@
   </si>
   <si>
     <t>https://www.tripadvisor.com/Hotel_Review-g33022-d2411007-Reviews-Residence_Inn_by_Marriott_Dana_Point_San_Juan_Capistrano-San_Juan_Capistrano_California.html</t>
+  </si>
+  <si>
+    <t>193</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>195</t>
   </si>
   <si>
     <t>https://www.orbitz.com/Orange-County-Hotels-Residence-Inn-By-Marriott-Dana-Point-San-Juan-Capistrano.h4782637.Hotel-Information</t>
@@ -532,11 +541,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +573,79 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="J1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="K1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="L1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="N1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="O1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="P1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="Q1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="R1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="S1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="T1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="U1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="V1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="W1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="X1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="Y1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_642.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_642.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="876">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="987">
   <si>
     <t>STR#</t>
   </si>
@@ -150,6 +150,9 @@
     <t>response_text</t>
   </si>
   <si>
+    <t>jleung2213</t>
+  </si>
+  <si>
     <t>07/08/2018</t>
   </si>
   <si>
@@ -178,6 +181,9 @@
   </si>
   <si>
     <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>alacraft</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33022-d2411007-r582929199-Residence_Inn_by_Marriott_Dana_Point_San_Juan_Capistrano-San_Juan_Capistrano_Cali.html</t>
@@ -209,6 +215,9 @@
 Shout out to Jessica ( I hope) who checked us in on Thursday afternoon...she was patient and went above...about 15 rooms were set aside for the bride and grooms guests to reserve.  At 169.00night +15.00 per night for parking the price was good for what you got.  Early check in was requested for some to be able to change before the rehearsal dinner and Marriott went above and beyond expectations.  The bride and groom were upgraded to a 2 bedroom suite.  Breakfast was numerous choices, waffles, fruit , hard boiled eggs, yogurt, cereal, oatmeal, toast, bagels, and egg dish, and lots of very fresh coffee with vanilla or caramel flavorings as well as soy milk, cream, etc.  Rooms were very very clean, plenty of towels, and kitchen space with microwave, small stove, large refrigerator and dishes, bowls, silverware.  The bed was a bit soft for my liking, but I slept well.  Yes, you are right off the freeway, and there is traffic noise, and train noise, but the windows close and are pretty sound proof with the air conditioning on.  I did use the jacuzzi and pool..both clean and at comfortable temperatures.  Management walked the breakfast room in the morning and made sure everything was ok.   Everyone was very friendly. No restaurant on site, so do a little shopping before you check in because there is no place within walking distance.  The location is easy on/off the 5 freeway. Shout out to Jessica ( I hope) who checked us in on Thursday afternoon...she was patient and went above and beyond to help with room changes.  Carolina worked the desk Saturday morning and was pleasant and helpful with our room charges, as well as the charges we made for others in our party.  Well done, Marriott...you helped make the wedding weekend a success!More</t>
   </si>
   <si>
+    <t>familyfour85</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33022-d2411007-r581292877-Residence_Inn_by_Marriott_Dana_Point_San_Juan_Capistrano-San_Juan_Capistrano_Cali.html</t>
   </si>
   <si>
@@ -230,6 +239,9 @@
     <t>As with most Marriotts the staff was very nice and very helpful.  The rooms were clean and very nice with plenty of closet room and drawers.The parking lot was  about 10 steps right in front of the entrance  to the hotel yet we were charged $15 day for parking.  When asked  why there was a charge they said they had to compete with rates of other nearby hotels.  So I guess that means that instead of raising their rate to what they really charge they wait for you to get there to spring the news on you.  Our room was very close to the Amtrak railroad tracks so the train came by blowing their horn quite often,  Even early am.  We saw the ear plugs on the night stand and quickly figured out what they were for.    One night they had a food truck come right by the patio.  You purchased your meal and they provided the wine.  I thought that was a very nice touch.  I do not believe it is there all the time but we happened to be lucky to be there a night it was.More</t>
   </si>
   <si>
+    <t>A TripAdvisor Member</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33022-d2411007-r571794362-Residence_Inn_by_Marriott_Dana_Point_San_Juan_Capistrano-San_Juan_Capistrano_Cali.html</t>
   </si>
   <si>
@@ -257,6 +269,9 @@
     <t>Only plus about this stay was the guy who checked me in was nice although not informative. I was charged for parking which seemed odd at a Residence Inn but I didn’t care until I pulled into the very far away back parking lot and saw the several stories of stairs I need to climb which I couldn’t do with luggage. They should have a valet or have adequate parking that is walkable with luggage; at a minimum let you know about the stairs and doors that don’t open with key card. This was my final stay at a Residence Inn: these properties aren’t a good fit for female business travelers, second time this year I have gotten a creepy vibe at this type of property. The train noise is also crazy, sounded like the train was going to come through the wall. Bathroom wasn’t clean, lots of visible hairs and there were stains on couch and carpet.More</t>
   </si>
   <si>
+    <t>llwcl</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33022-d2411007-r571129445-Residence_Inn_by_Marriott_Dana_Point_San_Juan_Capistrano-San_Juan_Capistrano_Cali.html</t>
   </si>
   <si>
@@ -275,6 +290,9 @@
     <t>March 2018</t>
   </si>
   <si>
+    <t>25yrstime2travel</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33022-d2411007-r570520330-Residence_Inn_by_Marriott_Dana_Point_San_Juan_Capistrano-San_Juan_Capistrano_Cali.html</t>
   </si>
   <si>
@@ -290,6 +308,9 @@
     <t>My husband and I stayed here for a local wedding with friends.  It is a very friendly, clean and nice place to stay. This is our second stay, and last time it was for a wedding block also.  We had a very comfortable stay. No bells or whistles just a great place to stay if you like clean and comfortable.  The kitchens are very well equipped too!</t>
   </si>
   <si>
+    <t>Barbara S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33022-d2411007-r556713614-Residence_Inn_by_Marriott_Dana_Point_San_Juan_Capistrano-San_Juan_Capistrano_Cali.html</t>
   </si>
   <si>
@@ -308,6 +329,9 @@
     <t>January 2018</t>
   </si>
   <si>
+    <t>FayeCooke</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33022-d2411007-r555356708-Residence_Inn_by_Marriott_Dana_Point_San_Juan_Capistrano-San_Juan_Capistrano_Cali.html</t>
   </si>
   <si>
@@ -323,6 +347,9 @@
     <t>We stayed during a 3 day weekend and enjoyed the suite. Near it all, and reasonably priced. The full kitchen made it easy to stay in without having to eat out daily.  The hotel desk clerk was very nice, and the fire pit was very nice. We had a free breakfast daily, and the eggs were tasty,  We didn’t go in the pool, however, many people did. The basketball court was busy, and the location is out back near comfortable chairs. Police are driving in/out to ensure your safety- I like that.  We will stay again.</t>
   </si>
   <si>
+    <t>dewhee32</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33022-d2411007-r554842648-Residence_Inn_by_Marriott_Dana_Point_San_Juan_Capistrano-San_Juan_Capistrano_Cali.html</t>
   </si>
   <si>
@@ -338,6 +365,9 @@
     <t>I spent 2 nights at this hotel and was very impressed with the location as well as the rooms.  My room was large and nicely laid out.  The bed was comfortable and the room cozy!  I left at 4am and the front desk offered me a "boxed breakfast", which was very nice (bagel, yogurt, apple).  I recommend this hotel to others visiting the area and I'd certainly stay here again.</t>
   </si>
   <si>
+    <t>Geri R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33022-d2411007-r551366564-Residence_Inn_by_Marriott_Dana_Point_San_Juan_Capistrano-San_Juan_Capistrano_Cali.html</t>
   </si>
   <si>
@@ -359,6 +389,9 @@
     <t xml:space="preserve"> traveled solo</t>
   </si>
   <si>
+    <t>David G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33022-d2411007-r546038005-Residence_Inn_by_Marriott_Dana_Point_San_Juan_Capistrano-San_Juan_Capistrano_Cali.html</t>
   </si>
   <si>
@@ -383,6 +416,9 @@
     <t>Several families stayed here for a wedding.  While the rooms were nice, the property is not well maintained.  Saturday evening, 10 family members met around the fire pit, only to be told it broke "2 days ago".  Since it was a cold evening, we then asked for the fire towers to be lit.  One had no tank of gas, and the maintenance person said he didn't know if there was a tank available.  Didn't matter; when he found one, the tower wouldn't light.  The other tower worked for 15 minutes and ran out of gas.  The maintenance person didn't return to replace the tank.  Finally we gave up and went inside to sit at the fireplace, only to be told that the fireplace didn't work either.  The person at the desk told us the General Manager would talk to us Sunday morning.  Sunday morning, the GM was nowhere to be found before we all left.More</t>
   </si>
   <si>
+    <t>Bridgetpianos</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33022-d2411007-r538618607-Residence_Inn_by_Marriott_Dana_Point_San_Juan_Capistrano-San_Juan_Capistrano_Cali.html</t>
   </si>
   <si>
@@ -399,6 +435,9 @@
   </si>
   <si>
     <t>November 2017</t>
+  </si>
+  <si>
+    <t>OJPearl</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33022-d2411007-r531813695-Residence_Inn_by_Marriott_Dana_Point_San_Juan_Capistrano-San_Juan_Capistrano_Cali.html</t>
@@ -426,6 +465,9 @@
 The room was quite nice, studio-like with a branded Residence Inn theme. Had a decent night sleep other than some trembling noise that woke me up at one point and prevented me from getting back to sleep for the next hour as I was attempting to figure out where it was coming from. It turned out to be the refrigerator and I knew that...Was in town for an industry conference and came in pretty late on October 2nd around 11pm. Was looking forward to checking in and going to the room, but understandably front desk had me go back outside to the parking lot to place a red ticket on vehicle that I was a guest that evening. Apparently, there are those who park in their property and are not guests considering there is no street parking. Wouldn't make too big of a deal but at that time of night most parking spots are taken and I had to walk to the opposite side of the entry to lobby to place the tag on my vehicle as it was the only available area for parking.If you feel it may be too dark (which it felt like it was) and you may fear for a situation, I would recommend to you (and hotel staff) to offer/request a security escort. After all, it is security that rides around making sure all allowed vehicles have their permits displayed on the dash. The room was quite nice, studio-like with a branded Residence Inn theme. Had a decent night sleep other than some trembling noise that woke me up at one point and prevented me from getting back to sleep for the next hour as I was attempting to figure out where it was coming from. It turned out to be the refrigerator and I knew that because at some point the ice maker/cooler mechanism paused to work.Fun breakfast with a turkey sausage option (always appreciated). Coffee was great and it seemed that the hotel guests were a crowd that typically stay at this location (business crowd, middle America types who have business and conferences in the area). Great view of the ocean from the dining room!All in all, a decent stay, would recommend if in the area!More</t>
   </si>
   <si>
+    <t>David B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33022-d2411007-r514565767-Residence_Inn_by_Marriott_Dana_Point_San_Juan_Capistrano-San_Juan_Capistrano_Cali.html</t>
   </si>
   <si>
@@ -445,6 +487,9 @@
   </si>
   <si>
     <t>I tried for a year to book a large family vacation in the OC with those home rental places.  I am so happy I just booked two rooms at the Residence Inn Dana Point San Juan Capistrano. The rooms were so comfortable with a full kitchen, luxe bedding, and all the room we needed.  We were allowed to check in early and able to get right to the beach. They have a great breakfast and some happy hour treats (A craft beer and a bratwurst is an adult treat for sure.) My biggest suggestion would be to have a recycling container in each room so we don’t feel bad throwing bottles and cans in the trash.  This hotel is not within walking distance of anything really, but it was a great place to stay!More</t>
+  </si>
+  <si>
+    <t>doug5702</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33022-d2411007-r510773783-Residence_Inn_by_Marriott_Dana_Point_San_Juan_Capistrano-San_Juan_Capistrano_Cali.html</t>
@@ -467,6 +512,9 @@
 At 1:30 PM on the day of arrival I received notice my room was ready and to report to the “Mobile Check In” desk to pick up my key, now for those of you that travel and use this Marriott feature you have to have a credit card on file and when you arrive you tell them who you are which is verified by showing your ID and they confirm the credit card on file is with you, you get your keys and you are good to go. When I arrived at 2:15 PM I was informed my room was not ready and they had no idea why I would have received a message stating otherwise, I was told my room would be ready around 4:00 PM, they...I am a Marriott Gold Rewards member and have been for several years, I stay in a variety of Marriott branded properties every year and for the most part most if not all of my stays have been uneventful and even pleasurable until this past weekend. I reserved a 2 room suite for a family, the rate was inclusive of parking, I’m unclear why there would be a charge for self-parking your car in an unsecured parking lot? I requested an early check in via the Marriott Mobile App, the time requested was 1:00 PM, while not guaranteed if you don’t ask you will not be guaranteed a room until 4:00 PM.At 1:30 PM on the day of arrival I received notice my room was ready and to report to the “Mobile Check In” desk to pick up my key, now for those of you that travel and use this Marriott feature you have to have a credit card on file and when you arrive you tell them who you are which is verified by showing your ID and they confirm the credit card on file is with you, you get your keys and you are good to go. When I arrived at 2:15 PM I was informed my room was not ready and they had no idea why I would have received a message stating otherwise, I was told my room would be ready around 4:00 PM, they were kind enough to store our luggage as we had already unloaded our car. As we prepared to leave the hotel we were advised they would call when our room was ready, they confirmed my cell number and we departed. Around 4:30 PM I called to inquire on the status of the room, I was told they couldn’t tell on the computer and someone would have to “Go all the way to the room and check, is that what you want me to do?” I assured the kind lady that I did in fact want to know the status of my room and that she needed to do what ever was necessary to find that out. After a 15 minute wait I was advised my room was still not ready but should be very soon. I arrived at the hotel around 5:00 PM and had to show my credit card, ID, and even sign what I assume an electronic Credit Card Transaction, remember the reference to the Mobile Check In! as I was checking in one of the managers proceeded to tell me that Gold and Platinum members can request a 4:00 PM check out and that was why I didn’t have a room funny thing is I was the only person waiting to check in! Was I the only person checking in on a Saturday afternoon? As I gathered my stored luggage the same manager apologized for everything and stated she would cover the parking and add some points for the frustration. I thanked her and went on to our room.The room was very spacious and had a nice layout, we dropped off our stuff and headed back out to enjoy our vacation, upon returning to our room we noticed just how much noise filtered into the room, the one bedroom backed up to a supply room which backed up to the elevators, when the elevators were in use the wall had a low hum and you could feel it when you were in the bed. We made it thru the night but by morning the hum was now an actual vibration and shaking in the room. We called and reported the noise issues. When we returned at the end of the day the noise was still there but manageable, around 5:00 AM it started again this time the entire floor shook and rumbled. We had had enough, we ended our trip a day early and went home. When we were checking out the manager again apologized for the issues and again offered additional points and even gave me a $100 dollar credit. This was a nice gesture but certainly did not offset our frustration with having to end our travels early. Now I know I’ve not mentioned the food issue and I won’t its covered in other reviews as is the fact that the property has a known noise issue but apparently not addressed in the past 4 years. It is also noteworthy that I never received additional points for the stay and I paid for the parking. If you are going to offer compensation for an issue please make sure you follow though with your offer!We will not be back to this location and will not recommend it to fellow travelers.More</t>
   </si>
   <si>
+    <t>Jeremy L</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33022-d2411007-r504587867-Residence_Inn_by_Marriott_Dana_Point_San_Juan_Capistrano-San_Juan_Capistrano_Cali.html</t>
   </si>
   <si>
@@ -494,6 +542,9 @@
     <t>This hotel is an excellent hotel for family fun in the sun. You can walk to the beach with just a little over a mile. Perfect location to beaches and SoCal fun. The staff was friendly and helpful. The hotel is clean and modern. Here's why it was just average for us. 1- I had two rooms and housekeeping never had them done until the evening. Two nights I had to just have them bring us towel.... totally unacceptable. 2- The breakfast was good but for some reason they could not keep up with the demand. If you aren't there before 7:30am it is slim Pickens. 3- $15 per night to park at a Residence Inn? 4 - drains in the shower .... well did not drain. You stand in your filth. More</t>
   </si>
   <si>
+    <t>brusol</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33022-d2411007-r490122158-Residence_Inn_by_Marriott_Dana_Point_San_Juan_Capistrano-San_Juan_Capistrano_Cali.html</t>
   </si>
   <si>
@@ -512,6 +563,9 @@
     <t>June 2017</t>
   </si>
   <si>
+    <t>Brockelman5</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33022-d2411007-r486688498-Residence_Inn_by_Marriott_Dana_Point_San_Juan_Capistrano-San_Juan_Capistrano_Cali.html</t>
   </si>
   <si>
@@ -560,6 +614,9 @@
     <t>I always stay here when I work in the area. It is a beautiful hotel the rooms spacious and clean  and pretty decor. The front desk staff are so friendly and helpful with directions. It is a half hour drive from the John Wayne airport . The free breakfast is the norm but there are restaurants close . Down tiwn Capistrano with many restaurants and shops is 5 minutes away. They have a nice pool a little golf course and fire pit.More</t>
   </si>
   <si>
+    <t>nbtravels2013</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33022-d2411007-r479617536-Residence_Inn_by_Marriott_Dana_Point_San_Juan_Capistrano-San_Juan_Capistrano_Cali.html</t>
   </si>
   <si>
@@ -582,6 +639,9 @@
   </si>
   <si>
     <t>Pros- customer service and hotel staff were wonderfulRoom is nice with full kitchen and clean and plenty of seating placesNice little place to purchase snacks if needed but not a cafeCons:No dinner restaurant and it was food truck night and the only truck that came sold pizzas- nothing elseRestaurants were all off site so had to drive to themBar not open either so nothing at nightLots of noise from the street all night- was a little annoyingI spend a lot of time on the road and if i had done my home work I would have found a hotel with at leas a bar or restaurant on site- did not want to have to drive offsite and ended up at the local supermarket wher I purchased my dinnerMore</t>
+  </si>
+  <si>
+    <t>Conor M</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33022-d2411007-r478662174-Residence_Inn_by_Marriott_Dana_Point_San_Juan_Capistrano-San_Juan_Capistrano_Cali.html</t>
@@ -606,6 +666,9 @@
 The okay: No views as the hotel is located less than a mile from the freeway.  No one told me about the mandatory $12 a day parking charge until I arrived.  The staff said the parking charge is on their website, but I did not book on their website.  I feel like the reservation person should have informed me. There's an Amtrak train that travels behind the hotel and blows its horn.  If you are a super-light sleeper, this is something to consider.  The hotel provides ear plugs, so for one night, it wasn't really an issue for me.  A lot of kids and...If there was a rating between "Average" and "Very Good", I would have selected it.  This is a nice place to stay only if the hotel is conveniently located for your travel needs.  After researching hotels for an event I had to attend in Dana Point, I realized you really have two choices in Laguna/Dana Point:  You can go high-end ($500+ a night) like the Laguna Ritz or moderately priced hotels like this.  This hotel definitely appeals to families and kids.  The hotel is ideal for people traveling on business or families on vacation.  If you are a single person, you probably are not going to spend much time here.The good: Large rooms with a kitchen and fridge.  The hotel was clean and the front desk staff was friendly, especially Hope.  Free wifi.  The price.The okay: No views as the hotel is located less than a mile from the freeway.  No one told me about the mandatory $12 a day parking charge until I arrived.  The staff said the parking charge is on their website, but I did not book on their website.  I feel like the reservation person should have informed me. There's an Amtrak train that travels behind the hotel and blows its horn.  If you are a super-light sleeper, this is something to consider.  The hotel provides ear plugs, so for one night, it wasn't really an issue for me.  A lot of kids and families around.  Not a place to stay for a romantic weekend.  The hotel does not have a bar, but the front desk sells single beers for $6.50. The good news is there's a grocery store less than a mile away and you have a fridge in your room!!Overall, this is a good place to stay for the price.More</t>
   </si>
   <si>
+    <t>Liz M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33022-d2411007-r465194400-Residence_Inn_by_Marriott_Dana_Point_San_Juan_Capistrano-San_Juan_Capistrano_Cali.html</t>
   </si>
   <si>
@@ -633,6 +696,9 @@
     <t>Staff great. One side of this large hotel is nice,overlooks ocean far away.  But don't get a suite by side of traffic.  It was like sleeping in median dividerWe left after 1 night and staff understandingMore</t>
   </si>
   <si>
+    <t>Spiros L</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33022-d2411007-r462337698-Residence_Inn_by_Marriott_Dana_Point_San_Juan_Capistrano-San_Juan_Capistrano_Cali.html</t>
   </si>
   <si>
@@ -660,6 +726,9 @@
     <t>Though the facility is fairly outdate, it does have good amenities and their service is great. The selection of breakfast is good enough but after the third day it gets... old! The location however is great. It is located near nice parts of the town, with great restaurants and nice view of the beach.More</t>
   </si>
   <si>
+    <t>Jeremy G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33022-d2411007-r462109467-Residence_Inn_by_Marriott_Dana_Point_San_Juan_Capistrano-San_Juan_Capistrano_Cali.html</t>
   </si>
   <si>
@@ -681,6 +750,9 @@
     <t>Stayed here for a week the last two years at the end of the year. The service was great, and the room was awesome again this year, the views were wonderful, the grounds were fantastic, and the amenities great. Breakfast as always was everything you could ever ask for.But I would say the quality definitely went down between last year and this though. Reasons:1) The weeknight mixers don't seem to reflect the same care and quality they previously did with regard to the food selection and presentation. The first night was tostadas, and they didn't have any beans (even though the promo sign said they did), plus there was no salsa or sour cream or guacamole. The other nights weren't much better.2) They called us three times after we had checked out, and we finally spoke to them. They were calling to ask if we had stolen a comforter because they saw my daughter getting into our car with a comforter draped around her. We always bring our own bedding, so that seemed very odd and made us feel unsure if we wanted to come back again. Highly unusual to spend $1500 at a hotel and then have them accuse you of stealing without even checking the room first.3) The entire first floor smelled pretty nasty one day when it was raining outside. Definite sewage-y smell.More</t>
   </si>
   <si>
+    <t>IslandGuySanDiego</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33022-d2411007-r452650080-Residence_Inn_by_Marriott_Dana_Point_San_Juan_Capistrano-San_Juan_Capistrano_Cali.html</t>
   </si>
   <si>
@@ -702,6 +774,9 @@
     <t>Was pleasantly surprised. There are very few decent hotels in the area that are a reasonable price. My room was great. It was a suite with everything I needed for a few nights on a business trip. Only issue was a little road noise. They were kind enough to move me.More</t>
   </si>
   <si>
+    <t>DeVJP</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33022-d2411007-r448381536-Residence_Inn_by_Marriott_Dana_Point_San_Juan_Capistrano-San_Juan_Capistrano_Cali.html</t>
   </si>
   <si>
@@ -720,6 +795,9 @@
     <t>My wife and I stayed here on New Years Eve. We meet with a group of friends and went to dinner across from the Mission and then to the Coach House for a show by the group Los Lobos(they put on a great show).The hotel was a perfect location for our evening celebration.  It's  close to great restaurants  and less than 2 miles to the Coach House concert venue.The Coach House is  nice venue that is has some wonderful acts throughout the year.  For us, we like to stay nearby after the show ,and drive home the following day.We have stayed at other hotels close by but the Residence Inn is now our favorite in the Capistrano area. We well definitely be back!More</t>
   </si>
   <si>
+    <t>K_NC</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33022-d2411007-r443348514-Residence_Inn_by_Marriott_Dana_Point_San_Juan_Capistrano-San_Juan_Capistrano_Cali.html</t>
   </si>
   <si>
@@ -736,6 +814,9 @@
   </si>
   <si>
     <t>This hotel is clean, has a complimentary breakfast daily, $12 parking, laundry facility, fitness center, pool and great staff! Everyone has been super friendly and knowledgeable! They also have food, drinks etc for everyone Mon-wed nights. The location is close to parks, dana point and laguna! I almost stayed at the Cliffs by Marriott and went over there to look around and yet it is pretty, it is def a resort style where there were a lot of meetings going on. The residence inn is more quaint, smoke free and pet friendly! More</t>
+  </si>
+  <si>
+    <t>Don R</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33022-d2411007-r437216052-Residence_Inn_by_Marriott_Dana_Point_San_Juan_Capistrano-San_Juan_Capistrano_Cali.html</t>
@@ -762,6 +843,9 @@
 It's on the corner of two busy streets, although I was on the backside and had no street noise at all.  The main part of San Juan...I've gotten used to Marriott properties being clinically generic so that once you're in the front door you don't know if you're in Miami, Memphis or Modesto - so I was surprised and delighted to find the decor of this hotel echoes the old California ranch style which are the roots of San Juan Capistrano.  Artwork and colors inspired by the local area were nicely done and felt appropriate for a coastal California hotel.   Very impressed. Lobby is nice and spacious with a variety of seating based on what you need to do, and flows on to outdoor areas with a pool, sports court, bbq area and firepit.  Again, very nicely done and taking full advantage of the great California climate. Rooms are typical Residence Inn.  Large, well appointed, comfortable and functional.  It had a very large work area (loved that) and plenty of electrical plugs to charge whatever gear you're traveling with.   I was on the 3rd floor (top floor) and even had a view of the Pacific Ocean which is about a mile away.  Sadly, you overlook a trailer park, Costco, Staples and huge parking lots between you and the ocean, but it's unquestionably the ocean and made it enjoyable to open the windows and get a scent of salted air. It's on the corner of two busy streets, although I was on the backside and had no street noise at all.  The main part of San Juan Capistrano is a few miles one direction, and the coastal beach towns a few miles the other way.   If this hotel weren't on such busy streets overlooking the Costco parking lot, it could easily get away as a friendly resort.  The biggest complaint I had is the $12 nightly parking fee.  That seems steep for a suburban property with ample parking.  I can see they might need to monitor parking to avoid it being a carpool pick-up area (the freeway entrance is across the street), but that's not a problem at night and $12 is well beyond the range of parking in the area.More</t>
   </si>
   <si>
+    <t>1Gl0balTraveler</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33022-d2411007-r436948317-Residence_Inn_by_Marriott_Dana_Point_San_Juan_Capistrano-San_Juan_Capistrano_Cali.html</t>
   </si>
   <si>
@@ -786,6 +870,9 @@
     <t>We needed a hotel last minute over veterans weekend and found this through my search. We were surprised at the low rate and were concerned at the quality of the hotel. To our surprise, it was a wonderful choice.  The place is clean, comfortable and quaint. The staff is friendly, great breakfast choices and it is also a great location to 5 Fwy.  The room has a kitchen/living room, nice bathroom and it pet friendly (had a sign for the door that you could put out if you had pets inside)More</t>
   </si>
   <si>
+    <t>TX13SR13</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33022-d2411007-r436881397-Residence_Inn_by_Marriott_Dana_Point_San_Juan_Capistrano-San_Juan_Capistrano_Cali.html</t>
   </si>
   <si>
@@ -804,6 +891,9 @@
     <t>Nice Residence Inn in the midst of a shopping area and just a mile or two from the beach. Hotel is very nice inside and rooms are big, have a kitchen and are very clean. Unfortunately the hotel charges for parking, $12 per night. I was a little surprised they charged for parking. Actually when I said I was surprised the person at the front desk was a bit rude about it. She went on to say Marriott says they need to charge for it and hotel does not own the parking lot. Way too much information and her delivery was less than professional. When I left the next morning at 5am the morning front desk person was completely the opposite, friendly, professional and went out of her way. Didn't hold lack of professionalism against the hotel when writing my review.More</t>
   </si>
   <si>
+    <t>len k</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33022-d2411007-r426328465-Residence_Inn_by_Marriott_Dana_Point_San_Juan_Capistrano-San_Juan_Capistrano_Cali.html</t>
   </si>
   <si>
@@ -826,6 +916,9 @@
   </si>
   <si>
     <t>We originally were booked at a different hotel on the PCH but it was substandard for our taste, BW+. We decided to relocate to this Residence Inn and what a differenceClean bright rooms nice people nice breakfast and all in all great service.The train was not really an issue for us but some light sleepers may be awaken by it, I found it just part of the experience, I usually stay at a Residence Inn as a first choice and Hampton or Fairfield and my 2nd and third choice, but the BW+ was a 1,star at best.More</t>
+  </si>
+  <si>
+    <t>fly4points</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33022-d2411007-r425962029-Residence_Inn_by_Marriott_Dana_Point_San_Juan_Capistrano-San_Juan_Capistrano_Cali.html</t>
@@ -857,6 +950,9 @@
 2) There is no reason this property should charge for parking - The area is surrounded by car dealerships, mobile home parks that cater to undocumented workers, a Costco parking lot, a nursery, an area where undocumented workers seek day labor, a graded area for car storage, etc. There is nothing safe within walking distance. There is NO reason this...Overall, the Residence Inn - a newer property, located less than two miles from the beach in San Juan Capistrano California. Close to the I-5 freeway and easy to access in any direction.Overall the hotel staff was very helpful during our stay. The General Manager Grace was provided gracious service and was very responsive to my issues during my 32-night stay. The front desk staff was one of the best in the industry, especially employee Hope, a young, energetic employee always ready to provide excellent service.I did have some issues during the stay:1) During the early part of the stay the outdoor areas, especially by the pool entrance door &amp; outdoor dining areas were populated by inconsiderate smokers. After a young cigar smoker sat next to us near the BBQ eating area, I lodged a complaint with Marriott corporate. They immediately placed "No Smoking" signs in these areas, and have plans for more permanent signage in the future. I am surprised this wasn't done earlier as TripAdvisor had a number of similar complaints, especially one in July.2) There is no reason this property should charge for parking - The area is surrounded by car dealerships, mobile home parks that cater to undocumented workers, a Costco parking lot, a nursery, an area where undocumented workers seek day labor, a graded area for car storage, etc. There is nothing safe within walking distance. There is NO reason this property charges a $12 parking fee, which is also noted repeatedly on TripAdvisor.3) Inconsistent food at the buffet - Part of the problem is the staffing, not being able to restock food quickly enough and the other problem is the "class" of the guest - too many food hoarders loading up on food - worst I've ever seen, and I've stayed at Hampton Inn-level properties in sketchy neighborhoods. Too many "trailer trash" guests here.4) Inconsistent room maid service - On three occasions, the maid never came to refresh our room. I understand that there were staffing issues at this property. The room service staff that was working was very dedicated to their job and had a positive attitude.5) Refreshing pool towels - The towels ALWAYS ran out. I guess they are afraid the same "food hoarders" will be "towel hoarders". Only once did they not immediately refresh the towels when asked. Anytime Hope was working, she made sure the towels were fixed.Hopefully they will complete their smoking policy plans and setup a designated smoking area so all guests can enjoy the beautiful coastal air quality at this property.More</t>
   </si>
   <si>
+    <t>MONYLINE</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33022-d2411007-r417303499-Residence_Inn_by_Marriott_Dana_Point_San_Juan_Capistrano-San_Juan_Capistrano_Cali.html</t>
   </si>
   <si>
@@ -875,6 +971,9 @@
     <t>I stayed her for a night because I had an event nearby. The front desk representative noticed it was my birthday and waived the parking fee and gave me a great room. The rooms are really modern and you will be pleasantly surprised.  Great use of space.  I give it all 5's.  If I had one suggestion, turn down the radio level at the pool as it can be heard from the rooms in early morning (Im assuming its from the pool perhaps its from the neighboring mobile home community). This is a great model for future Residence Inns.More</t>
   </si>
   <si>
+    <t>Shubbie a</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33022-d2411007-r403800844-Residence_Inn_by_Marriott_Dana_Point_San_Juan_Capistrano-San_Juan_Capistrano_Cali.html</t>
   </si>
   <si>
@@ -896,6 +995,9 @@
     <t>We were booked for 2 nights.We were told that we were on the view side of the property, i.e. looking over the costco to see the sea and some palm trees. However the clerk failed to mention that the railroad runs right next to that side of the property. The trains started approx 5.45 am and the last toot I would hear was around 11.00pm so if you are a light sleeper, or have babies,or plan on sleeping in, I suggest asking for a room as far away from the train, if possible. The room was nice and updated, the breakfast standard residence inn fare.It was pleasant to eat out by the pool. The other thing we didn't anticipate is the $12 per night parking fee.I asked the clerk if the charge was for being in a parking garage, she said no.  To me It was just the basic residence in parking lot. However she said 12 is way better than the $36 the Ritz charges. I told her yes, but I am not at the ritz. It seems the management just found a way to tack on an extra charge which annoyed me.More</t>
   </si>
   <si>
+    <t>Candace M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33022-d2411007-r396951237-Residence_Inn_by_Marriott_Dana_Point_San_Juan_Capistrano-San_Juan_Capistrano_Cali.html</t>
   </si>
   <si>
@@ -912,6 +1014,9 @@
   </si>
   <si>
     <t>July 2016</t>
+  </si>
+  <si>
+    <t>beachlover987654</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33022-d2411007-r396629835-Residence_Inn_by_Marriott_Dana_Point_San_Juan_Capistrano-San_Juan_Capistrano_Cali.html</t>
@@ -937,6 +1042,9 @@
 The good - it is a nice updated hotel and lobby.  Beautiful pool and hot tub open in the evening with lit palm trees around it.  There is free breakfast, an outdoor fire pit for evening wine, and a nice fireplace inside the lobby.  There is a fabulous young lady at the front desk named Hope who was just amazing during our stay and tried to help us as much as possible.  The rooms have kitchens with full size fridges, stoves.  There are lots...My husand, dogs and kids have been on a 21 day journey driving from the Philly area down the eastern seaboard across the Gulf Coast region.  OUr last leg was a long drive from Tucson across the 119 degree desert.  We finally landed at our destination on July 22 so I can tell you I have stayed at a lot of hotels across this great nation.  Equally I was a Marriott Platinum for 5 years so I have stayed at a lot of Marriotts (you have to stay &gt;75 nights to be Platinum).  This hotel has some great advantages but it falls short in others.  My biggest advice is find a new hotel manager.  A lot of these issues are related to poor managment not a bad hotel.  Wake up and realize that there is SO much competition in hospitality and with social media and the ease of mobile apps people will go to the competition.  The good - it is a nice updated hotel and lobby.  Beautiful pool and hot tub open in the evening with lit palm trees around it.  There is free breakfast, an outdoor fire pit for evening wine, and a nice fireplace inside the lobby.  There is a fabulous young lady at the front desk named Hope who was just amazing during our stay and tried to help us as much as possible.  The rooms have kitchens with full size fridges, stoves.  There are lots of delivery options and they can give you menus of at least 10 places that deliver fast.  Also a rare Marriott find...it is dog friendly with a non-refundable pet deposit of $100 per stay.  The bad - the hotel was over-sold so we got a room with a view of nothing but the rooftop of the adjacent building.  it felt so enclosed and dark we asked if we could move the following day and Hope said stop back by at noon the next day to see who checked out on the first floor.  She told us there were a lot of people checking out the next day.  Also we are traveling with our 2 doggies so we like to get first floor rooms near the outside doors.  We are very respectful dog owners.  We take our dogs with us everywhere and we NEVER let them bark.  We do not walk them through the lobby - always exterior doors and we clean up after them.  The front desk person the next morning told me we could move to another room and it was ready.  I quickly shuffled our stuff over there.  It was disappointing that people used the 6 available luggage carts and kept them stored in their rooms (so inconsiderate of others) and it would be nice if they asked people to return them after use.  Even a sign hanging on them that says 'please return' because none ever seemed available.  Because of that my husband and I each made 6 trips to the floor below us and moved in.  I did not realize the exterior door was not actually to the outside parking lot but to the pool.  When my husband went back up to front desk the person was not only RUDE to HIM but accused us of having pets and not disclosing it. We had not unpacked or messed anything up - just trying to find the best room for our family and our situation.  The night before,  I checked in with Hope and filled out a pet policy form and when the rude person found it lying on top of the pile, she did not apologize to my husband.  She told him instead normally when you move rooms you have to pay $100 deposit again.  We had been in the previous room less than 8 hours so i find it hard to believe my sleeping dogs could have done $100 in damage in 8 hours.  This person had a very un-Marriott attitude as most try to remember and use your name when they address you.  Though this hotel is 'Dana Point' the view is of a Costco parking lot with a glimpse of blue ocean in the far distance.  I walked out this morning to enjoy the lovely weather and sat by the fire pit and was greeted by an inconsiderate smoker.  WHY DO YOU ALLOW SMOKERS TO SMOKE BY THE POOL AND FIRE PIT??  it is disgusting and insulting to non-smokers there to enjoy cool clean air and this policy needs to change.  Why can't these people smoke in their cars and destroy only their lungs not others' tranquility. or go by the dumpster where you are not offending other people ??We ended up having to stay in our room because the RUDE person said 'it was absolutely impossible for me to move you again'.  Fine no problem  We stayed.  We unpacked.  It was fine ...  But we were next to a very inconsiderate dog owners with a small yappy dog that barked for hours and hours.  We complained 3 different times but it was obvious these people left their dog all day in the hotel room which is against the pet policy.  Hope tried to help by calling their room but to no answer.  Yappy dogs make my dogs curious and at times upset so we had to keep our TV volume up until after midnight to drown the sound.  After that we decided to check out 6 days early.  The rate was $199 and with no view, yappy dogs, and inconsiderate smokers it was not worth the extra money.  When i called the front desk to say we would check out early the RUDE person gave me a bit more ATTITUDE about it being impossible to move us but at that point we were leaving regardless.  Very un-Marriott attitude.  Had she said sorry to hear you are checking out early, maybe I would not be writing this review from their hotel business center computer right now! The parking is ample and we had pulled a U-Haul trailer so we were able to park it behind out SUV for the time we were there. There is an upper lot and a lower lot which you drive around and down behind the hotel.   I was surprised to see the parking lot was full of trash - it was everywhere .  There was also trash around the property like by the fire pit.  So strange... This is also rare at a Marriott - they are usually impeccable.  The parking fee is $12 per night and you can find a lot of hotels with better locations that have free parking.  Dog owners - not a lot of grass to walk your pooch so you are stuck walking over a black top parking lot.  This hotel is on a VERY  BUSY INTERSECTION at the entrance to the freeway so were were nervous about walking the dogs on busy streets but had no choice.  Cars were whizzing by us while my husband walked our dogs in single file along the sidewalk - yikes.  The Marriott has the Market next to the front desk but upon check in the refrigerated case was pretty empty.  NO drinks available. After driving in the desert a bottled water would have been greatly received by me and my kids.   Who managed the front desk and how did this happen?  Why is the Market empty on a busy weekend?   The pool did not have towels availalbe so i ended up having to go to our room to grab our towels and I heard other guests complaining that they were out of towels the past 2 nights with no restocking.  This in and of itself is never a deal breaker but part of their bigger issue of poor managment.  Internet is free and there is an ATM inside the hotel.  Premium internet is available to gold and platinum members.  There is a laundry room with at least 5 washers and 5 dryers.  I was impressed except the fee was $3 in quarters per wash and per dry.  I stayed at other extended stay hotels these past few weeks and laundry was FREE.  Yes FREE.  I can see maybe a $1 but SIX DOLLARS TO WASH A LOAD OF LAUNDRY?  come on - that seems excessive.  THe beach is about a 3 mile drive but not at all walkable.  The beaches here are stunning so it is worth the drive to see but good luck finding parking on a busy weekend.  It is insane.  If you have the  budget UBER to the beach!  WE found a fun spot with huge waves and my kids were in heaven.  So we are checking out 6 days early and going to a Staybridge Suites.  They have extended stay rooms and full kitchens.  We stayed at a Staybridge for months after we moved out of our house and it worked great.  We were considering staying at the Residence Inn until the end of September after we bought a house but no thanks... will move to Staybridge or Homewood Suites.  There is a new brand at Hilton called Home2 and they are FABULOUS so if there is one at your destination check it out.More</t>
   </si>
   <si>
+    <t>Jason C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33022-d2411007-r382025044-Residence_Inn_by_Marriott_Dana_Point_San_Juan_Capistrano-San_Juan_Capistrano_Cali.html</t>
   </si>
   <si>
@@ -958,6 +1066,9 @@
     <t>My associates and I recently attended a business luncheon meeting here and had an opportunity to tour the property. The grounds are beautifully landscaped and have an ocean view.  The outdoor amenities which include a fire pit, pool/spa, and sport court make for an excellent experience for the entire family.  The rooms were quite spacious, included everything you could possibly want,  and still felt new.  I was also impressed to find out that they serve a complimentary HOT breakfast every morning.   The location of this hotel so close to the beaches and only a few miles to shopping at Outlets at San Clemente make it a great destination for anyone.More</t>
   </si>
   <si>
+    <t>Mar51</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33022-d2411007-r381109541-Residence_Inn_by_Marriott_Dana_Point_San_Juan_Capistrano-San_Juan_Capistrano_Cali.html</t>
   </si>
   <si>
@@ -979,6 +1090,9 @@
     <t>I stay in Residence Inns often, and this one was fine.  The rooms were very clean and the bedrooms were spacious.  The living room/kitchen was fine, but not quite as "homey" as most of the "R I" hotels I have stayed in.  This would be an excellent hotel for someone in the area on business.The location is very convenient to Dana Point Harbor and the freeway.I would stay there again, but I might try something different next time I am in the area.  It is a higher rate  than most Residence Inns, but very reasonable for the location.  It is a little noisy on the freeway side.The check OUT clerk was very friendly and nice.More</t>
   </si>
   <si>
+    <t>1sassyflygirl</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33022-d2411007-r376201614-Residence_Inn_by_Marriott_Dana_Point_San_Juan_Capistrano-San_Juan_Capistrano_Cali.html</t>
   </si>
   <si>
@@ -997,6 +1111,9 @@
     <t>May 2016</t>
   </si>
   <si>
+    <t>sidelinesports</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33022-d2411007-r363700801-Residence_Inn_by_Marriott_Dana_Point_San_Juan_Capistrano-San_Juan_Capistrano_Cali.html</t>
   </si>
   <si>
@@ -1024,6 +1141,9 @@
     <t>Hotel maintenance and front desk responsiveness issues.Plus, besides the $380 for two nights and a $100 deposit, they also charged $110 erroneously. Very average for a Residence Inn. Front desk is run by young people (every time we were there in 3 days) who are generally inept and inefficient. Not a good stay.More</t>
   </si>
   <si>
+    <t>moswanderlust</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33022-d2411007-r363692941-Residence_Inn_by_Marriott_Dana_Point_San_Juan_Capistrano-San_Juan_Capistrano_Cali.html</t>
   </si>
   <si>
@@ -1039,6 +1159,9 @@
     <t>I frequently stay in Residence Inns, as the rooms are always similar in layout (I really like their studios, which have full kitchens, which is great for people traveling with families). They also provide a free breakfast, which kids really seem to enjoy.This RI is very nice- the common areas as well as the rooms are very nicely decorated and kept up. There is a distant view of the ocean, and their pool area is the nicest I've seen in a RI so far. They are usually indoors. They also had a basketball court, which my son loved. The hotel is very close to the tourist sites as well as to the freeway. The only negative we experienced (which is why I didn't give it 5 stars) was that the AC unit was in a closet next to my bed, and it was noisy, but it wasn't a huge deal. We had a studio with two queen beds as well as kitchen and living room area for about $200, which is very reasonable for the expensive OC.More</t>
   </si>
   <si>
+    <t>Addie W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33022-d2411007-r358800459-Residence_Inn_by_Marriott_Dana_Point_San_Juan_Capistrano-San_Juan_Capistrano_Cali.html</t>
   </si>
   <si>
@@ -1066,6 +1189,9 @@
     <t>We stayed with our son and daughter-in-law in a two-bedroom suite. Comfortable, spacious, nicely designed. The living room was not huge, but the bedrooms and kitchen were very spacious. Good breakfast and nice areas to eat outside. Clean and well-maintained. Trains are audible from time to time.More</t>
   </si>
   <si>
+    <t>Dan F</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33022-d2411007-r354575493-Residence_Inn_by_Marriott_Dana_Point_San_Juan_Capistrano-San_Juan_Capistrano_Cali.html</t>
   </si>
   <si>
@@ -1090,6 +1216,9 @@
     <t>The hotel is classic Residence Inn with lite-duty service. The location is next to the I-5 and close to historic downtown area and train depot. It's an Uber ride or car ride to the beach. The view of the ocean is nice as long as you tune out the Costco in the immediate foreground. The barbecue grill is high end so you'll want to use it...More</t>
   </si>
   <si>
+    <t>FamilyTravels123</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33022-d2411007-r353459917-Residence_Inn_by_Marriott_Dana_Point_San_Juan_Capistrano-San_Juan_Capistrano_Cali.html</t>
   </si>
   <si>
@@ -1114,6 +1243,9 @@
     <t>Four days on a business trip and I live the suite!  Very happy with the the facility and the grounds.  Less than a mile away from Albertsons and so close to the beach.  This place is fantastic!  Wonderful staff.More</t>
   </si>
   <si>
+    <t>speedntactics</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33022-d2411007-r348688826-Residence_Inn_by_Marriott_Dana_Point_San_Juan_Capistrano-San_Juan_Capistrano_Cali.html</t>
   </si>
   <si>
@@ -1139,6 +1271,9 @@
   </si>
   <si>
     <t>So like the title of my review says this place has a lot of noise, Highway traffic, a train, sirens (it is after all, So Cal) and even construction equipment back up alarms. BUT the pool is nice, the back patio faces the water and most important is the staff. They were ALL very professional and did a great job with the after 5pm bar snacks.More</t>
+  </si>
+  <si>
+    <t>nware1</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33022-d2411007-r340113779-Residence_Inn_by_Marriott_Dana_Point_San_Juan_Capistrano-San_Juan_Capistrano_Cali.html</t>
@@ -1189,6 +1324,9 @@
 The breakfast is great (and free), although the staff are a bit over-taxed when the hotel is crowded (on New Year's morning there were about 30 people...This place was awesome. The staff are all exceptionally friendly and helpful. DeAndre the manager will stop at nothing to make guests happy. And he seems to be there 24x7. The west-facing rooms have incredible views of Doheny Beach and the ocean. Rooms are tremendous, walking in for the first time really felt like coming home! I can think of no place I would rather stay on the road than this particular hotel. We made frequent use of the full kitchen (with all plates, pans, utensils, full oven/range, dishwasher, microwave, full-size refrigerator). There's an Albertson's about a half-mile away so stocking the place was easy -- apparently the staff will even shop for you if you request it.Best of all, pets are accepted and welcome. Lots of cats and dogs here during our stay. It's convenient from any guest room to access the side doors to the garden-like grounds and there are several doggie-bag stations surrounding the hotel. There's a fantastic off-leash dog park just down the road (walking distance) next to the San Juan Creek trail.The well-maintained paved San Juan Creek trail leads straight to Doheny Beach, just about 1 mile away. I ran the trail several times, even going all the way down and around the Harbor one day.The breakfast is great (and free), although the staff are a bit over-taxed when the hotel is crowded (on New Year's morning there were about 30 people clamoring for hot coffee and fresh eggs). Weeknight social hour in the lobby features free beer and wine and soft drinks, and a different (free) food selection each night. During our stay we were treated to a variety of cheesecakes and cookies one night, an awesome tostada bar another night, and grilled hamburgers the last night. I only wish they had the mixers on weekends too. And this hotel would be well-served to put some free coffee in the lobby available any time.We had a slight issue with the power in our room after checking in, and the management bent over backwards to accommodate us. We were very pleased with the resolution of the issue.The pool and spa were great. Spa is just the right temp, probably around 100 degrees, even after it rained all day. There is also a putting green and basketball court. Putters, balls, and basketballs are available at the desk. The fitness center and laundry room are in good condition and offer everything a guest needs.We had intended to stay at the Doheny Doubletree for a week, but were so disappointed with that place that we cut it short after two nights and came here. We saved a lot of money by doing so and had an immeasurably better experience.More</t>
   </si>
   <si>
+    <t>kurtzb</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33022-d2411007-r338689558-Residence_Inn_by_Marriott_Dana_Point_San_Juan_Capistrano-San_Juan_Capistrano_Cali.html</t>
   </si>
   <si>
@@ -1210,6 +1348,9 @@
     <t>Stayed here rather than our preferred Best Western because of the two room suite which allowed me to keep an eye on my mother who has early Alzheimers as well as my two kids. The suites are fairly spacious and a good option.  Unfortunately, our second of two stays during a trip from Hawaii back to the east coast met us with a filthy bathroom, no towels or soap. A call to the front desk addressed  the issues fairly quickly and our parking was comp'd. Janet who works the desk 11-7 was nothing short of spectacular - she gives my review the 4th star. Breakfast is good and location is key. However, next time it's back to the Best Western Dana Point.More</t>
   </si>
   <si>
+    <t>GreatTraveltime</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33022-d2411007-r325378980-Residence_Inn_by_Marriott_Dana_Point_San_Juan_Capistrano-San_Juan_Capistrano_Cali.html</t>
   </si>
   <si>
@@ -1237,6 +1378,9 @@
     <t>Our room was clean and the size and room amenities met our needs. There is some construction ongoing with the adjacent freeway but we did not hear any noise over the weekend (only an occasional train horn until around 11:00 PM). You really do not need to worry about a view. The front side of the hotel overlooks the Residence Inn parking lot and car dealership across the street while the back hill side overlooks train tracks, a mobile home park and Costco's parking lot. The back of the property also has a bit more noise from other guests, since this is where the recreational areas are located. The Residence Inn mixer is also only held Monday - Wednesday and there was not a local shuttle as advertised on the website.More</t>
   </si>
   <si>
+    <t>Nigel4921</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33022-d2411007-r324715014-Residence_Inn_by_Marriott_Dana_Point_San_Juan_Capistrano-San_Juan_Capistrano_Cali.html</t>
   </si>
   <si>
@@ -1258,6 +1402,9 @@
     <t>This proved to be a quiet location despite the proximity to 5.  Convenient to San Juan, Laguna and Dana Point.Very clean and well equipped rooms.  Friendly and helpful staff.  I was amazed.  When I had an issue with the clock in the room I mentioned it at reception and the maintenance guy was there to fix it almost immediately!.The one oddity is that, unusually for a Residence Inn, they charge $12 for parking.  Factor that into your costing.Thoroughly recommended.More</t>
   </si>
   <si>
+    <t>wisewomanseattle</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33022-d2411007-r322373449-Residence_Inn_by_Marriott_Dana_Point_San_Juan_Capistrano-San_Juan_Capistrano_Cali.html</t>
   </si>
   <si>
@@ -1285,6 +1432,9 @@
     <t>We were in town for a funeral and had other family staying there as well with a generous bereavement rate which we really appreciate. Except for the noise from the road, train, and freeway it is a very nice hotel with a great staff. The breakfast was great, the pool nice and the rooms spacious and clean. We thought the $12.00 parking fee was a little usurious though for this type of hotel, and for that we shouldn't have to drive around and around looking for a space when we came back at night.More</t>
   </si>
   <si>
+    <t>triguydenver</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33022-d2411007-r313168802-Residence_Inn_by_Marriott_Dana_Point_San_Juan_Capistrano-San_Juan_Capistrano_Cali.html</t>
   </si>
   <si>
@@ -1312,6 +1462,9 @@
     <t>The hotel is pretty new and the staff are great.  However, they charge a $12 parking fee...with a ridiculously big parking lot...far from the beach.  I am a platinum Marriott Rewards member and I have never stayed at a Marriott property in a similar location that charged a parking fee.  It is nothing more than an upcharge on the room rate.  There would be no one staying at this hotel due to its location who was not driving a car.  Remove this blatant surcharge for guests...particularly those guests who stay at Marriott properties 75+ (in my case well over 100+) nights/year.More</t>
   </si>
   <si>
+    <t>LovinMaui_13</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33022-d2411007-r297998767-Residence_Inn_by_Marriott_Dana_Point_San_Juan_Capistrano-San_Juan_Capistrano_Cali.html</t>
   </si>
   <si>
@@ -1339,6 +1492,9 @@
     <t>We stayed at this Marriott property while visiting relatives. The hotel was clean and service was great. The free breakfast was as good as any of the breakfasts I've had at other properties. Things to know: 1) This is a pet friendly hotel which I didn't know until I got to the room and saw the tag you can hang on the door saying there was a pet inside. I think people should be given an option of having a room that has never had a pet in it. Allergies? 2) We had a room on the Costco side of the hotel. It is very close to a train track. We definitely heard trains until about 10 at night blowing their whistles. They either stop at 10 or I was so tired I didn't hear but be aware. I heard again at 5:45am. 3) There is a $12 parking fee. Most Marriotts will wave the fee depending on your status with them. They wouldn't. It's a very big parking lot and wasn't crowded so I'm not sure why the fee.More</t>
   </si>
   <si>
+    <t>Debra-Lynne T</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33022-d2411007-r293497199-Residence_Inn_by_Marriott_Dana_Point_San_Juan_Capistrano-San_Juan_Capistrano_Cali.html</t>
   </si>
   <si>
@@ -1360,6 +1516,9 @@
     <t>My husband and I enjoyed our stay at this property.  Because the property is a Residence Inn, the room was very large and we appreciated the full kitchen.  The hotel offers two breakfast rooms, as well as outdoor seating near the pool.  Although there were plenty of nice choices of prepared food, we enjoyed the opportunity to make our own, fresh waffles.  We liked the whipped cream and strawberries to dress our waffles.  Although the hotel is close to the freeway, we did not hear freeway noise.  The only surprise was that the property charged a parking fee of $12 per day.  We would not hesitate to stay at this property again.More</t>
   </si>
   <si>
+    <t>travel7continents</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33022-d2411007-r285394361-Residence_Inn_by_Marriott_Dana_Point_San_Juan_Capistrano-San_Juan_Capistrano_Cali.html</t>
   </si>
   <si>
@@ -1387,6 +1546,9 @@
     <t>We were in San Juan Capistrano for a relative's wedding. Almost all of our family, 15 people, stayed in the Residence Inn.We reserved months in advance.The Inn is a few miles from the old Spanish mission. We had a car and never had a parking problem at the Inn. There is a daily charge for parking. The day we arrived the trolley that goes through town began operation for the tourist season. It went to the mission and a few other sites in town and made stops at 3 or 4 hotels. It made scheduled stops at the Resident Inn.The complementary breakfast each morning included eggs and bacon or sausage.There were numerous choices and abundant food each morning. The 2 guys who stocked the breakfast were energetic and humorous. They cheerfully cleared our table while we visited with relatives, which was not part of their job. Perhaps we lingered too long.The lobby and dining area were comfortably set up so we spent a lot of time there visiting with relatives. The Inn was sold out that weekend, but everything went smoothly in the hotel. I did laundry and the desk sold me soap that I needed. The front desk was always ready with a greeting or maps and good directions. Amazingly the cleaning of our room never caught us at the wrong time. We did come and go a lot everyday. We had a wonderful time.More</t>
   </si>
   <si>
+    <t>daniel s</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33022-d2411007-r282424304-Residence_Inn_by_Marriott_Dana_Point_San_Juan_Capistrano-San_Juan_Capistrano_Cali.html</t>
   </si>
   <si>
@@ -1405,6 +1567,9 @@
     <t>I always enjoy staying at this hotel. The staff here always help me out and its one of the many reasons I stay here at least 3-4 times a month. I always get the suite and its always clean and organized.More</t>
   </si>
   <si>
+    <t>fifraser</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33022-d2411007-r278889661-Residence_Inn_by_Marriott_Dana_Point_San_Juan_Capistrano-San_Juan_Capistrano_Cali.html</t>
   </si>
   <si>
@@ -1432,6 +1597,9 @@
     <t>Stayed here with a number of guests on the night of our son's wedding and we all got the same snotty attitude on check in, one group had room mix ups, breakfast staff attitude was dreadful...Guest to breakfast staff 15 minutes before end of breakfast, looking at virtually locust stripped breakfast selection: Please could I get some more pancake batter?Staff: It's too lateGuest: But there's still 15 minutes and there's no food. Can you get more batter?Staff: Wanders off and asks loudly if is supposed to do that sort of thing....We liked the room, clean and really great facilities. But honestly, they soured some of the guests who had flown 6000 miles to attend the wedding. We felt like we were annoying them by daring to ask if we could check in a bit early to change, sit after the wedding and enjoy a chat...frankly, I was embarrassed that this was what. our family and friends took away from the supposedly great customer service in the USA.More</t>
   </si>
   <si>
+    <t>EquineDoc</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33022-d2411007-r274448492-Residence_Inn_by_Marriott_Dana_Point_San_Juan_Capistrano-San_Juan_Capistrano_Cali.html</t>
   </si>
   <si>
@@ -1456,6 +1624,9 @@
     <t>Some construction work was being done on our house and this is where we were re-housed.  It was a good choice.  Comfortable room, well appointed kitchen and extremely clean.The staff were very courteous and went above and beyond to be helpful.  They checked us in early and let us stay late, which was most appreciated.The breakfast staff were right there -- asking if there was anything more we needed or wanted.The  hotel's website mentioned construction on the I-5, saying that noise may be a problem.  We were not disturbed at all by construction noise.  We did, however, hear the train:  Not horribly, but you will likely be aware of the train passing by.Good proximity to Costco and Doheny Beach -- we walked to both of them.Good stay!  The Residence Inn is a great choice!More</t>
   </si>
   <si>
+    <t>Andweareoff39</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33022-d2411007-r271229961-Residence_Inn_by_Marriott_Dana_Point_San_Juan_Capistrano-San_Juan_Capistrano_Cali.html</t>
   </si>
   <si>
@@ -1480,6 +1651,9 @@
     <t>We stayed for two nights (family with young children) while visiting the area.  We chose it due to proximity to beach (1 mile away and close to Dana Point where we went on a whale watching tour).  The breakfast was excellent and plentiful.  The rooms were very nice and spacious, king size bed was so comfortable.   There was a great pull out couch that had room for 3 young kids.  The best part of this hotel was the outdoor activities -beautiful hot tub &amp; pool overlooking the city, golf putting, basketball court, use of a gas grill available, fire pit and great views of the city.  Outdoor area had the feel of a resort.  Parking was $12 which didn't seem necessary given parking was plentiful and there it was self-park. The staff was very friendly and helpful.  For a Residence Inn, the grounds were beautiful and had the feel of a full service Marriott resort.More</t>
   </si>
   <si>
+    <t>darthvayd</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33022-d2411007-r270024273-Residence_Inn_by_Marriott_Dana_Point_San_Juan_Capistrano-San_Juan_Capistrano_Cali.html</t>
   </si>
   <si>
@@ -1504,6 +1678,9 @@
     <t>My wife and I stayed here for the weekend, with a large group attending a wedding. Many thanks to Tschanavia for making check-in so easy. She was extremely welcoming, friendly and helpful. She answered all my wife's questions regarding the positive/negative of each available room. Saturday morning, out entire group went down to breakfast at the same time. Needless to say, the breakfast area was overwhelmed. But the team handled it very well. Katora was incredibly friendly and working hard replenishing food and making sure each of us had what we needed. Finally, Sunday's breakfast was made even better by being welcomed and served by Joey. Thanks to a great team for our visit.More</t>
   </si>
   <si>
+    <t>beavertontim</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33022-d2411007-r259501671-Residence_Inn_by_Marriott_Dana_Point_San_Juan_Capistrano-San_Juan_Capistrano_Cali.html</t>
   </si>
   <si>
@@ -1531,6 +1708,9 @@
     <t>Easy to get to from San Clemente Beach.  Kind of a weird location.  Nothing too close by, but plenty not too far away.  Rooms can be a little noisy since you are near the freeway, but not too bad.  Breakfast is standard Residence Inn fare, which is actually pretty good.  Rooms were clean, beds were comfy, staff was kind of disinterested, internet service was kind of slowMore</t>
   </si>
   <si>
+    <t>zan60887</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33022-d2411007-r256412603-Residence_Inn_by_Marriott_Dana_Point_San_Juan_Capistrano-San_Juan_Capistrano_Cali.html</t>
   </si>
   <si>
@@ -1558,6 +1738,9 @@
     <t>We spent a month General manger Gipson was extremely helpful. He went to great lengths to be sure that our visit was excellent. Both he and his staff went out of their way to make us happy. The work on the 405 should be done, so the noise factor not be a problem. Do yourself a favor and stay here.More</t>
   </si>
   <si>
+    <t>Athena60</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33022-d2411007-r251847138-Residence_Inn_by_Marriott_Dana_Point_San_Juan_Capistrano-San_Juan_Capistrano_Cali.html</t>
   </si>
   <si>
@@ -1585,6 +1768,9 @@
     <t>After giving this hotel a second and a third chance, maybe it's time to say forget it!  Being a very loyal Marriott customer, platinum level, I expect so much more from this chain.  The staff was very disinterested in assisting us.  When I asked if we could have a view of the pool, I was told we are fully booked.  You have a good room.  That "good" room overlooked the garbage dumpsters.  The breakfast area was dirty and the food scanty and very linited.  This is a fairly new Residence Inn in a good location that needs to work harder to maintain Marriott standards. So disappointing,More</t>
   </si>
   <si>
+    <t>Bryan L</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33022-d2411007-r248804728-Residence_Inn_by_Marriott_Dana_Point_San_Juan_Capistrano-San_Juan_Capistrano_Cali.html</t>
   </si>
   <si>
@@ -1609,6 +1795,9 @@
     <t>The hotel is very clean family and pet friendly.  The manager's reception is not worth the time or effort typically there are 5 or 6 individuals that devour the small amount of scraps they put out. I know it free but really when the hotel parking lot is filled I would expect something of more quantity not necessarily quality. Sunday breakfast they were attempting to close at 9:30 only the constant stream of people kept it open.And again not enough for the number of guests.The 4 star rating is for the room and front desk. As I don't think deduction for freebies is necessary. More</t>
   </si>
   <si>
+    <t>rausda27</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33022-d2411007-r248293172-Residence_Inn_by_Marriott_Dana_Point_San_Juan_Capistrano-San_Juan_Capistrano_Cali.html</t>
   </si>
   <si>
@@ -1633,6 +1822,9 @@
     <t>We stay in 30-60 hotels a year. This was the loudest location I have ever experienced. The last reviews mentioned the train, but it needs to be mentioned they do sound the horn and night. Literally right outside my window. 1am, 2:15, 2:45, 3:30.....to make it worse, promptly at 0630 an industrial jack hammer or drill starts pounding away doing construction in the highway. My colleague who was on the other side of hall said the traffic noise on the street next to hotel was awful. This wasn't the highway. Hotel has great rooms and a beautiful outdoor space, but its proximity to the train tracks should be a huge deterrent. More</t>
   </si>
   <si>
+    <t>Ralph R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33022-d2411007-r246616218-Residence_Inn_by_Marriott_Dana_Point_San_Juan_Capistrano-San_Juan_Capistrano_Cali.html</t>
   </si>
   <si>
@@ -1654,6 +1846,9 @@
     <t>First I could have given this place 5 stars but only due to the train issue. You cannot go wrong with staying here but chose a front of the hotel room as the back has an active train track 1000 feet that trains pass several times a day/night Blowing their horn. The location was perfect for Dana point activities that we had. Yet the hotel was clean, very well maintained and the staff was exceptional. Alma greeted us when we checked in and she was spectacular . We called on her from forgotten toothpaste to directions, I thought that this is the kind of employee that represents the marriott quality. Maria was a housekeeper that seemed to revel in care. I was missing a kitchen item and while there was no rush she arranged for it to be at my door in minutes. She was a genuine person. Great location 7 min from Dana wharf .  The staff at breakfast must have had patience tests champions. The place was crowded with kids and families and regretfully I witnessed some guests whose behavior was embarrassing and arrogant. But the staff did great. I would stay there again.More</t>
   </si>
   <si>
+    <t>Paris-Amsterdam</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33022-d2411007-r238928020-Residence_Inn_by_Marriott_Dana_Point_San_Juan_Capistrano-San_Juan_Capistrano_Cali.html</t>
   </si>
   <si>
@@ -1681,6 +1876,9 @@
     <t>It is the typical Residence Inn with kitchen and living room amenities.  A breakfast buffet is included and there are a couple evening "social hours" with beer/wine and a light dinner menu.There is a firepit at the edge of the property, looking down the hill.  You can see a little shippet of ocean from the south side (same side as pool and firepit.)My primary recommendation is to ask for a room on the South side.  We spent all of 1 minute in a room on the 3rd floor North side and could hear afternoon traffic quite well with the windows shut.  I can only imagine what the rush-hour traffic was like.  Very loud.Thankfully, they moved us over to the South side and all was well.More</t>
   </si>
   <si>
+    <t>ThatchersBiscuit</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33022-d2411007-r234613003-Residence_Inn_by_Marriott_Dana_Point_San_Juan_Capistrano-San_Juan_Capistrano_Cali.html</t>
   </si>
   <si>
@@ -1705,6 +1903,9 @@
     <t>This is located right off the highway, which is good and bad.  The rooms are pretty standard and there is definitely nothing wrong with them.  You have to pay for parking, $12/day, which I found fairly outrageous for a Residence Inn next to a highway.  The front desk staff is very friendly and willing to help you out.  However, when I asked a room away from the highway, I was given a handicap room.More</t>
   </si>
   <si>
+    <t>Tim B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33022-d2411007-r234177315-Residence_Inn_by_Marriott_Dana_Point_San_Juan_Capistrano-San_Juan_Capistrano_Cali.html</t>
   </si>
   <si>
@@ -1726,6 +1927,9 @@
     <t>My first stay at a Marriott Residence. We were there for a wedding. Great location, right on the Interstate, but you don't get any noise from traffic. Very clean, comfortable and modern. Great pool and sports court. Tasty breakfast. Only bad thing, we had dinner included in our weekday rate and we weren't aware of that till check out. Wi definitely be back. More</t>
   </si>
   <si>
+    <t>SLWalker_11</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33022-d2411007-r229222065-Residence_Inn_by_Marriott_Dana_Point_San_Juan_Capistrano-San_Juan_Capistrano_Cali.html</t>
   </si>
   <si>
@@ -1751,6 +1955,9 @@
   </si>
   <si>
     <t>My husband and some friends stayed here for a wedding in Dana Point. Easy access to downtown Dana Point and all the restaurants. Nice continental breakfast, although it got really busy at times and they were out of a lot of things at times. Rooms were good size and pretty clean, although our drains needed some attention. Pool area was nice as well as fire pit area. Staff was very friendly. I would recommend this hotel as an alternative to higher priced hotels right on the water. The only real gripe I would have to say that this hotel is located near train tracks, so there were a few times that the train could be heard during the evening and middle of the night, but mostly during the daytime.More</t>
+  </si>
+  <si>
+    <t>Ligaya72</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33022-d2411007-r227000908-Residence_Inn_by_Marriott_Dana_Point_San_Juan_Capistrano-San_Juan_Capistrano_Cali.html</t>
@@ -1790,6 +1997,9 @@
 We'll...Our suite was on the second floor.  It's very nice, with flat screen TV, soft bed, beautiful furnishings and fully equipped kitchen.  I did not know about the kitchen, we should have brought things to cook.  There's free wifi and breakfast.  The pool area is beautiful, with patio seatings all over.  My favorite area is the fireplace outside.  There's also a tennis court, a putting green, and a jogging/walking trail.  There's a view of the surroundings by the pool.  Sadly, our room had the opposite view facing the street but the room made up for the view.  There's also another large fireplace in the lobby area.  DeShawn and his staff were great.  The person cooking/manning the breakfast is a saint.  There's a $12 free parking, but the free wifi made up that charge.  I'd definitely come back for the weekend as there is also a humongous bbq grill for the guests.  It would make a good home away from home for anyone.Parking is aplenty.  I love the docking station in the room, you can put in orders for groceries, the shower is big and clean, and there's ample drawers.  I would bring some food and snacks next time, as the hotel is not walking distance to anything, really.The mission is just a few miles away.  Surf spots are a few minutes away.  Laguna Beach and its dining and art offerings is about 20 minutes north of there.We'll definitely come back this winter.More</t>
   </si>
   <si>
+    <t>lv2trvlevrywer</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33022-d2411007-r226626443-Residence_Inn_by_Marriott_Dana_Point_San_Juan_Capistrano-San_Juan_Capistrano_Cali.html</t>
   </si>
   <si>
@@ -1808,6 +2018,9 @@
     <t>This practically brand new all-suite property is perfect for families.  Huge suites w/ lots of space to relax and very modern and spacious kitchenette w/ a full fridge.  This is our first time staying at a RI and if all RIs are like this we will continue to stay in them.  Their complimentary self-serve buffet breakfast was ok, definitely not gourmet but good enough.  This property is very close to the harbor and a great location if you can't afford luxury accommodations or if you just need a room in Dana Point.  Yes, it's located in SJC but really really super close to Dana point.  There was ample parking even though it's $12/night and the pool was just okay.  However, the staff were very friendly and accommodating.More</t>
   </si>
   <si>
+    <t>ScottRSilv</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33022-d2411007-r224360012-Residence_Inn_by_Marriott_Dana_Point_San_Juan_Capistrano-San_Juan_Capistrano_Cali.html</t>
   </si>
   <si>
@@ -1832,6 +2045,9 @@
     <t>I can't say enough good things about this hotel. It's a Residence Inn, so it has nice touches like free full breakfast, free wi-fi, all the rooms are suites with refrigerators, etc. Staff were all very friendly. A shout out to Colin who was kind enough to let us keep our surfboards in their meeting room overnight. The pool area is very nice - well and well appointed. The location is convenient to I5 and the PCH. You can be at Doheny State Beach Park in two minutes. The location is also convenient to Laguna Niguel (12 minutes awa) and San Clemente (10 minutes away). I highly recommend Residence Inn San Juan Capistrano.More</t>
   </si>
   <si>
+    <t>R W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33022-d2411007-r223515276-Residence_Inn_by_Marriott_Dana_Point_San_Juan_Capistrano-San_Juan_Capistrano_Cali.html</t>
   </si>
   <si>
@@ -1854,6 +2070,9 @@
   </si>
   <si>
     <t>I stayed out here recently for work and it was pretty convenient to get to the Laguna Niguel area.  Plus, it's close to the water at Dana Point for a nice walk or run.  The rooms are clean and comfortable and the place seems to have very good upkeep.  Very close to the 5 Freeway.Only complaint - the trains.   I know they can't help it, but this alone brings the rating down.   I mostly slept through the nights but the occasional late night train would wake me up...it can be very loud.   Just something to keep in mind in case you want earplugs.More</t>
+  </si>
+  <si>
+    <t>JP-Hollywood</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33022-d2411007-r221661359-Residence_Inn_by_Marriott_Dana_Point_San_Juan_Capistrano-San_Juan_Capistrano_Cali.html</t>
@@ -1882,6 +2101,9 @@
 The hotel is a typical Residence Inn and it was very nicely laid out. The rooms are what you’d expect from this chain.  This was the first time we have stayed in a “studio” room which was a little different for us, the bedroom being in an alcove off the living room. Though only there for a night, we made good use of the kitchen and everything worked fine.  Bed was very comfortable, the shower was large, and the A/C worked great. While we did not take advantage of the pool, it looked great out...We recently needed to go to a wedding in San Clemente, CA. Whenever we are in this area, we always like to visit San Juan Capistrano (SJC) as well.  We were originally looking for a hotel closer to SJC but there are not many near the mission.  We found this Residence Inn and decided to try it and ended up liking it very much. It is what we call a traveler’s hotel, not a destination hotel as it is not at a particular destination (management may not agree). In fact, it sits at the junction of three major destinations in the area (San Juan Capistrano, Dana Point, and San Clemente) and is just off I-5. It is less than five minutes to each of these locations except maybe 10 minutes to the heart of San Clemente, on surface streets, which made it ideal for us.The hotel is a typical Residence Inn and it was very nicely laid out. The rooms are what you’d expect from this chain.  This was the first time we have stayed in a “studio” room which was a little different for us, the bedroom being in an alcove off the living room. Though only there for a night, we made good use of the kitchen and everything worked fine.  Bed was very comfortable, the shower was large, and the A/C worked great. While we did not take advantage of the pool, it looked great out back. The hotel is very much up to date, clean, and very comfortable. The staff was also great.Location wise, it is on a hill in a small valley that empties into the Pacific Ocean.  The ocean is about 1 mile away and you can get a glance of it from the hotel.  The view of the hotel is for the most part “country”, but not quite sure out the front of the hotel which does face a car dealership I believe.The hotel is at the intersection of two streets, one of which takes you to Dana Point at the bottom of the hill, and the other street takes you to either SJC or San Clemente depending on which way you turn. The north bound on ramp to the I-5 is the fourth direction.Since my wife and I are sort of rail fans, I feel the need to comment on this. The main north-south railroad line for SoCal goes directly under and off to the side of the hotel. This line supports Amtrak, the local commuter line (LA’s Metro Link), and freight traffic (BNSF). The line in this part of the state is mostly a single track that everyone shares. Just south of the hotel is a siding that is used for passing. During the day, most of the traffic is passenger, but it is fairly often that one of the trains has to pull over to allow the other direction train to pass. Because of this, there can be a little extra horn blowing from the trains for safety. At night, it is more freight but not that bad. If we were awake, we could sometimes hear the horns blow but at night we didn’t hear anything.We would recommend this to anyone for this area.More</t>
   </si>
   <si>
+    <t>KAfromWH</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33022-d2411007-r218551703-Residence_Inn_by_Marriott_Dana_Point_San_Juan_Capistrano-San_Juan_Capistrano_Cali.html</t>
   </si>
   <si>
@@ -1909,6 +2131,9 @@
     <t>My mother lives in nearby Dana Point and the whole family descended on the area for a wedding. We were lucky to find this hotel. Quiet, clean, pleasant staff, beautiful facilities, great food, etc. we heard horror stories about other accommodations family rented. We gloated. Everyone was jealous at our situation. I wish every hotel/motel staff and owner would come and see how things should be done.More</t>
   </si>
   <si>
+    <t>milku</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33022-d2411007-r217355676-Residence_Inn_by_Marriott_Dana_Point_San_Juan_Capistrano-San_Juan_Capistrano_Cali.html</t>
   </si>
   <si>
@@ -1930,6 +2155,9 @@
     <t>We enjoyed the spacious, clean and comfortable studio suite that has a modern kitchen that's fully equipped. They even provide grocery shopping service daily which we didn't try.  Definitely ask for a room in the center of the building on the top floor. Being in the center, you'd be further from either side of train or highway. I could hear some train noise but not affecting sleep. When I reserved the room, I asked for a quiet room. So when I found out we're assigned a room very close to elevator, I was anxious but it turned out it IS the quietest location of the building.  We stayed there for 10 nights and I could testify we really enjoyed our room and had good sleep for such a lengthy stay.  The breakfast and evening snacks are also very good.More</t>
   </si>
   <si>
+    <t>Oz_Traveller50</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33022-d2411007-r215017253-Residence_Inn_by_Marriott_Dana_Point_San_Juan_Capistrano-San_Juan_Capistrano_Cali.html</t>
   </si>
   <si>
@@ -1954,6 +2182,9 @@
     <t>We stayed here five nights in July and found it very comfortable.  The bed was extremely soft and comfy as were the pillows.  I always look for a comfortable bed!  The room was spacious with a large computer desk and L shaped couch.  Small kitchenette with a dishwasher and microwave.  A fully cooked breakfast buffet was offered which was just ok but an added bonus we could take it outside to eat.  I would definitely stay here again.  The road noise was there but I personally did not mind and we did sleep with our windows open. It almost became like 'white noise'.More</t>
   </si>
   <si>
+    <t>BFLOMAN</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33022-d2411007-r210319371-Residence_Inn_by_Marriott_Dana_Point_San_Juan_Capistrano-San_Juan_Capistrano_Cali.html</t>
   </si>
   <si>
@@ -1978,6 +2209,9 @@
     <t>Very nice property. Nice rooms, nice common areas, and a great staff. The drawbacks are 2, like many hotels in this area it is very close to HWY 5 so ask for a room far away. The second drawback is the main parking lot has barely enough slots to park your car...if you arrive late you may have to park in an auxiliary lot. I would still stay here again but check in earlier.More</t>
   </si>
   <si>
+    <t>Alanblue80</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33022-d2411007-r209616929-Residence_Inn_by_Marriott_Dana_Point_San_Juan_Capistrano-San_Juan_Capistrano_Cali.html</t>
   </si>
   <si>
@@ -2002,6 +2236,9 @@
     <t>Stayed at this motel last year for 3 weeks came back this year big difference in the way this motel has changed in the way that they like your business the manager not what you would expect the maids don't want to do their job ask for room to be cleaned all she did was made bed and didn't clean bathroom or leave coffee or soap or shampoo had to go to front desk and to top everything you have to pay 12 dollars a day for parking on top of the room ratesMore</t>
   </si>
   <si>
+    <t>sanck6</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33022-d2411007-r207574106-Residence_Inn_by_Marriott_Dana_Point_San_Juan_Capistrano-San_Juan_Capistrano_Cali.html</t>
   </si>
   <si>
@@ -2029,6 +2266,9 @@
     <t>This hotel was spotless.  I stayed in a studio with a King and there was plenty of room!  Clean room and linens...free breakfast was typical of other Marriotts I had stayed at and was perfectly fine.  The breakfast area was a little messy at times, but the hotel was full when I stayed there.  Although it was full, the room was quiet...couln't hear anything from the hall or neighboring rooms.  As other reviewers have said, the train sound is a bit of an issue during the day, but at night it wasn't a problem and my room overlooked the tracks, but I also had a beautiful ocean view!  Easy access to the freeway as well. Pool area was very pretty  All in all, I would definitely stay here again if I travel back to the area.More</t>
   </si>
   <si>
+    <t>TrippingAmerican</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33022-d2411007-r200246557-Residence_Inn_by_Marriott_Dana_Point_San_Juan_Capistrano-San_Juan_Capistrano_Cali.html</t>
   </si>
   <si>
@@ -2053,6 +2293,9 @@
     <t>This is a common design Residence Inn that is well maintained.We had the large king room, which we prefer since the walled units chops it up and makes the room look smaller.The breakfast and the Manager Reception was very nice.The bent over backwards to make the food for my limited diet.We will go back again.This is a "Gotta Go" kinda place.IHG,RubeMore</t>
   </si>
   <si>
+    <t>Henry D</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33022-d2411007-r200154566-Residence_Inn_by_Marriott_Dana_Point_San_Juan_Capistrano-San_Juan_Capistrano_Cali.html</t>
   </si>
   <si>
@@ -2071,6 +2314,9 @@
     <t>This is a newer property that has some beautifully decorated public areas and clean, attractive, efficiently laid out rooms.  Each room has a full size refrigerator, a cooktop, microwave  and dishwasher in a kitchen area, a large desk, and other amenities.  The disadvantages: it's located at the intersection of two very busy streets and it's close enough to the train tracks so that traffic and train noise can be heard in the rooms.  We were at the west end of the hotel, farthest from the traffic, and we still found it irritating.  We had a reservation stating a 3 p.m. arrival, and at 5 our room wasn't ready and we had a half hour wait.  Desk staff was not very attentive.  On the other hand the complementary "enhanced" continental breakfast was above average. The hotel is a quick 2 1/2 miles to the mission and the beach, and there's free shuttle service available.  Parking is j$12 a day and the lot can fill up fast.More</t>
   </si>
   <si>
+    <t>ryze619</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33022-d2411007-r199992307-Residence_Inn_by_Marriott_Dana_Point_San_Juan_Capistrano-San_Juan_Capistrano_Cali.html</t>
   </si>
   <si>
@@ -2089,6 +2335,9 @@
     <t>My family and I went away for a little staycation.  We've never been to this Residence Inn before but it was close to Dana Point/Laguna Beach/San Juan Capistrano so it was super convenient.The hotel was well kept, the room spacious.  Full size fridge, stove top, microwave and dishwasher were in the room so we were able to have meals in the room if we wanted.  Free breakfast was awesome.  Not much selection but just enough to start our day!  If having a view is important, you might not like that it basically is the Costco, a trailer park, freeway, and car dealership.  That said, that wasn't a big deal to me.  You go out to the pool area, mini putting green, and basketball court and it was still like you were in another place.  The kids had a blast!Great service, everyone was friendly and accommodating.  We'll come back!More</t>
   </si>
   <si>
+    <t>Billy B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33022-d2411007-r198125771-Residence_Inn_by_Marriott_Dana_Point_San_Juan_Capistrano-San_Juan_Capistrano_Cali.html</t>
   </si>
   <si>
@@ -2116,6 +2365,9 @@
     <t>I was impressed with the new generation of residence inn when I travel i try and stay at residence inn great food clean rooms and friendly staff. The only downfall is pay to park I wish places would just hide the fee by raising price of room a bitMore</t>
   </si>
   <si>
+    <t>almaf_12</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33022-d2411007-r197653585-Residence_Inn_by_Marriott_Dana_Point_San_Juan_Capistrano-San_Juan_Capistrano_Cali.html</t>
   </si>
   <si>
@@ -2143,6 +2395,9 @@
     <t>The location of this hotel is convenient as far as access to freeway and not too far from the ocean.  However, it's not really in spot that offers great views.  The view out of our room was of the big Costco next door, with a little bit of the ocean behind that.   The rooms were clean, quite roomy, and nicely decorated.  The breakfast was one of the better I've experienced at a Marriott.  I especially enjoyed the blueberries.  Staff was friendly and they were accommodative as we arrived two hours before our official check-in time.  Only minor complaint would be that there was nobody at the front desk for check-in and check-out, so we had to wait for a bit on both occasions for somebody to show up.  Maybe a bell or something like that up at the desk could be useful so we would know how to get somebody's attention.More</t>
   </si>
   <si>
+    <t>E A</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33022-d2411007-r197596799-Residence_Inn_by_Marriott_Dana_Point_San_Juan_Capistrano-San_Juan_Capistrano_Cali.html</t>
   </si>
   <si>
@@ -2158,6 +2413,9 @@
     <t>So the hotel has their own private parking, and yet they charge $12 dollars a day fee - absurd.  Their excuse to me was well we have beach nearby - bogus!   No of the other hotels in the area charge a parking fee.   Get rid of the fee, as you're not renting the space to park the cars!!!  And how else is someone getting to the property??? (Walking?)Few other things - no dish soap, they give you 1 packet for dishwasher...OMG!  To funny, and this is suppose to be ...home away from home...The bathroom - you open the door and it almost hits the toilet.  Talk about cramped.  Other this room was clean and workable - TV channels have very few options - due to the new and dumb cable program for tvs...lol!More</t>
   </si>
   <si>
+    <t>zs67</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33022-d2411007-r190044015-Residence_Inn_by_Marriott_Dana_Point_San_Juan_Capistrano-San_Juan_Capistrano_Cali.html</t>
   </si>
   <si>
@@ -2182,6 +2440,9 @@
     <t>I stayed here for a week with my husband, two kids, and our au pair. The two bedroom/two bathroom suite w/ sofabed not only made our stay comfortable, it was a much better value than paying for multiple rooms and being separated by a hallway a more traditional hotel. I agree with the reviews that the hotel is understaffed - particularly at the breakfast bar - on the other hand, the hotel was spotless outside as well as inside (a major feat for the number of dogs who were staying there. The employees we interacted with were polite, warm and welcoming and did their best to accomdate all of our needs. The view isn't great, but the rooms were quiet (despite all of the dogs and even though it's right next to the highway), and the location is really convenient. Aside from staffing, my only other complaint was that I had a hard time sleeping, but I can't tell you why - the bed was comfortable and I usually don't have trouble sleeping when I travel. Maybe it's just age. I would definitely recommend this hotel and I plan to stay there again in the future.More</t>
   </si>
   <si>
+    <t>Toby H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33022-d2411007-r184339939-Residence_Inn_by_Marriott_Dana_Point_San_Juan_Capistrano-San_Juan_Capistrano_Cali.html</t>
   </si>
   <si>
@@ -2209,6 +2470,9 @@
     <t>Stayed here for ten days at the end of October and early November. Standard Residence Inn with a suite with a kitchenette. Breakfast everyday and manger's special three nights a week. $12 per day parking fee! That was a bit of a shock.More</t>
   </si>
   <si>
+    <t>CCC_wanderlust</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33022-d2411007-r183263284-Residence_Inn_by_Marriott_Dana_Point_San_Juan_Capistrano-San_Juan_Capistrano_Cali.html</t>
   </si>
   <si>
@@ -2227,6 +2491,9 @@
     <t>Much has been said in prior reviews about how understaffed this Residence and I saw that for myself. My colleague and I arrived at 4 p.m. on a Friday afternoon in October. There was a long line at reception and only one person at the front desk. He was like a chicken with its head cut off, running between the two work stations, answering the phones, and trying to manage the growing number of people coming to talk to him. These included a large number of wedding guests. After a half hour of waiting, my colleague and I decided to leave to grab dinner, as we had been traveling for the past 12 hours from the East Coast then had gone straight to work before coming to the hotel. When we returned two hours later, the number of guests at reception did not seem to have lessened; there was still one person at the front desk.  I was told that the only room available was on the first floor (I prefer higher floors for a personal sense of safety) I was also told that housekeeping was backed up on getting rooms ready. I said I would prefer to wait for a room available on a higher floor than check in to the first floor room only to move again.  After a half hour of waiting in the lobby, the front desk person approached me and said he was told that...Much has been said in prior reviews about how understaffed this Residence and I saw that for myself. My colleague and I arrived at 4 p.m. on a Friday afternoon in October. There was a long line at reception and only one person at the front desk. He was like a chicken with its head cut off, running between the two work stations, answering the phones, and trying to manage the growing number of people coming to talk to him. These included a large number of wedding guests. After a half hour of waiting, my colleague and I decided to leave to grab dinner, as we had been traveling for the past 12 hours from the East Coast then had gone straight to work before coming to the hotel. When we returned two hours later, the number of guests at reception did not seem to have lessened; there was still one person at the front desk.  I was told that the only room available was on the first floor (I prefer higher floors for a personal sense of safety) I was also told that housekeeping was backed up on getting rooms ready. I said I would prefer to wait for a room available on a higher floor than check in to the first floor room only to move again.  After a half hour of waiting in the lobby, the front desk person approached me and said he was told that it would be unrealistic for me to wait for a room since none would be available that night. He said I should  just check in to the first floor room  and relax and another room would be available to me the following day.  I was exhausted after a long day of travel and relented to check in to room 101, which is at the furthest end of the property. Both windows looked out to the parking lot and that is also where the smokers chose to smoke. While I could not smell the cigarette smoke, I did not feel safe that anyone can just look in to the room and I did not want to have to feel like I was in a cave by having the blinds drawn. Additionally, there were no drinking glasses in the kitchenette and the bathroom sink stopper was broken (so water did not drain). The following day, I informed them of these issues and was promised that housekeeping would be contacted about the glasses and engineering would be called regarding the stopper. Neither one appeared. I eventually found the glasses in the dishwasher, but wasn't sure if they were clean, so had to re-wash them.  No one came to fix the stopper.  Nor was another room on a different floor available to me. The same person at the front desk gave me the same line: “Check back with us tomorrow about moving to a different room.”  I spent two nights out of seven in room 101 with the broken sink stopper and a view of the smoker, before a room on my preferred floor was found for me. I was just too happy to move out of room 101 that I sucked it up and moved all of my things to the third floor room late on a Sunday night even though my Monday was an early work day. This property has a complimentary shuttle service to Dana Point Harbor from 10 a.m.-8 p.m. and my colleague and I were hoping to use it to catch the 11 a.m. Catalina Explorer from Dana Point to Avalon on a Sunday. Unfortunately, we were told that because the manager doesn't arrive until 11 a.m., the person at the front desk is not able to leave and drive the shuttle, and the shuttle would not be available until after noon. So, in addition to paying the daily $12 parking fee at this Residence in, we also had to shell out an additional $12 to park at Dana Point Harbor, because the complimentary shuttle was not available. Yet another reason how the understaffing at this property negatively affected customer service. The train horns did not bother me, but I could hear it whether I was in room 101 or room 338, so don't expect to escape the noise. If you like pork sausage, you'll like the complimentary breakfast at this property. That is what is served at this property every day, in different forms (sausage patties, sausage hash). One morning, the hot food (eggs, sausage, potatoes) were served almost half an hour late. Thankfully, the waffle maker was still operational. I rated this property with a 3 because if I overlooked the issues associated with the understaffing, it is an average Residence Inn: same room layout and amenities.  Its location is not convenient to walking to restaurants, stores, or local attractions, so I don't really understand why they would  have guests pay an additional $12 to park there. I expect to pay for parking if the property is near a local attraction (e.g., Residence inn Gaslamp Quarter which is adjacent to the ballpark) because you don't want non-guests to take advantage of the complimentary parking. But this location does not really offer anything extra to support the parking fee required. I booked at this property because of brand loyalty, but if I come back to  this area on another business trip, I would book at another Marriott, even if that location is an additional 5 miles from my workplace. I would still get the same Platinum bonus points but with a much nicer stay.More</t>
   </si>
   <si>
+    <t>Thom B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33022-d2411007-r175813648-Residence_Inn_by_Marriott_Dana_Point_San_Juan_Capistrano-San_Juan_Capistrano_Cali.html</t>
   </si>
   <si>
@@ -2248,6 +2515,9 @@
     <t>When we checked in, we noticed the hotel was extremely clean, which we thought was fantastic.  The room did not disappoint in that regard, very clean and pleasant.  Nice kitchenette, everything worked well.  The front desk clerk when we checked in was very friendly, mentioning the dinner they offered that night as well as what time the breakfast was available in the morning.  The desk clerk when we checked out (early to catch the boat to Catalina) was less than enthusiastic- did not even ask how our stay was!  The only troubling thing about the whole stay was the trains.  The hotel is next to the Amtrak tracks, and as such you get the frequent trips of the Amtrak Surfliner and Coastliner.  Those are not bad, as they go by quickly with only a quick horn blast.  However, late at night, the long and heavy freight trains rumble by and actually shake the building.  We were on the west side by the tracks, not sure if it was better on the other side, but we didn't inquire because we had a very short night ahead anyway.  All in all, a pleasant hotel that I would stay at again...just maybe on the east side next time.More</t>
   </si>
   <si>
+    <t>MarijancP</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33022-d2411007-r172831769-Residence_Inn_by_Marriott_Dana_Point_San_Juan_Capistrano-San_Juan_Capistrano_Cali.html</t>
   </si>
   <si>
@@ -2270,6 +2540,9 @@
   </si>
   <si>
     <t>I had read other reviews of the this hotel before staying.  We were concerned about the frontdesk customer service and timely room cleaning.  We decided to stay anyway as most reviewswere positive.  Laura at the front desk was superb.  She was attentive to our needs andmade sure we had a great stay.  Also Amy (a manager) was very accommodating.  Roomswere cleaned timely and well.  The beds were very comfortable.  We stayed on the freewayside of the property and freeway noise was very muted and did not affect our sleep.  Only suggestion would be a poolside bar!!!More</t>
+  </si>
+  <si>
+    <t>LA_Travelers_1</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33022-d2411007-r172086151-Residence_Inn_by_Marriott_Dana_Point_San_Juan_Capistrano-San_Juan_Capistrano_Cali.html</t>
@@ -2298,6 +2571,9 @@
 So I leave to go off and do other things and come back and check in - unfriendly front desk woman is gone and a gentleman checks me in.  He was okay but did not offer me the choice of points or my platinum arrival gift.  Which tells me that this hotel really isn't trained about how to check in Platinum...My first impression of this hotel was - you have to be kidding me.  I (like another reviewer) chose this hotel because of my Marriott status.  I get there at 2:00 in the afternoon and ask for a room with 2 beds - no they don't have one.  Okay - how about a suite as I am Platinum - no, don't have that either.  Out of frustration, I say - so my Platinum status is meaningless.  The woman (who was NOT warm or friendly) then goes to the back and comes back.  She continues to look at her computer and finally tells me they have a 2 bed suite but its not ready yet.  I ask how long until it is?  I was just looking for an estimate.  That estimate took a good 20 minutes of my standing there and hanging out to get.  I finally volunteered to go check the room myself at which point the woman did.  She comes back and says 20 minutes.  What an ordeal!  But at least I had a room # - 343.So I leave to go off and do other things and come back and check in - unfriendly front desk woman is gone and a gentleman checks me in.  He was okay but did not offer me the choice of points or my platinum arrival gift.  Which tells me that this hotel really isn't trained about how to check in Platinum members who stay here.I go to my room and it is beautiful.  The reason why my review got 4 stars.  It really is a nice and convenient place to stay.  I then read the review on tripadvisor who identified a front desk person (Jennifer) as a robotic individual.  Guess what - same person checked me in!  Surprise surprise.  When I go to check out, she is the one to check me out.  She asks me how my stay was - I said fine but not in a glowing way.  No follow up or anything from her.  She gives the air that she couldn't care less and that she is too good to be there.  I go to breakfast and am telling my girlfriend about my experience and the gentleman (Anthony) working the breakfast area asks me if there is anything he can get me.  I snidely say - a new front desk person.  Seems he has "radar ears" and actually sensed something was wrong which is why he came up to me.  He was great!  Another reason the hotel got 4 stars from me instead of 3.  He was proactive and actually cared about my stay - unlike the robot.  I much appreciated and respected his concern.So I would recommend this hotel - if you come in contact with the robot, its worth just sucking it up for the couple of minutes (or in my case 20+) for the beautiful rooms and the convenient hotel location.More</t>
   </si>
   <si>
+    <t>matt r</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33022-d2411007-r170496150-Residence_Inn_by_Marriott_Dana_Point_San_Juan_Capistrano-San_Juan_Capistrano_Cali.html</t>
   </si>
   <si>
@@ -2316,6 +2592,9 @@
     <t>July 2013</t>
   </si>
   <si>
+    <t>BongoColo</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33022-d2411007-r170201943-Residence_Inn_by_Marriott_Dana_Point_San_Juan_Capistrano-San_Juan_Capistrano_Cali.html</t>
   </si>
   <si>
@@ -2334,6 +2613,9 @@
     <t>This hotel feels relatively new and modernly decorated, we had the standard 'Studio Suite' which is a pretty typical layout at most Residence Inn's.  To me the title of 'Studio' infers something small and less that a typical suite, but our suite was spacious with a large fully functional kitchen and full size refrigerator.  I guess it is a studio as it is open between the sitting area and the bedroom.  My only complaint with the room is that the TV swivels back and forth between the bedroom and the sitting area, and really doesn't give a great view for either.  There was also a very nice and well laid out work area.  The breakfast is superior for an included buffet style, much better than most other hotels that offer this.  The fitness room is also above standard and well equipped.  Our only real complaint was the noise from the nearby train which is behind the hotel, but having stayed in hotels throughout this area, most have this problem.  At least they don't run much after the late evening.  On a plus for noise, even though close to busy I-5, the way the property is positioned seems to be out of range of most of this.  We did not like the $12 parking fee, and for a hotel with a standard parking lot this does seem excessive and not the norm for this type of hotel.  You are already paying...This hotel feels relatively new and modernly decorated, we had the standard 'Studio Suite' which is a pretty typical layout at most Residence Inn's.  To me the title of 'Studio' infers something small and less that a typical suite, but our suite was spacious with a large fully functional kitchen and full size refrigerator.  I guess it is a studio as it is open between the sitting area and the bedroom.  My only complaint with the room is that the TV swivels back and forth between the bedroom and the sitting area, and really doesn't give a great view for either.  There was also a very nice and well laid out work area.  The breakfast is superior for an included buffet style, much better than most other hotels that offer this.  The fitness room is also above standard and well equipped.  Our only real complaint was the noise from the nearby train which is behind the hotel, but having stayed in hotels throughout this area, most have this problem.  At least they don't run much after the late evening.  On a plus for noise, even though close to busy I-5, the way the property is positioned seems to be out of range of most of this.  We did not like the $12 parking fee, and for a hotel with a standard parking lot this does seem excessive and not the norm for this type of hotel.  You are already paying a premium, but relatively standard high room rate in this area.  You do get allot for that rate at this hotel, and we have already booked another stay.  It is a great location and within walking distance of the beach or harbor.More</t>
   </si>
   <si>
+    <t>nkgreig</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33022-d2411007-r168921981-Residence_Inn_by_Marriott_Dana_Point_San_Juan_Capistrano-San_Juan_Capistrano_Cali.html</t>
   </si>
   <si>
@@ -2352,6 +2634,9 @@
     <t>I would of gave it a 5, however we had some problems.  The first day after we got up, housekeeping knocked on door at 0730 ish, I related my kids were alseep, she said she'd come back.  We went to beach, came back in the evening and nobody cleaned our room, someone entered it, but didn't clean it.  All i wanted was towels, I assume she entered room, it looked spotless so she left without checking bathroom that had towels on the floor.  Around 11PM night 2, my wife wakes up inquiring why it was pitch dark as we brought nite lights and fans to block out noise.   I checked and Hotel lost power, it was pitch dark I couldn't see anything.  Room got hot and stuffy, I opened the window the 4 inches I was able to. I called front desk who related whole block lost power.  Around 130 AM my 2 year old son woke up screaming( we assume becuase it was pitch dark) jumped out of bed and took off running yelling "Mommy".  He got about 10 feet and we heard a big boom followed by crying.  he ran right into the corner of the table and hit right above his eye.  Finally at around 4ish power came back and we all got about 3-4 hours of sleep.  We went to beach again, came back and we noticed our room STILL HAD NOT been cleaned.  Once again,...I would of gave it a 5, however we had some problems.  The first day after we got up, housekeeping knocked on door at 0730 ish, I related my kids were alseep, she said she'd come back.  We went to beach, came back in the evening and nobody cleaned our room, someone entered it, but didn't clean it.  All i wanted was towels, I assume she entered room, it looked spotless so she left without checking bathroom that had towels on the floor.  Around 11PM night 2, my wife wakes up inquiring why it was pitch dark as we brought nite lights and fans to block out noise.   I checked and Hotel lost power, it was pitch dark I couldn't see anything.  Room got hot and stuffy, I opened the window the 4 inches I was able to. I called front desk who related whole block lost power.  Around 130 AM my 2 year old son woke up screaming( we assume becuase it was pitch dark) jumped out of bed and took off running yelling "Mommy".  He got about 10 feet and we heard a big boom followed by crying.  he ran right into the corner of the table and hit right above his eye.  Finally at around 4ish power came back and we all got about 3-4 hours of sleep.  We went to beach again, came back and we noticed our room STILL HAD NOT been cleaned.  Once again, I only cared about towels so I went to front desk who related they had issiues with some plubming or something so not everyone's room got serviced.  I told them my room number, and they said it would get cleaned.  After dinner we came back and finally room was cleaned.  We really like that a costco was to the right and an Albertson's food store was about a half a mile to the left.  About 2 miles(maybe less to the beach.  I partook in italian night and the meatballs were tasty, breakfast was a little above average hotel fare.  We all used pool which is nice.  I felt Doheany beach looked kind of seedy so we stayed away and went to Laguana Beach, Alsio beach or something like that which was nice.  Overall we really like the hotel but like I stated we had some issiues however I would def stay in the hotel again if I ever return to the area as it was clean and the employess were all friendly.More</t>
   </si>
   <si>
+    <t>LYNNE O</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33022-d2411007-r159075179-Residence_Inn_by_Marriott_Dana_Point_San_Juan_Capistrano-San_Juan_Capistrano_Cali.html</t>
   </si>
   <si>
@@ -2370,6 +2655,9 @@
     <t>February 2013</t>
   </si>
   <si>
+    <t>garek007</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33022-d2411007-r157098329-Residence_Inn_by_Marriott_Dana_Point_San_Juan_Capistrano-San_Juan_Capistrano_Cali.html</t>
   </si>
   <si>
@@ -2406,6 +2694,9 @@
     <t>The room was very nicely appointed ... very luxurious with granite counter tops.  I had a fabulous 2 day stay, no issues whatsoever. I did read about the noise from the metrolink, which concerned me, however, I never heard it and usually I will hear everything.  I was staying in the front of the hotel; perhaps that is the quiet location.</t>
   </si>
   <si>
+    <t>bekimiller</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33022-d2411007-r148201176-Residence_Inn_by_Marriott_Dana_Point_San_Juan_Capistrano-San_Juan_Capistrano_Cali.html</t>
   </si>
   <si>
@@ -2421,6 +2712,9 @@
     <t xml:space="preserve">My family stayed at this hotel the week before Christmas. The rooms are very clean and spacious. We had two little ones in the king studio room and it was not crowded at all. The beds are very comfortable, even the fold out one! The hotel staff are extremely nice and personable. The staff member in the morning was always helpful and gave us tips on getting good prices for Disneyland tickets. When going back to Orange County, I would definitely stay here again. </t>
   </si>
   <si>
+    <t>Mattylenzen</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33022-d2411007-r145547958-Residence_Inn_by_Marriott_Dana_Point_San_Juan_Capistrano-San_Juan_Capistrano_Cali.html</t>
   </si>
   <si>
@@ -2439,6 +2733,9 @@
     <t>November 2012</t>
   </si>
   <si>
+    <t>gapcmp</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33022-d2411007-r144873407-Residence_Inn_by_Marriott_Dana_Point_San_Juan_Capistrano-San_Juan_Capistrano_Cali.html</t>
   </si>
   <si>
@@ -2457,6 +2754,9 @@
     <t>We overall enjoyed are stay at the Residence Inn San Juan Capistrano. It is well located with very each access to Dana Point area restaurants, Doheny Harbor and the Mission at San Juan Capistrano. The Metrolink/Coaster rail link is TOO CLOSE. Train horns around the clock. We first heard them while checking in and asked the front desk person about them. The female front desk clerk explained how the trains stopped after 10:00 p.m. so not a worry. An out and out misrepresentation. Our (and others) first morning breakfast buffet experience was marred with no milk availability for cereal or oatmeal. Upon speaking with Anthony he indicated their vendor did not deliver and that they knew about it the night before. I asked him why, with several groceries nearby, no one solved the problem. Upon the suggestion from me, someone promptly headed to a store. Management suggestions from a longtime senior H.R. Executive: EMPLOYEE TRAINING and EMPOWERMENT. Train your staff to always be honest with the guest, don't misrepresent and empower your staff to solve problems when a senior manager is not available. Don't let the corporate b.s. worrying about a $2.50 reimbursement ruin a guest experience. We will stay again at this property. Kudos to Chris for being honest and forthright with us about the train issue when approached the second night of our stay. He is an outstanding employee.More</t>
   </si>
   <si>
+    <t>oldjgw</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33022-d2411007-r142923557-Residence_Inn_by_Marriott_Dana_Point_San_Juan_Capistrano-San_Juan_Capistrano_Cali.html</t>
   </si>
   <si>
@@ -2478,6 +2778,9 @@
     <t>Number 1 - $12 for PARKING in the middle of no where?????  This is not downtown!! We went down as part of a multi couple wedding party so we got a bulk rate on the rooms which made them very reasonable.  The place is very new and clean.  Being a Residence Inn it had a very usable kitchen, unfortunately one of the couples actually had to change rooms because of the strong curry smell from a previous guest.If you don't mind looking at Costco/I-5/a car dealer and Amtrak the location is great for the towns of San Clemente and San Juan Capistrano and an easy drive to Laguna Beach.After the wedding (afternoon affair) we sat around the fire pit and had some wine and talked.  We're older and left before 9:00 PM but DO NOT STAY in the back on the first floor overlooking the fire pit or pool.  I can see, even though we were not very loud, it can be an annoyance for some guests. Breakfast was fine and generous, the rooms were clean and well kept.  Staff was friendly and professional.  Only some little things were like no little shower cap or shoe rag in the bathroom pack.  Not a big deal but you would expect those things.All in all it was ok.  I'm not sure I would hurry back.More</t>
   </si>
   <si>
+    <t>Pamsdelivery</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33022-d2411007-r142592067-Residence_Inn_by_Marriott_Dana_Point_San_Juan_Capistrano-San_Juan_Capistrano_Cali.html</t>
   </si>
   <si>
@@ -2511,6 +2814,9 @@
     <t>I love this hotel. Stayed 14 days and definitely will go back. Spacious room with full kitchen.It is a new hotel so it is very clean and new. Comfortable bed but they do have a train that makes a lot of noise but you get used to it. Same boring breakfast as other hotels but in the evening they have snacks and also a barbecue on Thursday night with Hamburgers hot dogs, salads and wine and beer, I enjoyed relaxing by the fire pit. Rent a car because no restaurants within walking but a 5 minute ride to down town San Juan or San Clemente. View overlooks Costco and the reailroad tracks so don't expect a great view on the front side but from the back you can see the ocean and a prettier view.More</t>
   </si>
   <si>
+    <t>Randall J</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33022-d2411007-r137019064-Residence_Inn_by_Marriott_Dana_Point_San_Juan_Capistrano-San_Juan_Capistrano_Cali.html</t>
   </si>
   <si>
@@ -2529,6 +2835,9 @@
     <t>July 2012</t>
   </si>
   <si>
+    <t>tooka</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33022-d2411007-r136398793-Residence_Inn_by_Marriott_Dana_Point_San_Juan_Capistrano-San_Juan_Capistrano_Cali.html</t>
   </si>
   <si>
@@ -2550,6 +2859,9 @@
     <t>Well, the location is very convenient. It's right in the middle of everything ( by car of course) very close to Dana point, Laguna beach &amp; Newport Beach. It's close to SNA airport &amp; Disneyland. It's right by the highway so that's both good &amp; bad. It does get very noisy. It's also close to a train station and emergency services. But the noise wasn't too bothersome. The hotel is new &amp; looks it. It's clean and nice. We stayed in a 2br and it was a nice size. The rooms are large &amp; bathrooms are nice. A full size kitchen is soooo nice with 2 young kids. BUT I was surprised that it wasn't fully equipped. You need to buy your own dish washing soap &amp; liquid. There's no kettle. The laundry room ( located on the main floor) is clean. Breakfast is ok. Same thing everyday. Nothing special. But their evening snacks provided free 3 times a week are great! It's a dinner really. The pool area is ok. We didn't use it at all. This hotel caters to both families &amp; professionals but there were also a lot of sketchy people at the hotel. One thing I really didn't like was that smoking was allowed by the pool side &amp; basketball court. So I really didn't take my kids out there too often. Overall it's a new hotel with full kitchen close to most things. That's all...Well, the location is very convenient. It's right in the middle of everything ( by car of course) very close to Dana point, Laguna beach &amp; Newport Beach. It's close to SNA airport &amp; Disneyland. It's right by the highway so that's both good &amp; bad. It does get very noisy. It's also close to a train station and emergency services. But the noise wasn't too bothersome. The hotel is new &amp; looks it. It's clean and nice. We stayed in a 2br and it was a nice size. The rooms are large &amp; bathrooms are nice. A full size kitchen is soooo nice with 2 young kids. BUT I was surprised that it wasn't fully equipped. You need to buy your own dish washing soap &amp; liquid. There's no kettle. The laundry room ( located on the main floor) is clean. Breakfast is ok. Same thing everyday. Nothing special. But their evening snacks provided free 3 times a week are great! It's a dinner really. The pool area is ok. We didn't use it at all. This hotel caters to both families &amp; professionals but there were also a lot of sketchy people at the hotel. One thing I really didn't like was that smoking was allowed by the pool side &amp; basketball court. So I really didn't take my kids out there too often. Overall it's a new hotel with full kitchen close to most things. That's all nothing special or fancy. Also there's no bell service. We had to take our own luggage at checkin/out! I called down one asking for something &amp; was told I'd have to come down to get it myself!! Well I wasnt about to move my sleeping 17month old. We needed to go to a clinic, front desk staff had no idea where a medical clinic close to the hotel would be!!! Again, nothing special, just a hotel.More</t>
   </si>
   <si>
+    <t>tstangel</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33022-d2411007-r135614932-Residence_Inn_by_Marriott_Dana_Point_San_Juan_Capistrano-San_Juan_Capistrano_Cali.html</t>
   </si>
   <si>
@@ -2565,6 +2877,9 @@
     <t>Rooms are spacious, work desk area is large and provides plenty of plugs for your many tech toys, bathrooms are spotless with an amazing shower and most importantly the bed and pillows are incredibly comfortable.  Sure the common area is busy yet you can easily enjoy breakfast in your own room especially if you are a chef as the kitchen is well equipped for late night omelettes!  If you are half way between OC and SD, this is the place to stay.  Very convenient location and wonderful staff.</t>
   </si>
   <si>
+    <t>crazyislandmom</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33022-d2411007-r133222654-Residence_Inn_by_Marriott_Dana_Point_San_Juan_Capistrano-San_Juan_Capistrano_Cali.html</t>
   </si>
   <si>
@@ -2583,6 +2898,9 @@
     <t>The front desk staff was friendly and helpful, the hotel is in great shape and the room was clean and fresh.  Breakfast was standard Residence Inn fare, although the breakfast room is rather cramped and undersized for the size of the property.  The hotel is conveniently located, and offers peek ocean views to the rear of the property.  Unfortunately, our stay was marred by the hotel's lack of control over its other guests in the common areas.   Our room overlooked the back of the hotel where the pool and fire pit are located, and the first night, a large group of guests partied away on the back patio until well past 11:30pm.   We figured that it was a Saturday night, and possibly just an isolated incident, but then another group was out back whooping it up until after midnight on Sunday, with no sign of management until we called to complain around 11:45pm.   Why we needed to call at that hour is something I don't understand--it's a public space that should be supervised at least minimally on a regular basis BEFORE guests need to complain.   There were also no rules posted governing small children in the spa.   There were at least two non-toilet trained toddlers in the spa with their parents (not wearing swim diapers), and one child who appeared to be in the spa specifically to relieve himself.  Yuck.   Also, a dirty diaper was discarded  in the landscaping surrounding...The front desk staff was friendly and helpful, the hotel is in great shape and the room was clean and fresh.  Breakfast was standard Residence Inn fare, although the breakfast room is rather cramped and undersized for the size of the property.  The hotel is conveniently located, and offers peek ocean views to the rear of the property.  Unfortunately, our stay was marred by the hotel's lack of control over its other guests in the common areas.   Our room overlooked the back of the hotel where the pool and fire pit are located, and the first night, a large group of guests partied away on the back patio until well past 11:30pm.   We figured that it was a Saturday night, and possibly just an isolated incident, but then another group was out back whooping it up until after midnight on Sunday, with no sign of management until we called to complain around 11:45pm.   Why we needed to call at that hour is something I don't understand--it's a public space that should be supervised at least minimally on a regular basis BEFORE guests need to complain.   There were also no rules posted governing small children in the spa.   There were at least two non-toilet trained toddlers in the spa with their parents (not wearing swim diapers), and one child who appeared to be in the spa specifically to relieve himself.  Yuck.   Also, a dirty diaper was discarded  in the landscaping surrounding the pool, which did not add to the atmosphere either.    I politely informed staff of the diaper (as well as the lack of clean towels), but I feel as if there needs to be a bit more control exerted over the hotel's public spaces.More</t>
   </si>
   <si>
+    <t>FamilyfunlovetheSun</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33022-d2411007-r132571027-Residence_Inn_by_Marriott_Dana_Point_San_Juan_Capistrano-San_Juan_Capistrano_Cali.html</t>
   </si>
   <si>
@@ -2604,6 +2922,9 @@
     <t>The hotel must be fairly new, the property/rooms are very nice and accommodating.  It was a great place to stay for a family visit, 35(+/-) minutes from Disneyland and 35(+/-) minutes from Lego-land.  You can see Costco from the property so that is nice for less expensive gas and a quick cheap bite to eat.  Albertsons (grocery store) right up the street.  Beach was 5 minutes away.  With a family you should go to "baby beach" as the nice locals had recommended to us.  Pool was small, but no big deal it was not crowded and if you need more room the ocean is right down the street.  The staff was great!  Breakfast staff was all very friendly as well as the housekeepers and Front Desk staff.More</t>
   </si>
   <si>
+    <t>jarocha914</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33022-d2411007-r132350566-Residence_Inn_by_Marriott_Dana_Point_San_Juan_Capistrano-San_Juan_Capistrano_Cali.html</t>
   </si>
   <si>
@@ -2625,6 +2946,9 @@
     <t>This was my first stay at a Residence Inn and I did not have high expectations.  I was pleasantly surprised at how new and clean the RI SJC is. My room was a studio with a King bed and was quite spacious for my three day stay.  The gym is small, but well equiped.  I noticed a family with a dog at the firepit, and the manager told me that any size dogs are allowed.  That makes like a mandatory stop for my family and our 60 lb 'puppy'.While there is nothing in walking distance, the restaurants in San Juan Capistrano are only a 5 min drive.  And the cafes and shopping areas on Avenida Del Mar in San Clemente are only 10 mins by freeway.  I drove 3 min down the road to Doheny Beach for a run at sunset.  Very central to everything.If you are visiting the Meggitt offices in SJC, the RI shuttle will take you there and pick you up.More</t>
   </si>
   <si>
+    <t>Heavy T</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33022-d2411007-r130419455-Residence_Inn_by_Marriott_Dana_Point_San_Juan_Capistrano-San_Juan_Capistrano_Cali.html</t>
   </si>
   <si>
@@ -2638,6 +2962,9 @@
   </si>
   <si>
     <t>Really enjoyed our stay here.  Very good breakfast and they even serve dinner three nights a week to their guests.  How often do you see a staff member serve birthday cake for one of the extended stay guest with a big smile on her face ?? We only stayed two night at this location however I wish we could have stayed there the other 3 nights because it was far above the other hotel. If we ever get another chance to stay here --- we will !</t>
+  </si>
+  <si>
+    <t>jek134</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33022-d2411007-r130168619-Residence_Inn_by_Marriott_Dana_Point_San_Juan_Capistrano-San_Juan_Capistrano_Cali.html</t>
@@ -2663,6 +2990,9 @@
 The pool area is small, but nice and clean. Again, since everything is brand new, the whole area looked nice. My husband asked for a few golf balls and a putter as they have a cute putting green there. Since it is a Residence Inn, the hotel and outdoor area have a very homey feeling. It's like being in your friend's backyard - really nice backyard. They also had a firepit with chairs around it. Nice, but we didn't use it. The ocean view is really far off, but oddly the beach is not that far of a drive. Just a few minutes - like a mile and a half or so. The area around...We wanted our kids to do a grunion run at Doheny State Beach so we booked a room at this hotel using points. It was a wonderful stay. The hotel is new so it is sparkling and very clean. I loved the decor. The location was near enough to the beach, but not walking distance. There aren't many choices for food nearby that we could find. We were craving Japanese, but couldn't find one near enough to the hotel. We ended up having Chinese food, which was just okay. There is a Costco right next door. I'm sure it is walkable, but I decided to drive there. We bought a lunch of hot dogs and pizza from there and brought it back to the pool. The pool area is small, but nice and clean. Again, since everything is brand new, the whole area looked nice. My husband asked for a few golf balls and a putter as they have a cute putting green there. Since it is a Residence Inn, the hotel and outdoor area have a very homey feeling. It's like being in your friend's backyard - really nice backyard. They also had a firepit with chairs around it. Nice, but we didn't use it. The ocean view is really far off, but oddly the beach is not that far of a drive. Just a few minutes - like a mile and a half or so. The area around the hotel isn't so great, but when you're in the hotel, it feels relaxing and comfortable. The free breakfast was standard Residence Inn, always a treat (but not as nice as Embassy Suites' omelet station - but then again, ES doesn't provide weekly dinners like RI either). I don't know if it is because the hotel just opened, but the girl at the front desk didn't seem to know much. She had a thick Eastern European accent, which was difficult for me to understand at times, and she did not smile once. I asked her a couple of questions, which she did not know the answers to, which I felt should have been standard such as, "How far is the beach?" Later, a lady who I think is the manager came out and she was very friendly and seemed to know much more.Because we used points, we were given a "studio," but it was still quite large. I had bought some pizza rolls for my kids to munch on, but couldn't find the oven. I called the front desk to ask where the oven was. The girls said it was in the kitchen. I asked if it was disguised or hidden somewhere. She said no. I could not find the oven. The girl said every room has an oven so it's there somewhere. I asked them to send someone to the room to show me. A minute later, a male called the room and said that studios do not have ovens. Oh - okay. No big deal, but I thought I was going crazy not being able to find the oven in such a small kitchen. Overall, I will stay at this hotel again because it's comfy and clean. BTW, we didn't see any grunion that night. :(More</t>
   </si>
   <si>
+    <t>travelintj</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33022-d2411007-r127836234-Residence_Inn_by_Marriott_Dana_Point_San_Juan_Capistrano-San_Juan_Capistrano_Cali.html</t>
   </si>
   <si>
@@ -2679,6 +3009,9 @@
   </si>
   <si>
     <t>Pro's - new property, nice housekeeping staffCon's - upon check-in, met by "Laura" - gee, bad atitude for someone in the "hospitality" business.. Short, curt, not at all friendly. Was given a room facing Stonehill, a busy/ noisy street. Upon entering the room, went to freshen up and discovered the toilet was clogged. Called to the front desk to ask for it to be repaired, "Laura" said that if they couldn't fix it, that there were few options as they were full. I explained to her that I was not asking to be moved...snotty attitude. Spent the first night in the room, figured out the following day that one of the reasons it was so noisy is that the windows did not fuly close/ seal. Faulty installation. Asked to be moved and got a first floor room facing the freeway. Suprisingly much quieter. Kudos to the housekeeping staff. During the move, forgot a cell pone charger. They brought it to us. Asked for additional soap. tissues, no problem. $12.00 for parking - really guys? Overall - nice property, but probably won't stay here again. Overpriced and don't need the attitude.Too BadMore</t>
+  </si>
+  <si>
+    <t>A_and_B_from_PA</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33022-d2411007-r125935037-Residence_Inn_by_Marriott_Dana_Point_San_Juan_Capistrano-San_Juan_Capistrano_Cali.html</t>
@@ -3204,43 +3537,47 @@
       <c r="A2" t="n">
         <v>61621</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>44</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M2" t="n">
         <v>4</v>
       </c>
       <c r="N2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
@@ -3254,50 +3591,54 @@
       <c r="W2" t="s"/>
       <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>61621</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>55</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="J3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="K3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="L3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="M3" t="n">
         <v>5</v>
       </c>
       <c r="N3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P3" t="n">
         <v>5</v>
@@ -3317,50 +3658,54 @@
       <c r="W3" t="s"/>
       <c r="X3" t="s"/>
       <c r="Y3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>61621</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>63</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F4" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="G4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I4" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="J4" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="K4" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="L4" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="M4" t="n">
         <v>4</v>
       </c>
       <c r="N4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="P4" t="n">
         <v>4</v>
@@ -3378,50 +3723,54 @@
       <c r="W4" t="s"/>
       <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>61621</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>71</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F5" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="G5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I5" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="J5" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="K5" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="L5" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="M5" t="n">
         <v>3</v>
       </c>
       <c r="N5" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="O5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="s"/>
@@ -3433,56 +3782,60 @@
         <v>0</v>
       </c>
       <c r="W5" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="X5" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="Y5" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>61621</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>81</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F6" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="G6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I6" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="J6" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="K6" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="L6" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="M6" t="n">
         <v>4</v>
       </c>
       <c r="N6" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="O6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P6" t="n">
         <v>5</v>
@@ -3500,41 +3853,45 @@
       <c r="W6" t="s"/>
       <c r="X6" t="s"/>
       <c r="Y6" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>61621</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>88</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F7" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="G7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I7" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="J7" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="K7" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="L7" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="M7" t="n">
         <v>5</v>
@@ -3553,50 +3910,54 @@
       <c r="W7" t="s"/>
       <c r="X7" t="s"/>
       <c r="Y7" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>61621</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="B8" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>94</v>
+      </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F8" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="G8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I8" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="J8" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="K8" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="L8" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="M8" t="n">
         <v>4</v>
       </c>
       <c r="N8" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="O8" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P8" t="s"/>
       <c r="Q8" t="n">
@@ -3616,50 +3977,54 @@
       <c r="W8" t="s"/>
       <c r="X8" t="s"/>
       <c r="Y8" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>61621</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
+      <c r="B9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>101</v>
+      </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F9" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="G9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I9" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="J9" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="K9" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="L9" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="M9" t="n">
         <v>4</v>
       </c>
       <c r="N9" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="O9" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="P9" t="s"/>
       <c r="Q9" t="s"/>
@@ -3673,50 +4038,54 @@
       <c r="W9" t="s"/>
       <c r="X9" t="s"/>
       <c r="Y9" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>61621</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
+      <c r="B10" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C10" t="s">
+        <v>107</v>
+      </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F10" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="G10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I10" t="s">
+        <v>109</v>
+      </c>
+      <c r="J10" t="s">
+        <v>110</v>
+      </c>
+      <c r="K10" t="s">
+        <v>111</v>
+      </c>
+      <c r="L10" t="s">
+        <v>112</v>
+      </c>
+      <c r="M10" t="n">
+        <v>5</v>
+      </c>
+      <c r="N10" t="s">
         <v>100</v>
       </c>
-      <c r="J10" t="s">
-        <v>101</v>
-      </c>
-      <c r="K10" t="s">
-        <v>102</v>
-      </c>
-      <c r="L10" t="s">
-        <v>103</v>
-      </c>
-      <c r="M10" t="n">
-        <v>5</v>
-      </c>
-      <c r="N10" t="s">
-        <v>93</v>
-      </c>
       <c r="O10" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P10" t="s"/>
       <c r="Q10" t="s"/>
@@ -3730,50 +4099,54 @@
       <c r="W10" t="s"/>
       <c r="X10" t="s"/>
       <c r="Y10" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>61621</v>
       </c>
-      <c r="B11" t="s"/>
-      <c r="C11" t="s"/>
+      <c r="B11" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C11" t="s">
+        <v>113</v>
+      </c>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F11" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="G11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I11" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="J11" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="K11" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="L11" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="M11" t="n">
         <v>4</v>
       </c>
       <c r="N11" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="O11" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="P11" t="n">
         <v>4</v>
@@ -3793,50 +4166,54 @@
       <c r="W11" t="s"/>
       <c r="X11" t="s"/>
       <c r="Y11" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>61621</v>
       </c>
-      <c r="B12" t="s"/>
-      <c r="C12" t="s"/>
+      <c r="B12" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C12" t="s">
+        <v>121</v>
+      </c>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F12" t="s">
-        <v>111</v>
+        <v>122</v>
       </c>
       <c r="G12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I12" t="s">
-        <v>112</v>
+        <v>123</v>
       </c>
       <c r="J12" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="K12" t="s">
-        <v>114</v>
+        <v>125</v>
       </c>
       <c r="L12" t="s">
-        <v>115</v>
+        <v>126</v>
       </c>
       <c r="M12" t="n">
         <v>2</v>
       </c>
       <c r="N12" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="O12" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P12" t="s"/>
       <c r="Q12" t="s"/>
@@ -3852,56 +4229,60 @@
         <v>0</v>
       </c>
       <c r="W12" t="s">
-        <v>116</v>
+        <v>127</v>
       </c>
       <c r="X12" t="s">
-        <v>117</v>
+        <v>128</v>
       </c>
       <c r="Y12" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>61621</v>
       </c>
-      <c r="B13" t="s"/>
-      <c r="C13" t="s"/>
+      <c r="B13" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C13" t="s">
+        <v>130</v>
+      </c>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F13" t="s">
-        <v>119</v>
+        <v>131</v>
       </c>
       <c r="G13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I13" t="s">
-        <v>120</v>
+        <v>132</v>
       </c>
       <c r="J13" t="s">
-        <v>121</v>
+        <v>133</v>
       </c>
       <c r="K13" t="s">
-        <v>122</v>
+        <v>134</v>
       </c>
       <c r="L13" t="s">
-        <v>123</v>
+        <v>135</v>
       </c>
       <c r="M13" t="n">
         <v>5</v>
       </c>
       <c r="N13" t="s">
-        <v>124</v>
+        <v>136</v>
       </c>
       <c r="O13" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P13" t="s"/>
       <c r="Q13" t="s"/>
@@ -3915,50 +4296,54 @@
       <c r="W13" t="s"/>
       <c r="X13" t="s"/>
       <c r="Y13" t="s">
-        <v>123</v>
+        <v>135</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>61621</v>
       </c>
-      <c r="B14" t="s"/>
-      <c r="C14" t="s"/>
+      <c r="B14" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C14" t="s">
+        <v>137</v>
+      </c>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F14" t="s">
-        <v>125</v>
+        <v>138</v>
       </c>
       <c r="G14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I14" t="s">
-        <v>126</v>
+        <v>139</v>
       </c>
       <c r="J14" t="s">
-        <v>127</v>
+        <v>140</v>
       </c>
       <c r="K14" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="L14" t="s">
-        <v>129</v>
+        <v>142</v>
       </c>
       <c r="M14" t="n">
         <v>4</v>
       </c>
       <c r="N14" t="s">
-        <v>130</v>
+        <v>143</v>
       </c>
       <c r="O14" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P14" t="n">
         <v>3</v>
@@ -3976,50 +4361,54 @@
       <c r="W14" t="s"/>
       <c r="X14" t="s"/>
       <c r="Y14" t="s">
-        <v>131</v>
+        <v>144</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>61621</v>
       </c>
-      <c r="B15" t="s"/>
-      <c r="C15" t="s"/>
+      <c r="B15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C15" t="s">
+        <v>145</v>
+      </c>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F15" t="s">
-        <v>132</v>
+        <v>146</v>
       </c>
       <c r="G15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I15" t="s">
-        <v>133</v>
+        <v>147</v>
       </c>
       <c r="J15" t="s">
-        <v>134</v>
+        <v>148</v>
       </c>
       <c r="K15" t="s">
-        <v>135</v>
+        <v>149</v>
       </c>
       <c r="L15" t="s">
-        <v>136</v>
+        <v>150</v>
       </c>
       <c r="M15" t="n">
         <v>4</v>
       </c>
       <c r="N15" t="s">
-        <v>137</v>
+        <v>151</v>
       </c>
       <c r="O15" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P15" t="s"/>
       <c r="Q15" t="n">
@@ -4039,50 +4428,54 @@
       <c r="W15" t="s"/>
       <c r="X15" t="s"/>
       <c r="Y15" t="s">
-        <v>138</v>
+        <v>152</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>61621</v>
       </c>
-      <c r="B16" t="s"/>
-      <c r="C16" t="s"/>
+      <c r="B16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C16" t="s">
+        <v>153</v>
+      </c>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F16" t="s">
-        <v>139</v>
+        <v>154</v>
       </c>
       <c r="G16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I16" t="s">
-        <v>140</v>
+        <v>155</v>
       </c>
       <c r="J16" t="s">
-        <v>141</v>
+        <v>156</v>
       </c>
       <c r="K16" t="s">
-        <v>142</v>
+        <v>157</v>
       </c>
       <c r="L16" t="s">
-        <v>143</v>
+        <v>158</v>
       </c>
       <c r="M16" t="n">
         <v>2</v>
       </c>
       <c r="N16" t="s">
-        <v>137</v>
+        <v>151</v>
       </c>
       <c r="O16" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P16" t="s"/>
       <c r="Q16" t="n">
@@ -4102,50 +4495,54 @@
       <c r="W16" t="s"/>
       <c r="X16" t="s"/>
       <c r="Y16" t="s">
-        <v>144</v>
+        <v>159</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>61621</v>
       </c>
-      <c r="B17" t="s"/>
-      <c r="C17" t="s"/>
+      <c r="B17" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C17" t="s">
+        <v>160</v>
+      </c>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F17" t="s">
-        <v>145</v>
+        <v>161</v>
       </c>
       <c r="G17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I17" t="s">
-        <v>146</v>
+        <v>162</v>
       </c>
       <c r="J17" t="s">
-        <v>147</v>
+        <v>163</v>
       </c>
       <c r="K17" t="s">
-        <v>148</v>
+        <v>164</v>
       </c>
       <c r="L17" t="s">
-        <v>149</v>
+        <v>165</v>
       </c>
       <c r="M17" t="n">
         <v>3</v>
       </c>
       <c r="N17" t="s">
-        <v>150</v>
+        <v>166</v>
       </c>
       <c r="O17" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P17" t="s"/>
       <c r="Q17" t="s"/>
@@ -4157,56 +4554,60 @@
         <v>0</v>
       </c>
       <c r="W17" t="s">
-        <v>151</v>
+        <v>167</v>
       </c>
       <c r="X17" t="s">
-        <v>152</v>
+        <v>168</v>
       </c>
       <c r="Y17" t="s">
-        <v>153</v>
+        <v>169</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>61621</v>
       </c>
-      <c r="B18" t="s"/>
-      <c r="C18" t="s"/>
+      <c r="B18" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C18" t="s">
+        <v>170</v>
+      </c>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F18" t="s">
-        <v>154</v>
+        <v>171</v>
       </c>
       <c r="G18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I18" t="s">
-        <v>155</v>
+        <v>172</v>
       </c>
       <c r="J18" t="s">
-        <v>156</v>
+        <v>173</v>
       </c>
       <c r="K18" t="s">
-        <v>157</v>
+        <v>174</v>
       </c>
       <c r="L18" t="s">
-        <v>158</v>
+        <v>175</v>
       </c>
       <c r="M18" t="n">
         <v>5</v>
       </c>
       <c r="N18" t="s">
-        <v>159</v>
+        <v>176</v>
       </c>
       <c r="O18" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="P18" t="s"/>
       <c r="Q18" t="s"/>
@@ -4220,50 +4621,54 @@
       <c r="W18" t="s"/>
       <c r="X18" t="s"/>
       <c r="Y18" t="s">
-        <v>158</v>
+        <v>175</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>61621</v>
       </c>
-      <c r="B19" t="s"/>
-      <c r="C19" t="s"/>
+      <c r="B19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C19" t="s">
+        <v>177</v>
+      </c>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F19" t="s">
-        <v>160</v>
+        <v>178</v>
       </c>
       <c r="G19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I19" t="s">
-        <v>161</v>
+        <v>179</v>
       </c>
       <c r="J19" t="s">
-        <v>162</v>
+        <v>180</v>
       </c>
       <c r="K19" t="s">
-        <v>163</v>
+        <v>181</v>
       </c>
       <c r="L19" t="s">
-        <v>164</v>
+        <v>182</v>
       </c>
       <c r="M19" t="n">
         <v>3</v>
       </c>
       <c r="N19" t="s">
-        <v>165</v>
+        <v>183</v>
       </c>
       <c r="O19" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P19" t="n">
         <v>3</v>
@@ -4279,56 +4684,60 @@
         <v>0</v>
       </c>
       <c r="W19" t="s">
-        <v>166</v>
+        <v>184</v>
       </c>
       <c r="X19" t="s">
-        <v>167</v>
+        <v>185</v>
       </c>
       <c r="Y19" t="s">
-        <v>168</v>
+        <v>186</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>61621</v>
       </c>
-      <c r="B20" t="s"/>
-      <c r="C20" t="s"/>
+      <c r="B20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C20" t="s">
+        <v>130</v>
+      </c>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F20" t="s">
-        <v>169</v>
+        <v>187</v>
       </c>
       <c r="G20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H20" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I20" t="s">
-        <v>170</v>
+        <v>188</v>
       </c>
       <c r="J20" t="s">
-        <v>171</v>
+        <v>189</v>
       </c>
       <c r="K20" t="s">
-        <v>172</v>
+        <v>190</v>
       </c>
       <c r="L20" t="s">
-        <v>173</v>
+        <v>191</v>
       </c>
       <c r="M20" t="n">
         <v>5</v>
       </c>
       <c r="N20" t="s">
-        <v>174</v>
+        <v>192</v>
       </c>
       <c r="O20" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P20" t="s"/>
       <c r="Q20" t="s"/>
@@ -4340,56 +4749,60 @@
         <v>0</v>
       </c>
       <c r="W20" t="s">
-        <v>166</v>
+        <v>184</v>
       </c>
       <c r="X20" t="s">
-        <v>167</v>
+        <v>185</v>
       </c>
       <c r="Y20" t="s">
-        <v>175</v>
+        <v>193</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>61621</v>
       </c>
-      <c r="B21" t="s"/>
-      <c r="C21" t="s"/>
+      <c r="B21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C21" t="s">
+        <v>194</v>
+      </c>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F21" t="s">
-        <v>176</v>
+        <v>195</v>
       </c>
       <c r="G21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H21" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I21" t="s">
-        <v>177</v>
+        <v>196</v>
       </c>
       <c r="J21" t="s">
-        <v>178</v>
+        <v>197</v>
       </c>
       <c r="K21" t="s">
-        <v>179</v>
+        <v>198</v>
       </c>
       <c r="L21" t="s">
-        <v>180</v>
+        <v>199</v>
       </c>
       <c r="M21" t="n">
         <v>3</v>
       </c>
       <c r="N21" t="s">
-        <v>165</v>
+        <v>183</v>
       </c>
       <c r="O21" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P21" t="s"/>
       <c r="Q21" t="s"/>
@@ -4407,56 +4820,60 @@
         <v>0</v>
       </c>
       <c r="W21" t="s">
-        <v>181</v>
+        <v>200</v>
       </c>
       <c r="X21" t="s">
-        <v>182</v>
+        <v>201</v>
       </c>
       <c r="Y21" t="s">
-        <v>183</v>
+        <v>202</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>61621</v>
       </c>
-      <c r="B22" t="s"/>
-      <c r="C22" t="s"/>
+      <c r="B22" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C22" t="s">
+        <v>203</v>
+      </c>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F22" t="s">
-        <v>184</v>
+        <v>204</v>
       </c>
       <c r="G22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I22" t="s">
-        <v>185</v>
+        <v>205</v>
       </c>
       <c r="J22" t="s">
-        <v>186</v>
+        <v>206</v>
       </c>
       <c r="K22" t="s">
-        <v>187</v>
+        <v>207</v>
       </c>
       <c r="L22" t="s">
-        <v>188</v>
+        <v>208</v>
       </c>
       <c r="M22" t="n">
         <v>4</v>
       </c>
       <c r="N22" t="s">
-        <v>165</v>
+        <v>183</v>
       </c>
       <c r="O22" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P22" t="n">
         <v>4</v>
@@ -4474,56 +4891,60 @@
         <v>0</v>
       </c>
       <c r="W22" t="s">
-        <v>166</v>
+        <v>184</v>
       </c>
       <c r="X22" t="s">
-        <v>167</v>
+        <v>185</v>
       </c>
       <c r="Y22" t="s">
-        <v>189</v>
+        <v>209</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>61621</v>
       </c>
-      <c r="B23" t="s"/>
-      <c r="C23" t="s"/>
+      <c r="B23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C23" t="s">
+        <v>210</v>
+      </c>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F23" t="s">
-        <v>190</v>
+        <v>211</v>
       </c>
       <c r="G23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H23" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I23" t="s">
-        <v>191</v>
+        <v>212</v>
       </c>
       <c r="J23" t="s">
-        <v>192</v>
+        <v>213</v>
       </c>
       <c r="K23" t="s">
-        <v>193</v>
+        <v>214</v>
       </c>
       <c r="L23" t="s">
-        <v>194</v>
+        <v>215</v>
       </c>
       <c r="M23" t="n">
         <v>2</v>
       </c>
       <c r="N23" t="s">
-        <v>195</v>
+        <v>216</v>
       </c>
       <c r="O23" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="P23" t="s"/>
       <c r="Q23" t="s"/>
@@ -4535,56 +4956,60 @@
         <v>0</v>
       </c>
       <c r="W23" t="s">
-        <v>196</v>
+        <v>217</v>
       </c>
       <c r="X23" t="s">
-        <v>197</v>
+        <v>218</v>
       </c>
       <c r="Y23" t="s">
-        <v>198</v>
+        <v>219</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>61621</v>
       </c>
-      <c r="B24" t="s"/>
-      <c r="C24" t="s"/>
+      <c r="B24" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C24" t="s">
+        <v>220</v>
+      </c>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F24" t="s">
-        <v>199</v>
+        <v>221</v>
       </c>
       <c r="G24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H24" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I24" t="s">
-        <v>200</v>
+        <v>222</v>
       </c>
       <c r="J24" t="s">
-        <v>201</v>
+        <v>223</v>
       </c>
       <c r="K24" t="s">
-        <v>202</v>
+        <v>224</v>
       </c>
       <c r="L24" t="s">
-        <v>203</v>
+        <v>225</v>
       </c>
       <c r="M24" t="n">
         <v>4</v>
       </c>
       <c r="N24" t="s">
-        <v>204</v>
+        <v>226</v>
       </c>
       <c r="O24" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P24" t="s"/>
       <c r="Q24" t="n">
@@ -4602,56 +5027,60 @@
         <v>0</v>
       </c>
       <c r="W24" t="s">
-        <v>205</v>
+        <v>227</v>
       </c>
       <c r="X24" t="s">
-        <v>206</v>
+        <v>228</v>
       </c>
       <c r="Y24" t="s">
-        <v>207</v>
+        <v>229</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>61621</v>
       </c>
-      <c r="B25" t="s"/>
-      <c r="C25" t="s"/>
+      <c r="B25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C25" t="s">
+        <v>230</v>
+      </c>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F25" t="s">
-        <v>208</v>
+        <v>231</v>
       </c>
       <c r="G25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H25" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I25" t="s">
-        <v>209</v>
+        <v>232</v>
       </c>
       <c r="J25" t="s">
-        <v>210</v>
+        <v>233</v>
       </c>
       <c r="K25" t="s">
-        <v>211</v>
+        <v>234</v>
       </c>
       <c r="L25" t="s">
-        <v>212</v>
+        <v>235</v>
       </c>
       <c r="M25" t="n">
         <v>4</v>
       </c>
       <c r="N25" t="s">
-        <v>213</v>
+        <v>236</v>
       </c>
       <c r="O25" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P25" t="n">
         <v>4</v>
@@ -4669,56 +5098,60 @@
         <v>0</v>
       </c>
       <c r="W25" t="s">
-        <v>205</v>
+        <v>227</v>
       </c>
       <c r="X25" t="s">
-        <v>206</v>
+        <v>228</v>
       </c>
       <c r="Y25" t="s">
-        <v>214</v>
+        <v>237</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>61621</v>
       </c>
-      <c r="B26" t="s"/>
-      <c r="C26" t="s"/>
+      <c r="B26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C26" t="s">
+        <v>238</v>
+      </c>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F26" t="s">
-        <v>215</v>
+        <v>239</v>
       </c>
       <c r="G26" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H26" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I26" t="s">
-        <v>216</v>
+        <v>240</v>
       </c>
       <c r="J26" t="s">
-        <v>217</v>
+        <v>241</v>
       </c>
       <c r="K26" t="s">
-        <v>218</v>
+        <v>242</v>
       </c>
       <c r="L26" t="s">
-        <v>219</v>
+        <v>243</v>
       </c>
       <c r="M26" t="n">
         <v>4</v>
       </c>
       <c r="N26" t="s">
-        <v>220</v>
+        <v>244</v>
       </c>
       <c r="O26" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P26" t="n">
         <v>5</v>
@@ -4736,56 +5169,60 @@
         <v>0</v>
       </c>
       <c r="W26" t="s">
-        <v>205</v>
+        <v>227</v>
       </c>
       <c r="X26" t="s">
-        <v>206</v>
+        <v>228</v>
       </c>
       <c r="Y26" t="s">
-        <v>221</v>
+        <v>245</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>61621</v>
       </c>
-      <c r="B27" t="s"/>
-      <c r="C27" t="s"/>
+      <c r="B27" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C27" t="s">
+        <v>246</v>
+      </c>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F27" t="s">
-        <v>222</v>
+        <v>247</v>
       </c>
       <c r="G27" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H27" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I27" t="s">
-        <v>223</v>
+        <v>248</v>
       </c>
       <c r="J27" t="s">
-        <v>224</v>
+        <v>249</v>
       </c>
       <c r="K27" t="s">
-        <v>225</v>
+        <v>250</v>
       </c>
       <c r="L27" t="s">
-        <v>226</v>
+        <v>251</v>
       </c>
       <c r="M27" t="n">
         <v>5</v>
       </c>
       <c r="N27" t="s">
-        <v>213</v>
+        <v>236</v>
       </c>
       <c r="O27" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="P27" t="s"/>
       <c r="Q27" t="s"/>
@@ -4797,56 +5234,60 @@
         <v>0</v>
       </c>
       <c r="W27" t="s">
-        <v>205</v>
+        <v>227</v>
       </c>
       <c r="X27" t="s">
-        <v>206</v>
+        <v>228</v>
       </c>
       <c r="Y27" t="s">
-        <v>227</v>
+        <v>252</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>61621</v>
       </c>
-      <c r="B28" t="s"/>
-      <c r="C28" t="s"/>
+      <c r="B28" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C28" t="s">
+        <v>253</v>
+      </c>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F28" t="s">
-        <v>228</v>
+        <v>254</v>
       </c>
       <c r="G28" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H28" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I28" t="s">
-        <v>229</v>
+        <v>255</v>
       </c>
       <c r="J28" t="s">
-        <v>230</v>
+        <v>256</v>
       </c>
       <c r="K28" t="s">
-        <v>231</v>
+        <v>257</v>
       </c>
       <c r="L28" t="s">
-        <v>232</v>
+        <v>258</v>
       </c>
       <c r="M28" t="n">
         <v>5</v>
       </c>
       <c r="N28" t="s">
-        <v>213</v>
+        <v>236</v>
       </c>
       <c r="O28" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="P28" t="s"/>
       <c r="Q28" t="s"/>
@@ -4858,56 +5299,60 @@
         <v>0</v>
       </c>
       <c r="W28" t="s">
-        <v>205</v>
+        <v>227</v>
       </c>
       <c r="X28" t="s">
-        <v>206</v>
+        <v>228</v>
       </c>
       <c r="Y28" t="s">
-        <v>233</v>
+        <v>259</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>61621</v>
       </c>
-      <c r="B29" t="s"/>
-      <c r="C29" t="s"/>
+      <c r="B29" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C29" t="s">
+        <v>260</v>
+      </c>
       <c r="D29" t="n">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F29" t="s">
-        <v>234</v>
+        <v>261</v>
       </c>
       <c r="G29" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H29" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I29" t="s">
-        <v>235</v>
+        <v>262</v>
       </c>
       <c r="J29" t="s">
-        <v>236</v>
+        <v>263</v>
       </c>
       <c r="K29" t="s">
-        <v>237</v>
+        <v>264</v>
       </c>
       <c r="L29" t="s">
-        <v>238</v>
+        <v>265</v>
       </c>
       <c r="M29" t="n">
         <v>5</v>
       </c>
       <c r="N29" t="s">
-        <v>220</v>
+        <v>244</v>
       </c>
       <c r="O29" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P29" t="n">
         <v>4</v>
@@ -4927,50 +5372,54 @@
       <c r="W29" t="s"/>
       <c r="X29" t="s"/>
       <c r="Y29" t="s">
-        <v>239</v>
+        <v>266</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>61621</v>
       </c>
-      <c r="B30" t="s"/>
-      <c r="C30" t="s"/>
+      <c r="B30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C30" t="s">
+        <v>267</v>
+      </c>
       <c r="D30" t="n">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F30" t="s">
-        <v>240</v>
+        <v>268</v>
       </c>
       <c r="G30" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H30" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I30" t="s">
-        <v>241</v>
+        <v>269</v>
       </c>
       <c r="J30" t="s">
-        <v>242</v>
+        <v>270</v>
       </c>
       <c r="K30" t="s">
-        <v>243</v>
+        <v>271</v>
       </c>
       <c r="L30" t="s">
+        <v>272</v>
+      </c>
+      <c r="M30" t="n">
+        <v>4</v>
+      </c>
+      <c r="N30" t="s">
         <v>244</v>
       </c>
-      <c r="M30" t="n">
-        <v>4</v>
-      </c>
-      <c r="N30" t="s">
-        <v>220</v>
-      </c>
       <c r="O30" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P30" t="n">
         <v>5</v>
@@ -4988,56 +5437,60 @@
         <v>0</v>
       </c>
       <c r="W30" t="s">
-        <v>245</v>
+        <v>273</v>
       </c>
       <c r="X30" t="s">
-        <v>246</v>
+        <v>274</v>
       </c>
       <c r="Y30" t="s">
-        <v>247</v>
+        <v>275</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>61621</v>
       </c>
-      <c r="B31" t="s"/>
-      <c r="C31" t="s"/>
+      <c r="B31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C31" t="s">
+        <v>276</v>
+      </c>
       <c r="D31" t="n">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F31" t="s">
-        <v>248</v>
+        <v>277</v>
       </c>
       <c r="G31" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H31" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I31" t="s">
-        <v>249</v>
+        <v>278</v>
       </c>
       <c r="J31" t="s">
-        <v>242</v>
+        <v>270</v>
       </c>
       <c r="K31" t="s">
-        <v>250</v>
+        <v>279</v>
       </c>
       <c r="L31" t="s">
-        <v>251</v>
+        <v>280</v>
       </c>
       <c r="M31" t="n">
         <v>4</v>
       </c>
       <c r="N31" t="s">
-        <v>252</v>
+        <v>281</v>
       </c>
       <c r="O31" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P31" t="s"/>
       <c r="Q31" t="s"/>
@@ -5055,56 +5508,60 @@
         <v>0</v>
       </c>
       <c r="W31" t="s">
-        <v>245</v>
+        <v>273</v>
       </c>
       <c r="X31" t="s">
-        <v>246</v>
+        <v>274</v>
       </c>
       <c r="Y31" t="s">
-        <v>253</v>
+        <v>282</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>61621</v>
       </c>
-      <c r="B32" t="s"/>
-      <c r="C32" t="s"/>
+      <c r="B32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C32" t="s">
+        <v>283</v>
+      </c>
       <c r="D32" t="n">
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F32" t="s">
-        <v>254</v>
+        <v>284</v>
       </c>
       <c r="G32" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H32" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I32" t="s">
-        <v>255</v>
+        <v>285</v>
       </c>
       <c r="J32" t="s">
-        <v>256</v>
+        <v>286</v>
       </c>
       <c r="K32" t="s">
-        <v>257</v>
+        <v>287</v>
       </c>
       <c r="L32" t="s">
-        <v>258</v>
+        <v>288</v>
       </c>
       <c r="M32" t="n">
         <v>5</v>
       </c>
       <c r="N32" t="s">
-        <v>252</v>
+        <v>281</v>
       </c>
       <c r="O32" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="P32" t="s"/>
       <c r="Q32" t="s"/>
@@ -5120,56 +5577,60 @@
         <v>0</v>
       </c>
       <c r="W32" t="s">
-        <v>259</v>
+        <v>289</v>
       </c>
       <c r="X32" t="s">
-        <v>260</v>
+        <v>290</v>
       </c>
       <c r="Y32" t="s">
-        <v>261</v>
+        <v>291</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>61621</v>
       </c>
-      <c r="B33" t="s"/>
-      <c r="C33" t="s"/>
+      <c r="B33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C33" t="s">
+        <v>292</v>
+      </c>
       <c r="D33" t="n">
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F33" t="s">
-        <v>262</v>
+        <v>293</v>
       </c>
       <c r="G33" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H33" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I33" t="s">
-        <v>263</v>
+        <v>294</v>
       </c>
       <c r="J33" t="s">
-        <v>264</v>
+        <v>295</v>
       </c>
       <c r="K33" t="s">
-        <v>265</v>
+        <v>296</v>
       </c>
       <c r="L33" t="s">
-        <v>266</v>
+        <v>297</v>
       </c>
       <c r="M33" t="n">
         <v>4</v>
       </c>
       <c r="N33" t="s">
-        <v>267</v>
+        <v>298</v>
       </c>
       <c r="O33" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P33" t="s"/>
       <c r="Q33" t="s"/>
@@ -5185,56 +5646,60 @@
         <v>0</v>
       </c>
       <c r="W33" t="s">
-        <v>259</v>
+        <v>289</v>
       </c>
       <c r="X33" t="s">
-        <v>260</v>
+        <v>290</v>
       </c>
       <c r="Y33" t="s">
-        <v>268</v>
+        <v>299</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>61621</v>
       </c>
-      <c r="B34" t="s"/>
-      <c r="C34" t="s"/>
+      <c r="B34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C34" t="s">
+        <v>300</v>
+      </c>
       <c r="D34" t="n">
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F34" t="s">
-        <v>269</v>
+        <v>301</v>
       </c>
       <c r="G34" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H34" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I34" t="s">
-        <v>270</v>
+        <v>302</v>
       </c>
       <c r="J34" t="s">
-        <v>271</v>
+        <v>303</v>
       </c>
       <c r="K34" t="s">
-        <v>272</v>
+        <v>304</v>
       </c>
       <c r="L34" t="s">
-        <v>273</v>
+        <v>305</v>
       </c>
       <c r="M34" t="n">
         <v>5</v>
       </c>
       <c r="N34" t="s">
-        <v>267</v>
+        <v>298</v>
       </c>
       <c r="O34" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P34" t="n">
         <v>5</v>
@@ -5252,56 +5717,60 @@
         <v>0</v>
       </c>
       <c r="W34" t="s">
-        <v>259</v>
+        <v>289</v>
       </c>
       <c r="X34" t="s">
-        <v>260</v>
+        <v>290</v>
       </c>
       <c r="Y34" t="s">
-        <v>274</v>
+        <v>306</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
         <v>61621</v>
       </c>
-      <c r="B35" t="s"/>
-      <c r="C35" t="s"/>
+      <c r="B35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C35" t="s">
+        <v>307</v>
+      </c>
       <c r="D35" t="n">
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F35" t="s">
-        <v>275</v>
+        <v>308</v>
       </c>
       <c r="G35" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H35" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I35" t="s">
-        <v>276</v>
+        <v>309</v>
       </c>
       <c r="J35" t="s">
-        <v>277</v>
+        <v>310</v>
       </c>
       <c r="K35" t="s">
-        <v>278</v>
+        <v>311</v>
       </c>
       <c r="L35" t="s">
-        <v>279</v>
+        <v>312</v>
       </c>
       <c r="M35" t="n">
         <v>4</v>
       </c>
       <c r="N35" t="s">
-        <v>280</v>
+        <v>313</v>
       </c>
       <c r="O35" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P35" t="s"/>
       <c r="Q35" t="s"/>
@@ -5319,50 +5788,54 @@
       <c r="W35" t="s"/>
       <c r="X35" t="s"/>
       <c r="Y35" t="s">
-        <v>281</v>
+        <v>314</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>61621</v>
       </c>
-      <c r="B36" t="s"/>
-      <c r="C36" t="s"/>
+      <c r="B36" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C36" t="s">
+        <v>315</v>
+      </c>
       <c r="D36" t="n">
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F36" t="s">
-        <v>282</v>
+        <v>316</v>
       </c>
       <c r="G36" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H36" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I36" t="s">
-        <v>283</v>
+        <v>317</v>
       </c>
       <c r="J36" t="s">
-        <v>284</v>
+        <v>318</v>
       </c>
       <c r="K36" t="s">
-        <v>285</v>
+        <v>319</v>
       </c>
       <c r="L36" t="s">
-        <v>286</v>
+        <v>320</v>
       </c>
       <c r="M36" t="n">
         <v>5</v>
       </c>
       <c r="N36" t="s">
-        <v>287</v>
+        <v>321</v>
       </c>
       <c r="O36" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P36" t="s"/>
       <c r="Q36" t="s"/>
@@ -5376,50 +5849,54 @@
       <c r="W36" t="s"/>
       <c r="X36" t="s"/>
       <c r="Y36" t="s">
-        <v>286</v>
+        <v>320</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
         <v>61621</v>
       </c>
-      <c r="B37" t="s"/>
-      <c r="C37" t="s"/>
+      <c r="B37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C37" t="s">
+        <v>322</v>
+      </c>
       <c r="D37" t="n">
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F37" t="s">
-        <v>288</v>
+        <v>323</v>
       </c>
       <c r="G37" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H37" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I37" t="s">
-        <v>289</v>
+        <v>324</v>
       </c>
       <c r="J37" t="s">
-        <v>284</v>
+        <v>318</v>
       </c>
       <c r="K37" t="s">
-        <v>290</v>
+        <v>325</v>
       </c>
       <c r="L37" t="s">
-        <v>291</v>
+        <v>326</v>
       </c>
       <c r="M37" t="n">
         <v>3</v>
       </c>
       <c r="N37" t="s">
-        <v>287</v>
+        <v>321</v>
       </c>
       <c r="O37" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P37" t="s"/>
       <c r="Q37" t="n">
@@ -5437,56 +5914,60 @@
         <v>0</v>
       </c>
       <c r="W37" t="s">
-        <v>292</v>
+        <v>327</v>
       </c>
       <c r="X37" t="s">
-        <v>293</v>
+        <v>328</v>
       </c>
       <c r="Y37" t="s">
-        <v>294</v>
+        <v>329</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
         <v>61621</v>
       </c>
-      <c r="B38" t="s"/>
-      <c r="C38" t="s"/>
+      <c r="B38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C38" t="s">
+        <v>330</v>
+      </c>
       <c r="D38" t="n">
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F38" t="s">
-        <v>295</v>
+        <v>331</v>
       </c>
       <c r="G38" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H38" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I38" t="s">
-        <v>296</v>
+        <v>332</v>
       </c>
       <c r="J38" t="s">
-        <v>297</v>
+        <v>333</v>
       </c>
       <c r="K38" t="s">
-        <v>298</v>
+        <v>334</v>
       </c>
       <c r="L38" t="s">
-        <v>299</v>
+        <v>335</v>
       </c>
       <c r="M38" t="n">
         <v>5</v>
       </c>
       <c r="N38" t="s">
-        <v>300</v>
+        <v>336</v>
       </c>
       <c r="O38" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P38" t="n">
         <v>5</v>
@@ -5506,50 +5987,54 @@
       <c r="W38" t="s"/>
       <c r="X38" t="s"/>
       <c r="Y38" t="s">
-        <v>301</v>
+        <v>337</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
         <v>61621</v>
       </c>
-      <c r="B39" t="s"/>
-      <c r="C39" t="s"/>
+      <c r="B39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C39" t="s">
+        <v>338</v>
+      </c>
       <c r="D39" t="n">
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F39" t="s">
-        <v>302</v>
+        <v>339</v>
       </c>
       <c r="G39" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H39" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I39" t="s">
-        <v>303</v>
+        <v>340</v>
       </c>
       <c r="J39" t="s">
-        <v>304</v>
+        <v>341</v>
       </c>
       <c r="K39" t="s">
-        <v>305</v>
+        <v>342</v>
       </c>
       <c r="L39" t="s">
-        <v>306</v>
+        <v>343</v>
       </c>
       <c r="M39" t="n">
         <v>4</v>
       </c>
       <c r="N39" t="s">
-        <v>300</v>
+        <v>336</v>
       </c>
       <c r="O39" t="s">
-        <v>307</v>
+        <v>344</v>
       </c>
       <c r="P39" t="s"/>
       <c r="Q39" t="s"/>
@@ -5567,50 +6052,54 @@
       <c r="W39" t="s"/>
       <c r="X39" t="s"/>
       <c r="Y39" t="s">
-        <v>308</v>
+        <v>345</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
         <v>61621</v>
       </c>
-      <c r="B40" t="s"/>
-      <c r="C40" t="s"/>
+      <c r="B40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C40" t="s">
+        <v>346</v>
+      </c>
       <c r="D40" t="n">
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F40" t="s">
-        <v>309</v>
+        <v>347</v>
       </c>
       <c r="G40" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H40" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I40" t="s">
-        <v>310</v>
+        <v>348</v>
       </c>
       <c r="J40" t="s">
-        <v>311</v>
+        <v>349</v>
       </c>
       <c r="K40" t="s">
-        <v>312</v>
+        <v>350</v>
       </c>
       <c r="L40" t="s">
-        <v>313</v>
+        <v>351</v>
       </c>
       <c r="M40" t="n">
         <v>5</v>
       </c>
       <c r="N40" t="s">
-        <v>314</v>
+        <v>352</v>
       </c>
       <c r="O40" t="s">
-        <v>307</v>
+        <v>344</v>
       </c>
       <c r="P40" t="s"/>
       <c r="Q40" t="n">
@@ -5628,50 +6117,54 @@
       <c r="W40" t="s"/>
       <c r="X40" t="s"/>
       <c r="Y40" t="s">
-        <v>313</v>
+        <v>351</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
         <v>61621</v>
       </c>
-      <c r="B41" t="s"/>
-      <c r="C41" t="s"/>
+      <c r="B41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C41" t="s">
+        <v>353</v>
+      </c>
       <c r="D41" t="n">
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F41" t="s">
-        <v>315</v>
+        <v>354</v>
       </c>
       <c r="G41" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H41" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I41" t="s">
-        <v>316</v>
+        <v>355</v>
       </c>
       <c r="J41" t="s">
-        <v>317</v>
+        <v>356</v>
       </c>
       <c r="K41" t="s">
-        <v>318</v>
+        <v>357</v>
       </c>
       <c r="L41" t="s">
-        <v>319</v>
+        <v>358</v>
       </c>
       <c r="M41" t="n">
         <v>3</v>
       </c>
       <c r="N41" t="s">
-        <v>320</v>
+        <v>359</v>
       </c>
       <c r="O41" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P41" t="n">
         <v>2</v>
@@ -5687,56 +6180,60 @@
         <v>0</v>
       </c>
       <c r="W41" t="s">
-        <v>321</v>
+        <v>360</v>
       </c>
       <c r="X41" t="s">
-        <v>322</v>
+        <v>361</v>
       </c>
       <c r="Y41" t="s">
-        <v>323</v>
+        <v>362</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
         <v>61621</v>
       </c>
-      <c r="B42" t="s"/>
-      <c r="C42" t="s"/>
+      <c r="B42" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C42" t="s">
+        <v>363</v>
+      </c>
       <c r="D42" t="n">
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F42" t="s">
-        <v>324</v>
+        <v>364</v>
       </c>
       <c r="G42" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H42" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I42" t="s">
-        <v>325</v>
+        <v>365</v>
       </c>
       <c r="J42" t="s">
-        <v>317</v>
+        <v>356</v>
       </c>
       <c r="K42" t="s">
-        <v>326</v>
+        <v>366</v>
       </c>
       <c r="L42" t="s">
-        <v>327</v>
+        <v>367</v>
       </c>
       <c r="M42" t="n">
         <v>4</v>
       </c>
       <c r="N42" t="s">
-        <v>320</v>
+        <v>359</v>
       </c>
       <c r="O42" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P42" t="s"/>
       <c r="Q42" t="n">
@@ -5754,56 +6251,60 @@
         <v>0</v>
       </c>
       <c r="W42" t="s">
-        <v>321</v>
+        <v>360</v>
       </c>
       <c r="X42" t="s">
-        <v>322</v>
+        <v>361</v>
       </c>
       <c r="Y42" t="s">
-        <v>328</v>
+        <v>368</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
         <v>61621</v>
       </c>
-      <c r="B43" t="s"/>
-      <c r="C43" t="s"/>
+      <c r="B43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C43" t="s">
+        <v>369</v>
+      </c>
       <c r="D43" t="n">
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F43" t="s">
-        <v>329</v>
+        <v>370</v>
       </c>
       <c r="G43" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H43" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I43" t="s">
-        <v>330</v>
+        <v>371</v>
       </c>
       <c r="J43" t="s">
-        <v>331</v>
+        <v>372</v>
       </c>
       <c r="K43" t="s">
-        <v>332</v>
+        <v>373</v>
       </c>
       <c r="L43" t="s">
-        <v>333</v>
+        <v>374</v>
       </c>
       <c r="M43" t="n">
         <v>5</v>
       </c>
       <c r="N43" t="s">
-        <v>334</v>
+        <v>375</v>
       </c>
       <c r="O43" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P43" t="s"/>
       <c r="Q43" t="n">
@@ -5819,47 +6320,51 @@
         <v>0</v>
       </c>
       <c r="W43" t="s">
-        <v>335</v>
+        <v>376</v>
       </c>
       <c r="X43" t="s">
-        <v>336</v>
+        <v>377</v>
       </c>
       <c r="Y43" t="s">
-        <v>337</v>
+        <v>378</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
         <v>61621</v>
       </c>
-      <c r="B44" t="s"/>
-      <c r="C44" t="s"/>
+      <c r="B44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C44" t="s">
+        <v>379</v>
+      </c>
       <c r="D44" t="n">
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F44" t="s">
-        <v>338</v>
+        <v>380</v>
       </c>
       <c r="G44" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H44" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I44" t="s">
-        <v>339</v>
+        <v>381</v>
       </c>
       <c r="J44" t="s">
-        <v>340</v>
+        <v>382</v>
       </c>
       <c r="K44" t="s">
-        <v>341</v>
+        <v>383</v>
       </c>
       <c r="L44" t="s">
-        <v>342</v>
+        <v>384</v>
       </c>
       <c r="M44" t="n">
         <v>4</v>
@@ -5876,56 +6381,60 @@
         <v>0</v>
       </c>
       <c r="W44" t="s">
-        <v>343</v>
+        <v>385</v>
       </c>
       <c r="X44" t="s">
-        <v>344</v>
+        <v>386</v>
       </c>
       <c r="Y44" t="s">
-        <v>345</v>
+        <v>387</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
         <v>61621</v>
       </c>
-      <c r="B45" t="s"/>
-      <c r="C45" t="s"/>
+      <c r="B45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C45" t="s">
+        <v>388</v>
+      </c>
       <c r="D45" t="n">
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F45" t="s">
-        <v>346</v>
+        <v>389</v>
       </c>
       <c r="G45" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H45" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I45" t="s">
-        <v>347</v>
+        <v>390</v>
       </c>
       <c r="J45" t="s">
-        <v>348</v>
+        <v>391</v>
       </c>
       <c r="K45" t="s">
-        <v>349</v>
+        <v>392</v>
       </c>
       <c r="L45" t="s">
-        <v>350</v>
+        <v>393</v>
       </c>
       <c r="M45" t="n">
         <v>5</v>
       </c>
       <c r="N45" t="s">
-        <v>334</v>
+        <v>375</v>
       </c>
       <c r="O45" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P45" t="s"/>
       <c r="Q45" t="n">
@@ -5943,56 +6452,60 @@
         <v>0</v>
       </c>
       <c r="W45" t="s">
-        <v>351</v>
+        <v>394</v>
       </c>
       <c r="X45" t="s">
-        <v>352</v>
+        <v>395</v>
       </c>
       <c r="Y45" t="s">
-        <v>353</v>
+        <v>396</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
         <v>61621</v>
       </c>
-      <c r="B46" t="s"/>
-      <c r="C46" t="s"/>
+      <c r="B46" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C46" t="s">
+        <v>397</v>
+      </c>
       <c r="D46" t="n">
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F46" t="s">
-        <v>354</v>
+        <v>398</v>
       </c>
       <c r="G46" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H46" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I46" t="s">
-        <v>355</v>
+        <v>399</v>
       </c>
       <c r="J46" t="s">
-        <v>356</v>
+        <v>400</v>
       </c>
       <c r="K46" t="s">
-        <v>357</v>
+        <v>401</v>
       </c>
       <c r="L46" t="s">
-        <v>358</v>
+        <v>402</v>
       </c>
       <c r="M46" t="n">
         <v>3</v>
       </c>
       <c r="N46" t="s">
-        <v>359</v>
+        <v>403</v>
       </c>
       <c r="O46" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P46" t="n">
         <v>4</v>
@@ -6010,56 +6523,60 @@
         <v>0</v>
       </c>
       <c r="W46" t="s">
-        <v>360</v>
+        <v>404</v>
       </c>
       <c r="X46" t="s">
-        <v>361</v>
+        <v>405</v>
       </c>
       <c r="Y46" t="s">
-        <v>362</v>
+        <v>406</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
         <v>61621</v>
       </c>
-      <c r="B47" t="s"/>
-      <c r="C47" t="s"/>
+      <c r="B47" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C47" t="s">
+        <v>407</v>
+      </c>
       <c r="D47" t="n">
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F47" t="s">
-        <v>363</v>
+        <v>408</v>
       </c>
       <c r="G47" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H47" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I47" t="s">
-        <v>364</v>
+        <v>409</v>
       </c>
       <c r="J47" t="s">
-        <v>365</v>
+        <v>410</v>
       </c>
       <c r="K47" t="s">
-        <v>366</v>
+        <v>411</v>
       </c>
       <c r="L47" t="s">
-        <v>367</v>
+        <v>412</v>
       </c>
       <c r="M47" t="n">
         <v>4</v>
       </c>
       <c r="N47" t="s">
-        <v>368</v>
+        <v>413</v>
       </c>
       <c r="O47" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P47" t="n">
         <v>4</v>
@@ -6077,56 +6594,60 @@
         <v>0</v>
       </c>
       <c r="W47" t="s">
-        <v>369</v>
+        <v>414</v>
       </c>
       <c r="X47" t="s">
-        <v>370</v>
+        <v>415</v>
       </c>
       <c r="Y47" t="s">
-        <v>371</v>
+        <v>416</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
         <v>61621</v>
       </c>
-      <c r="B48" t="s"/>
-      <c r="C48" t="s"/>
+      <c r="B48" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C48" t="s">
+        <v>230</v>
+      </c>
       <c r="D48" t="n">
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F48" t="s">
-        <v>372</v>
+        <v>417</v>
       </c>
       <c r="G48" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H48" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I48" t="s">
-        <v>373</v>
+        <v>418</v>
       </c>
       <c r="J48" t="s">
-        <v>365</v>
+        <v>410</v>
       </c>
       <c r="K48" t="s">
-        <v>374</v>
+        <v>419</v>
       </c>
       <c r="L48" t="s">
-        <v>375</v>
+        <v>420</v>
       </c>
       <c r="M48" t="n">
         <v>5</v>
       </c>
       <c r="N48" t="s">
-        <v>368</v>
+        <v>413</v>
       </c>
       <c r="O48" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P48" t="s"/>
       <c r="Q48" t="n">
@@ -6144,56 +6665,60 @@
         <v>0</v>
       </c>
       <c r="W48" t="s">
-        <v>369</v>
+        <v>414</v>
       </c>
       <c r="X48" t="s">
-        <v>370</v>
+        <v>415</v>
       </c>
       <c r="Y48" t="s">
-        <v>376</v>
+        <v>421</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
         <v>61621</v>
       </c>
-      <c r="B49" t="s"/>
-      <c r="C49" t="s"/>
+      <c r="B49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C49" t="s">
+        <v>422</v>
+      </c>
       <c r="D49" t="n">
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F49" t="s">
-        <v>377</v>
+        <v>423</v>
       </c>
       <c r="G49" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H49" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I49" t="s">
-        <v>378</v>
+        <v>424</v>
       </c>
       <c r="J49" t="s">
-        <v>379</v>
+        <v>425</v>
       </c>
       <c r="K49" t="s">
-        <v>380</v>
+        <v>426</v>
       </c>
       <c r="L49" t="s">
-        <v>381</v>
+        <v>427</v>
       </c>
       <c r="M49" t="n">
         <v>4</v>
       </c>
       <c r="N49" t="s">
-        <v>382</v>
+        <v>428</v>
       </c>
       <c r="O49" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P49" t="s"/>
       <c r="Q49" t="n">
@@ -6211,56 +6736,60 @@
         <v>0</v>
       </c>
       <c r="W49" t="s">
-        <v>369</v>
+        <v>414</v>
       </c>
       <c r="X49" t="s">
-        <v>370</v>
+        <v>415</v>
       </c>
       <c r="Y49" t="s">
-        <v>383</v>
+        <v>429</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
         <v>61621</v>
       </c>
-      <c r="B50" t="s"/>
-      <c r="C50" t="s"/>
+      <c r="B50" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C50" t="s">
+        <v>430</v>
+      </c>
       <c r="D50" t="n">
         <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F50" t="s">
-        <v>384</v>
+        <v>431</v>
       </c>
       <c r="G50" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H50" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I50" t="s">
-        <v>385</v>
+        <v>432</v>
       </c>
       <c r="J50" t="s">
-        <v>386</v>
+        <v>433</v>
       </c>
       <c r="K50" t="s">
-        <v>387</v>
+        <v>434</v>
       </c>
       <c r="L50" t="s">
-        <v>388</v>
+        <v>435</v>
       </c>
       <c r="M50" t="n">
         <v>3</v>
       </c>
       <c r="N50" t="s">
-        <v>389</v>
+        <v>436</v>
       </c>
       <c r="O50" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P50" t="s"/>
       <c r="Q50" t="s"/>
@@ -6278,56 +6807,60 @@
         <v>0</v>
       </c>
       <c r="W50" t="s">
-        <v>390</v>
+        <v>437</v>
       </c>
       <c r="X50" t="s">
-        <v>391</v>
+        <v>438</v>
       </c>
       <c r="Y50" t="s">
-        <v>392</v>
+        <v>439</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
         <v>61621</v>
       </c>
-      <c r="B51" t="s"/>
-      <c r="C51" t="s"/>
+      <c r="B51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C51" t="s">
+        <v>440</v>
+      </c>
       <c r="D51" t="n">
         <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F51" t="s">
-        <v>393</v>
+        <v>441</v>
       </c>
       <c r="G51" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H51" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I51" t="s">
-        <v>394</v>
+        <v>442</v>
       </c>
       <c r="J51" t="s">
-        <v>395</v>
+        <v>443</v>
       </c>
       <c r="K51" t="s">
-        <v>202</v>
+        <v>224</v>
       </c>
       <c r="L51" t="s">
-        <v>396</v>
+        <v>444</v>
       </c>
       <c r="M51" t="n">
         <v>4</v>
       </c>
       <c r="N51" t="s">
-        <v>389</v>
+        <v>436</v>
       </c>
       <c r="O51" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="P51" t="s"/>
       <c r="Q51" t="n">
@@ -6343,56 +6876,60 @@
         <v>0</v>
       </c>
       <c r="W51" t="s">
-        <v>397</v>
+        <v>445</v>
       </c>
       <c r="X51" t="s">
-        <v>398</v>
+        <v>446</v>
       </c>
       <c r="Y51" t="s">
-        <v>399</v>
+        <v>447</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
         <v>61621</v>
       </c>
-      <c r="B52" t="s"/>
-      <c r="C52" t="s"/>
+      <c r="B52" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C52" t="s">
+        <v>448</v>
+      </c>
       <c r="D52" t="n">
         <v>51</v>
       </c>
       <c r="E52" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F52" t="s">
-        <v>400</v>
+        <v>449</v>
       </c>
       <c r="G52" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H52" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I52" t="s">
-        <v>401</v>
+        <v>450</v>
       </c>
       <c r="J52" t="s">
-        <v>402</v>
+        <v>451</v>
       </c>
       <c r="K52" t="s">
-        <v>403</v>
+        <v>452</v>
       </c>
       <c r="L52" t="s">
-        <v>404</v>
+        <v>453</v>
       </c>
       <c r="M52" t="n">
         <v>3</v>
       </c>
       <c r="N52" t="s">
-        <v>405</v>
+        <v>454</v>
       </c>
       <c r="O52" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P52" t="s"/>
       <c r="Q52" t="s"/>
@@ -6408,56 +6945,60 @@
         <v>0</v>
       </c>
       <c r="W52" t="s">
-        <v>406</v>
+        <v>455</v>
       </c>
       <c r="X52" t="s">
-        <v>407</v>
+        <v>456</v>
       </c>
       <c r="Y52" t="s">
-        <v>408</v>
+        <v>457</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
         <v>61621</v>
       </c>
-      <c r="B53" t="s"/>
-      <c r="C53" t="s"/>
+      <c r="B53" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C53" t="s">
+        <v>458</v>
+      </c>
       <c r="D53" t="n">
         <v>52</v>
       </c>
       <c r="E53" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F53" t="s">
-        <v>409</v>
+        <v>459</v>
       </c>
       <c r="G53" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H53" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I53" t="s">
-        <v>410</v>
+        <v>460</v>
       </c>
       <c r="J53" t="s">
-        <v>411</v>
+        <v>461</v>
       </c>
       <c r="K53" t="s">
-        <v>412</v>
+        <v>462</v>
       </c>
       <c r="L53" t="s">
-        <v>413</v>
+        <v>463</v>
       </c>
       <c r="M53" t="n">
         <v>2</v>
       </c>
       <c r="N53" t="s">
-        <v>414</v>
+        <v>464</v>
       </c>
       <c r="O53" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P53" t="n">
         <v>2</v>
@@ -6473,56 +7014,60 @@
         <v>0</v>
       </c>
       <c r="W53" t="s">
-        <v>415</v>
+        <v>465</v>
       </c>
       <c r="X53" t="s">
-        <v>416</v>
+        <v>466</v>
       </c>
       <c r="Y53" t="s">
-        <v>417</v>
+        <v>467</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
         <v>61621</v>
       </c>
-      <c r="B54" t="s"/>
-      <c r="C54" t="s"/>
+      <c r="B54" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C54" t="s">
+        <v>468</v>
+      </c>
       <c r="D54" t="n">
         <v>53</v>
       </c>
       <c r="E54" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F54" t="s">
-        <v>418</v>
+        <v>469</v>
       </c>
       <c r="G54" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H54" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I54" t="s">
-        <v>419</v>
+        <v>470</v>
       </c>
       <c r="J54" t="s">
-        <v>420</v>
+        <v>471</v>
       </c>
       <c r="K54" t="s">
-        <v>421</v>
+        <v>472</v>
       </c>
       <c r="L54" t="s">
-        <v>422</v>
+        <v>473</v>
       </c>
       <c r="M54" t="n">
         <v>4</v>
       </c>
       <c r="N54" t="s">
-        <v>423</v>
+        <v>474</v>
       </c>
       <c r="O54" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P54" t="s"/>
       <c r="Q54" t="s"/>
@@ -6536,56 +7081,60 @@
         <v>0</v>
       </c>
       <c r="W54" t="s">
-        <v>424</v>
+        <v>475</v>
       </c>
       <c r="X54" t="s">
-        <v>425</v>
+        <v>476</v>
       </c>
       <c r="Y54" t="s">
-        <v>426</v>
+        <v>477</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
         <v>61621</v>
       </c>
-      <c r="B55" t="s"/>
-      <c r="C55" t="s"/>
+      <c r="B55" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C55" t="s">
+        <v>478</v>
+      </c>
       <c r="D55" t="n">
         <v>54</v>
       </c>
       <c r="E55" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F55" t="s">
-        <v>427</v>
+        <v>479</v>
       </c>
       <c r="G55" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H55" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I55" t="s">
-        <v>428</v>
+        <v>480</v>
       </c>
       <c r="J55" t="s">
-        <v>429</v>
+        <v>481</v>
       </c>
       <c r="K55" t="s">
-        <v>430</v>
+        <v>482</v>
       </c>
       <c r="L55" t="s">
-        <v>431</v>
+        <v>483</v>
       </c>
       <c r="M55" t="n">
         <v>5</v>
       </c>
       <c r="N55" t="s">
-        <v>432</v>
+        <v>484</v>
       </c>
       <c r="O55" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="P55" t="n">
         <v>4</v>
@@ -6603,56 +7152,60 @@
         <v>0</v>
       </c>
       <c r="W55" t="s">
-        <v>424</v>
+        <v>475</v>
       </c>
       <c r="X55" t="s">
-        <v>425</v>
+        <v>476</v>
       </c>
       <c r="Y55" t="s">
-        <v>433</v>
+        <v>485</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
         <v>61621</v>
       </c>
-      <c r="B56" t="s"/>
-      <c r="C56" t="s"/>
+      <c r="B56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C56" t="s">
+        <v>486</v>
+      </c>
       <c r="D56" t="n">
         <v>55</v>
       </c>
       <c r="E56" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F56" t="s">
-        <v>434</v>
+        <v>487</v>
       </c>
       <c r="G56" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H56" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I56" t="s">
-        <v>435</v>
+        <v>488</v>
       </c>
       <c r="J56" t="s">
-        <v>436</v>
+        <v>489</v>
       </c>
       <c r="K56" t="s">
-        <v>437</v>
+        <v>490</v>
       </c>
       <c r="L56" t="s">
-        <v>438</v>
+        <v>491</v>
       </c>
       <c r="M56" t="n">
         <v>5</v>
       </c>
       <c r="N56" t="s">
-        <v>439</v>
+        <v>492</v>
       </c>
       <c r="O56" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P56" t="s"/>
       <c r="Q56" t="s"/>
@@ -6668,56 +7221,60 @@
         <v>0</v>
       </c>
       <c r="W56" t="s">
-        <v>440</v>
+        <v>493</v>
       </c>
       <c r="X56" t="s">
-        <v>441</v>
+        <v>494</v>
       </c>
       <c r="Y56" t="s">
-        <v>442</v>
+        <v>495</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
         <v>61621</v>
       </c>
-      <c r="B57" t="s"/>
-      <c r="C57" t="s"/>
+      <c r="B57" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C57" t="s">
+        <v>496</v>
+      </c>
       <c r="D57" t="n">
         <v>56</v>
       </c>
       <c r="E57" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F57" t="s">
-        <v>443</v>
+        <v>497</v>
       </c>
       <c r="G57" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H57" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I57" t="s">
-        <v>444</v>
+        <v>498</v>
       </c>
       <c r="J57" t="s">
-        <v>445</v>
+        <v>499</v>
       </c>
       <c r="K57" t="s">
-        <v>446</v>
+        <v>500</v>
       </c>
       <c r="L57" t="s">
-        <v>447</v>
+        <v>501</v>
       </c>
       <c r="M57" t="n">
         <v>5</v>
       </c>
       <c r="N57" t="s">
-        <v>439</v>
+        <v>492</v>
       </c>
       <c r="O57" t="s">
-        <v>307</v>
+        <v>344</v>
       </c>
       <c r="P57" t="n">
         <v>5</v>
@@ -6733,56 +7290,60 @@
         <v>0</v>
       </c>
       <c r="W57" t="s">
-        <v>440</v>
+        <v>493</v>
       </c>
       <c r="X57" t="s">
-        <v>441</v>
+        <v>494</v>
       </c>
       <c r="Y57" t="s">
-        <v>448</v>
+        <v>502</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
         <v>61621</v>
       </c>
-      <c r="B58" t="s"/>
-      <c r="C58" t="s"/>
+      <c r="B58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C58" t="s">
+        <v>503</v>
+      </c>
       <c r="D58" t="n">
         <v>57</v>
       </c>
       <c r="E58" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F58" t="s">
-        <v>449</v>
+        <v>504</v>
       </c>
       <c r="G58" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H58" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I58" t="s">
-        <v>450</v>
+        <v>505</v>
       </c>
       <c r="J58" t="s">
-        <v>451</v>
+        <v>506</v>
       </c>
       <c r="K58" t="s">
-        <v>452</v>
+        <v>507</v>
       </c>
       <c r="L58" t="s">
-        <v>453</v>
+        <v>508</v>
       </c>
       <c r="M58" t="n">
         <v>3</v>
       </c>
       <c r="N58" t="s">
-        <v>454</v>
+        <v>509</v>
       </c>
       <c r="O58" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P58" t="s"/>
       <c r="Q58" t="n">
@@ -6800,56 +7361,60 @@
         <v>0</v>
       </c>
       <c r="W58" t="s">
-        <v>455</v>
+        <v>510</v>
       </c>
       <c r="X58" t="s">
-        <v>456</v>
+        <v>511</v>
       </c>
       <c r="Y58" t="s">
-        <v>457</v>
+        <v>512</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
         <v>61621</v>
       </c>
-      <c r="B59" t="s"/>
-      <c r="C59" t="s"/>
+      <c r="B59" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C59" t="s">
+        <v>513</v>
+      </c>
       <c r="D59" t="n">
         <v>58</v>
       </c>
       <c r="E59" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F59" t="s">
-        <v>458</v>
+        <v>514</v>
       </c>
       <c r="G59" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H59" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I59" t="s">
-        <v>459</v>
+        <v>515</v>
       </c>
       <c r="J59" t="s">
-        <v>460</v>
+        <v>516</v>
       </c>
       <c r="K59" t="s">
-        <v>461</v>
+        <v>517</v>
       </c>
       <c r="L59" t="s">
-        <v>462</v>
+        <v>518</v>
       </c>
       <c r="M59" t="n">
         <v>5</v>
       </c>
       <c r="N59" t="s">
-        <v>454</v>
+        <v>509</v>
       </c>
       <c r="O59" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="P59" t="s"/>
       <c r="Q59" t="s"/>
@@ -6865,56 +7430,60 @@
         <v>0</v>
       </c>
       <c r="W59" t="s">
-        <v>463</v>
+        <v>519</v>
       </c>
       <c r="X59" t="s">
-        <v>464</v>
+        <v>520</v>
       </c>
       <c r="Y59" t="s">
-        <v>465</v>
+        <v>521</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
         <v>61621</v>
       </c>
-      <c r="B60" t="s"/>
-      <c r="C60" t="s"/>
+      <c r="B60" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C60" t="s">
+        <v>522</v>
+      </c>
       <c r="D60" t="n">
         <v>59</v>
       </c>
       <c r="E60" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F60" t="s">
-        <v>466</v>
+        <v>523</v>
       </c>
       <c r="G60" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H60" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I60" t="s">
-        <v>467</v>
+        <v>524</v>
       </c>
       <c r="J60" t="s">
-        <v>468</v>
+        <v>525</v>
       </c>
       <c r="K60" t="s">
-        <v>469</v>
+        <v>526</v>
       </c>
       <c r="L60" t="s">
-        <v>470</v>
+        <v>527</v>
       </c>
       <c r="M60" t="n">
         <v>4</v>
       </c>
       <c r="N60" t="s">
-        <v>454</v>
+        <v>509</v>
       </c>
       <c r="O60" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P60" t="s"/>
       <c r="Q60" t="s"/>
@@ -6926,56 +7495,60 @@
         <v>0</v>
       </c>
       <c r="W60" t="s">
-        <v>471</v>
+        <v>528</v>
       </c>
       <c r="X60" t="s">
-        <v>472</v>
+        <v>529</v>
       </c>
       <c r="Y60" t="s">
-        <v>473</v>
+        <v>530</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
         <v>61621</v>
       </c>
-      <c r="B61" t="s"/>
-      <c r="C61" t="s"/>
+      <c r="B61" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C61" t="s">
+        <v>531</v>
+      </c>
       <c r="D61" t="n">
         <v>60</v>
       </c>
       <c r="E61" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F61" t="s">
-        <v>474</v>
+        <v>532</v>
       </c>
       <c r="G61" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H61" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I61" t="s">
-        <v>475</v>
+        <v>533</v>
       </c>
       <c r="J61" t="s">
-        <v>476</v>
+        <v>534</v>
       </c>
       <c r="K61" t="s">
-        <v>477</v>
+        <v>535</v>
       </c>
       <c r="L61" t="s">
-        <v>478</v>
+        <v>536</v>
       </c>
       <c r="M61" t="n">
         <v>4</v>
       </c>
       <c r="N61" t="s">
-        <v>454</v>
+        <v>509</v>
       </c>
       <c r="O61" t="s">
-        <v>307</v>
+        <v>344</v>
       </c>
       <c r="P61" t="s"/>
       <c r="Q61" t="s"/>
@@ -6993,56 +7566,60 @@
         <v>0</v>
       </c>
       <c r="W61" t="s">
-        <v>479</v>
+        <v>537</v>
       </c>
       <c r="X61" t="s">
-        <v>480</v>
+        <v>538</v>
       </c>
       <c r="Y61" t="s">
-        <v>481</v>
+        <v>539</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
         <v>61621</v>
       </c>
-      <c r="B62" t="s"/>
-      <c r="C62" t="s"/>
+      <c r="B62" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C62" t="s">
+        <v>540</v>
+      </c>
       <c r="D62" t="n">
         <v>61</v>
       </c>
       <c r="E62" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F62" t="s">
-        <v>482</v>
+        <v>541</v>
       </c>
       <c r="G62" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H62" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I62" t="s">
-        <v>483</v>
+        <v>542</v>
       </c>
       <c r="J62" t="s">
-        <v>484</v>
+        <v>543</v>
       </c>
       <c r="K62" t="s">
-        <v>485</v>
+        <v>544</v>
       </c>
       <c r="L62" t="s">
-        <v>486</v>
+        <v>545</v>
       </c>
       <c r="M62" t="n">
         <v>4</v>
       </c>
       <c r="N62" t="s">
-        <v>487</v>
+        <v>546</v>
       </c>
       <c r="O62" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P62" t="s"/>
       <c r="Q62" t="n">
@@ -7058,56 +7635,60 @@
         <v>0</v>
       </c>
       <c r="W62" t="s">
-        <v>488</v>
+        <v>547</v>
       </c>
       <c r="X62" t="s">
-        <v>489</v>
+        <v>548</v>
       </c>
       <c r="Y62" t="s">
-        <v>490</v>
+        <v>549</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
         <v>61621</v>
       </c>
-      <c r="B63" t="s"/>
-      <c r="C63" t="s"/>
+      <c r="B63" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C63" t="s">
+        <v>550</v>
+      </c>
       <c r="D63" t="n">
         <v>62</v>
       </c>
       <c r="E63" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F63" t="s">
-        <v>491</v>
+        <v>551</v>
       </c>
       <c r="G63" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H63" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I63" t="s">
-        <v>492</v>
+        <v>552</v>
       </c>
       <c r="J63" t="s">
-        <v>493</v>
+        <v>553</v>
       </c>
       <c r="K63" t="s">
-        <v>494</v>
+        <v>554</v>
       </c>
       <c r="L63" t="s">
-        <v>495</v>
+        <v>555</v>
       </c>
       <c r="M63" t="n">
         <v>5</v>
       </c>
       <c r="N63" t="s">
-        <v>496</v>
+        <v>556</v>
       </c>
       <c r="O63" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P63" t="n">
         <v>5</v>
@@ -7125,56 +7706,60 @@
         <v>0</v>
       </c>
       <c r="W63" t="s">
-        <v>497</v>
+        <v>557</v>
       </c>
       <c r="X63" t="s">
-        <v>498</v>
+        <v>558</v>
       </c>
       <c r="Y63" t="s">
-        <v>499</v>
+        <v>559</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
         <v>61621</v>
       </c>
-      <c r="B64" t="s"/>
-      <c r="C64" t="s"/>
+      <c r="B64" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C64" t="s">
+        <v>560</v>
+      </c>
       <c r="D64" t="n">
         <v>63</v>
       </c>
       <c r="E64" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F64" t="s">
-        <v>500</v>
+        <v>561</v>
       </c>
       <c r="G64" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H64" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I64" t="s">
-        <v>501</v>
+        <v>562</v>
       </c>
       <c r="J64" t="s">
-        <v>502</v>
+        <v>563</v>
       </c>
       <c r="K64" t="s">
-        <v>503</v>
+        <v>564</v>
       </c>
       <c r="L64" t="s">
-        <v>504</v>
+        <v>565</v>
       </c>
       <c r="M64" t="n">
         <v>1</v>
       </c>
       <c r="N64" t="s">
-        <v>505</v>
+        <v>566</v>
       </c>
       <c r="O64" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="P64" t="n">
         <v>1</v>
@@ -7190,56 +7775,60 @@
         <v>0</v>
       </c>
       <c r="W64" t="s">
-        <v>506</v>
+        <v>567</v>
       </c>
       <c r="X64" t="s">
-        <v>507</v>
+        <v>568</v>
       </c>
       <c r="Y64" t="s">
-        <v>508</v>
+        <v>569</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
         <v>61621</v>
       </c>
-      <c r="B65" t="s"/>
-      <c r="C65" t="s"/>
+      <c r="B65" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C65" t="s">
+        <v>570</v>
+      </c>
       <c r="D65" t="n">
         <v>64</v>
       </c>
       <c r="E65" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F65" t="s">
-        <v>509</v>
+        <v>571</v>
       </c>
       <c r="G65" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H65" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I65" t="s">
-        <v>510</v>
+        <v>572</v>
       </c>
       <c r="J65" t="s">
-        <v>511</v>
+        <v>573</v>
       </c>
       <c r="K65" t="s">
-        <v>512</v>
+        <v>574</v>
       </c>
       <c r="L65" t="s">
-        <v>513</v>
+        <v>575</v>
       </c>
       <c r="M65" t="n">
         <v>4</v>
       </c>
       <c r="N65" t="s">
-        <v>496</v>
+        <v>556</v>
       </c>
       <c r="O65" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P65" t="s"/>
       <c r="Q65" t="s"/>
@@ -7251,56 +7840,60 @@
         <v>0</v>
       </c>
       <c r="W65" t="s">
-        <v>514</v>
+        <v>576</v>
       </c>
       <c r="X65" t="s">
-        <v>515</v>
+        <v>577</v>
       </c>
       <c r="Y65" t="s">
-        <v>516</v>
+        <v>578</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
         <v>61621</v>
       </c>
-      <c r="B66" t="s"/>
-      <c r="C66" t="s"/>
+      <c r="B66" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C66" t="s">
+        <v>579</v>
+      </c>
       <c r="D66" t="n">
         <v>65</v>
       </c>
       <c r="E66" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F66" t="s">
-        <v>517</v>
+        <v>580</v>
       </c>
       <c r="G66" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H66" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I66" t="s">
-        <v>518</v>
+        <v>581</v>
       </c>
       <c r="J66" t="s">
-        <v>519</v>
+        <v>582</v>
       </c>
       <c r="K66" t="s">
-        <v>520</v>
+        <v>583</v>
       </c>
       <c r="L66" t="s">
-        <v>521</v>
+        <v>584</v>
       </c>
       <c r="M66" t="n">
         <v>2</v>
       </c>
       <c r="N66" t="s">
-        <v>496</v>
+        <v>556</v>
       </c>
       <c r="O66" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P66" t="s"/>
       <c r="Q66" t="s"/>
@@ -7312,56 +7905,60 @@
         <v>0</v>
       </c>
       <c r="W66" t="s">
-        <v>522</v>
+        <v>585</v>
       </c>
       <c r="X66" t="s">
-        <v>523</v>
+        <v>586</v>
       </c>
       <c r="Y66" t="s">
-        <v>524</v>
+        <v>587</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
         <v>61621</v>
       </c>
-      <c r="B67" t="s"/>
-      <c r="C67" t="s"/>
+      <c r="B67" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C67" t="s">
+        <v>588</v>
+      </c>
       <c r="D67" t="n">
         <v>66</v>
       </c>
       <c r="E67" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F67" t="s">
-        <v>525</v>
+        <v>589</v>
       </c>
       <c r="G67" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H67" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I67" t="s">
-        <v>526</v>
+        <v>590</v>
       </c>
       <c r="J67" t="s">
-        <v>527</v>
+        <v>591</v>
       </c>
       <c r="K67" t="s">
-        <v>528</v>
+        <v>592</v>
       </c>
       <c r="L67" t="s">
-        <v>529</v>
+        <v>593</v>
       </c>
       <c r="M67" t="n">
         <v>4</v>
       </c>
       <c r="N67" t="s">
-        <v>530</v>
+        <v>594</v>
       </c>
       <c r="O67" t="s">
-        <v>307</v>
+        <v>344</v>
       </c>
       <c r="P67" t="s"/>
       <c r="Q67" t="s"/>
@@ -7379,56 +7976,60 @@
         <v>0</v>
       </c>
       <c r="W67" t="s">
-        <v>514</v>
+        <v>576</v>
       </c>
       <c r="X67" t="s">
-        <v>515</v>
+        <v>577</v>
       </c>
       <c r="Y67" t="s">
-        <v>531</v>
+        <v>595</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
         <v>61621</v>
       </c>
-      <c r="B68" t="s"/>
-      <c r="C68" t="s"/>
+      <c r="B68" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C68" t="s">
+        <v>596</v>
+      </c>
       <c r="D68" t="n">
         <v>67</v>
       </c>
       <c r="E68" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F68" t="s">
-        <v>532</v>
+        <v>597</v>
       </c>
       <c r="G68" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H68" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I68" t="s">
-        <v>533</v>
+        <v>598</v>
       </c>
       <c r="J68" t="s">
-        <v>534</v>
+        <v>599</v>
       </c>
       <c r="K68" t="s">
-        <v>535</v>
+        <v>600</v>
       </c>
       <c r="L68" t="s">
-        <v>536</v>
+        <v>601</v>
       </c>
       <c r="M68" t="n">
         <v>4</v>
       </c>
       <c r="N68" t="s">
-        <v>537</v>
+        <v>602</v>
       </c>
       <c r="O68" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="P68" t="n">
         <v>4</v>
@@ -7444,56 +8045,60 @@
         <v>0</v>
       </c>
       <c r="W68" t="s">
-        <v>538</v>
+        <v>603</v>
       </c>
       <c r="X68" t="s">
-        <v>539</v>
+        <v>604</v>
       </c>
       <c r="Y68" t="s">
-        <v>540</v>
+        <v>605</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
         <v>61621</v>
       </c>
-      <c r="B69" t="s"/>
-      <c r="C69" t="s"/>
+      <c r="B69" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C69" t="s">
+        <v>606</v>
+      </c>
       <c r="D69" t="n">
         <v>68</v>
       </c>
       <c r="E69" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F69" t="s">
-        <v>541</v>
+        <v>607</v>
       </c>
       <c r="G69" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H69" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I69" t="s">
-        <v>542</v>
+        <v>608</v>
       </c>
       <c r="J69" t="s">
-        <v>543</v>
+        <v>609</v>
       </c>
       <c r="K69" t="s">
-        <v>544</v>
+        <v>610</v>
       </c>
       <c r="L69" t="s">
-        <v>545</v>
+        <v>611</v>
       </c>
       <c r="M69" t="n">
         <v>3</v>
       </c>
       <c r="N69" t="s">
-        <v>505</v>
+        <v>566</v>
       </c>
       <c r="O69" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P69" t="s"/>
       <c r="Q69" t="s"/>
@@ -7511,56 +8116,60 @@
         <v>0</v>
       </c>
       <c r="W69" t="s">
-        <v>546</v>
+        <v>612</v>
       </c>
       <c r="X69" t="s">
-        <v>547</v>
+        <v>613</v>
       </c>
       <c r="Y69" t="s">
-        <v>548</v>
+        <v>614</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
         <v>61621</v>
       </c>
-      <c r="B70" t="s"/>
-      <c r="C70" t="s"/>
+      <c r="B70" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C70" t="s">
+        <v>615</v>
+      </c>
       <c r="D70" t="n">
         <v>69</v>
       </c>
       <c r="E70" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F70" t="s">
-        <v>549</v>
+        <v>616</v>
       </c>
       <c r="G70" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H70" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I70" t="s">
-        <v>550</v>
+        <v>617</v>
       </c>
       <c r="J70" t="s">
-        <v>551</v>
+        <v>618</v>
       </c>
       <c r="K70" t="s">
-        <v>552</v>
+        <v>619</v>
       </c>
       <c r="L70" t="s">
-        <v>553</v>
+        <v>620</v>
       </c>
       <c r="M70" t="n">
         <v>4</v>
       </c>
       <c r="N70" t="s">
-        <v>554</v>
+        <v>621</v>
       </c>
       <c r="O70" t="s">
-        <v>307</v>
+        <v>344</v>
       </c>
       <c r="P70" t="s"/>
       <c r="Q70" t="s"/>
@@ -7572,56 +8181,60 @@
         <v>0</v>
       </c>
       <c r="W70" t="s">
-        <v>546</v>
+        <v>612</v>
       </c>
       <c r="X70" t="s">
-        <v>547</v>
+        <v>613</v>
       </c>
       <c r="Y70" t="s">
-        <v>555</v>
+        <v>622</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
         <v>61621</v>
       </c>
-      <c r="B71" t="s"/>
-      <c r="C71" t="s"/>
+      <c r="B71" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C71" t="s">
+        <v>623</v>
+      </c>
       <c r="D71" t="n">
         <v>70</v>
       </c>
       <c r="E71" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F71" t="s">
-        <v>556</v>
+        <v>624</v>
       </c>
       <c r="G71" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H71" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I71" t="s">
-        <v>557</v>
+        <v>625</v>
       </c>
       <c r="J71" t="s">
-        <v>558</v>
+        <v>626</v>
       </c>
       <c r="K71" t="s">
-        <v>559</v>
+        <v>627</v>
       </c>
       <c r="L71" t="s">
-        <v>560</v>
+        <v>628</v>
       </c>
       <c r="M71" t="n">
         <v>4</v>
       </c>
       <c r="N71" t="s">
-        <v>561</v>
+        <v>629</v>
       </c>
       <c r="O71" t="s">
-        <v>307</v>
+        <v>344</v>
       </c>
       <c r="P71" t="s"/>
       <c r="Q71" t="s"/>
@@ -7637,56 +8250,60 @@
         <v>0</v>
       </c>
       <c r="W71" t="s">
-        <v>562</v>
+        <v>630</v>
       </c>
       <c r="X71" t="s">
-        <v>563</v>
+        <v>631</v>
       </c>
       <c r="Y71" t="s">
-        <v>564</v>
+        <v>632</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
         <v>61621</v>
       </c>
-      <c r="B72" t="s"/>
-      <c r="C72" t="s"/>
+      <c r="B72" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C72" t="s">
+        <v>633</v>
+      </c>
       <c r="D72" t="n">
         <v>71</v>
       </c>
       <c r="E72" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F72" t="s">
-        <v>565</v>
+        <v>634</v>
       </c>
       <c r="G72" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H72" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I72" t="s">
-        <v>566</v>
+        <v>635</v>
       </c>
       <c r="J72" t="s">
-        <v>567</v>
+        <v>636</v>
       </c>
       <c r="K72" t="s">
-        <v>568</v>
+        <v>637</v>
       </c>
       <c r="L72" t="s">
-        <v>569</v>
+        <v>638</v>
       </c>
       <c r="M72" t="n">
         <v>4</v>
       </c>
       <c r="N72" t="s">
-        <v>570</v>
+        <v>639</v>
       </c>
       <c r="O72" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="P72" t="s"/>
       <c r="Q72" t="s"/>
@@ -7704,56 +8321,60 @@
         <v>0</v>
       </c>
       <c r="W72" t="s">
-        <v>571</v>
+        <v>640</v>
       </c>
       <c r="X72" t="s">
-        <v>572</v>
+        <v>641</v>
       </c>
       <c r="Y72" t="s">
-        <v>573</v>
+        <v>642</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
         <v>61621</v>
       </c>
-      <c r="B73" t="s"/>
-      <c r="C73" t="s"/>
+      <c r="B73" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C73" t="s">
+        <v>643</v>
+      </c>
       <c r="D73" t="n">
         <v>72</v>
       </c>
       <c r="E73" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F73" t="s">
-        <v>574</v>
+        <v>644</v>
       </c>
       <c r="G73" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H73" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I73" t="s">
-        <v>575</v>
+        <v>645</v>
       </c>
       <c r="J73" t="s">
-        <v>576</v>
+        <v>646</v>
       </c>
       <c r="K73" t="s">
-        <v>577</v>
+        <v>647</v>
       </c>
       <c r="L73" t="s">
-        <v>578</v>
+        <v>648</v>
       </c>
       <c r="M73" t="n">
         <v>5</v>
       </c>
       <c r="N73" t="s">
-        <v>570</v>
+        <v>639</v>
       </c>
       <c r="O73" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P73" t="s"/>
       <c r="Q73" t="n">
@@ -7769,56 +8390,60 @@
         <v>0</v>
       </c>
       <c r="W73" t="s">
-        <v>571</v>
+        <v>640</v>
       </c>
       <c r="X73" t="s">
-        <v>572</v>
+        <v>641</v>
       </c>
       <c r="Y73" t="s">
-        <v>579</v>
+        <v>649</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
         <v>61621</v>
       </c>
-      <c r="B74" t="s"/>
-      <c r="C74" t="s"/>
+      <c r="B74" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C74" t="s">
+        <v>650</v>
+      </c>
       <c r="D74" t="n">
         <v>73</v>
       </c>
       <c r="E74" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F74" t="s">
-        <v>580</v>
+        <v>651</v>
       </c>
       <c r="G74" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H74" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I74" t="s">
-        <v>581</v>
+        <v>652</v>
       </c>
       <c r="J74" t="s">
-        <v>582</v>
+        <v>653</v>
       </c>
       <c r="K74" t="s">
-        <v>583</v>
+        <v>654</v>
       </c>
       <c r="L74" t="s">
-        <v>584</v>
+        <v>655</v>
       </c>
       <c r="M74" t="n">
         <v>5</v>
       </c>
       <c r="N74" t="s">
-        <v>570</v>
+        <v>639</v>
       </c>
       <c r="O74" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P74" t="s"/>
       <c r="Q74" t="s"/>
@@ -7836,56 +8461,60 @@
         <v>0</v>
       </c>
       <c r="W74" t="s">
-        <v>585</v>
+        <v>656</v>
       </c>
       <c r="X74" t="s">
-        <v>586</v>
+        <v>657</v>
       </c>
       <c r="Y74" t="s">
-        <v>587</v>
+        <v>658</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
         <v>61621</v>
       </c>
-      <c r="B75" t="s"/>
-      <c r="C75" t="s"/>
+      <c r="B75" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C75" t="s">
+        <v>659</v>
+      </c>
       <c r="D75" t="n">
         <v>74</v>
       </c>
       <c r="E75" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F75" t="s">
-        <v>588</v>
+        <v>660</v>
       </c>
       <c r="G75" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H75" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I75" t="s">
-        <v>589</v>
+        <v>661</v>
       </c>
       <c r="J75" t="s">
-        <v>590</v>
+        <v>662</v>
       </c>
       <c r="K75" t="s">
-        <v>591</v>
+        <v>663</v>
       </c>
       <c r="L75" t="s">
-        <v>592</v>
+        <v>664</v>
       </c>
       <c r="M75" t="n">
         <v>3</v>
       </c>
       <c r="N75" t="s">
-        <v>570</v>
+        <v>639</v>
       </c>
       <c r="O75" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P75" t="s"/>
       <c r="Q75" t="n">
@@ -7903,56 +8532,60 @@
         <v>0</v>
       </c>
       <c r="W75" t="s">
-        <v>593</v>
+        <v>665</v>
       </c>
       <c r="X75" t="s">
-        <v>594</v>
+        <v>666</v>
       </c>
       <c r="Y75" t="s">
-        <v>595</v>
+        <v>667</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
         <v>61621</v>
       </c>
-      <c r="B76" t="s"/>
-      <c r="C76" t="s"/>
+      <c r="B76" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C76" t="s">
+        <v>668</v>
+      </c>
       <c r="D76" t="n">
         <v>75</v>
       </c>
       <c r="E76" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F76" t="s">
-        <v>596</v>
+        <v>669</v>
       </c>
       <c r="G76" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H76" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I76" t="s">
-        <v>597</v>
+        <v>670</v>
       </c>
       <c r="J76" t="s">
-        <v>598</v>
+        <v>671</v>
       </c>
       <c r="K76" t="s">
-        <v>599</v>
+        <v>672</v>
       </c>
       <c r="L76" t="s">
-        <v>600</v>
+        <v>673</v>
       </c>
       <c r="M76" t="n">
         <v>5</v>
       </c>
       <c r="N76" t="s">
-        <v>570</v>
+        <v>639</v>
       </c>
       <c r="O76" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P76" t="n">
         <v>5</v>
@@ -7970,56 +8603,60 @@
         <v>0</v>
       </c>
       <c r="W76" t="s">
-        <v>601</v>
+        <v>674</v>
       </c>
       <c r="X76" t="s">
-        <v>602</v>
+        <v>675</v>
       </c>
       <c r="Y76" t="s">
-        <v>603</v>
+        <v>676</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
         <v>61621</v>
       </c>
-      <c r="B77" t="s"/>
-      <c r="C77" t="s"/>
+      <c r="B77" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C77" t="s">
+        <v>677</v>
+      </c>
       <c r="D77" t="n">
         <v>76</v>
       </c>
       <c r="E77" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F77" t="s">
-        <v>604</v>
+        <v>678</v>
       </c>
       <c r="G77" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H77" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I77" t="s">
-        <v>605</v>
+        <v>679</v>
       </c>
       <c r="J77" t="s">
-        <v>606</v>
+        <v>680</v>
       </c>
       <c r="K77" t="s">
-        <v>607</v>
+        <v>681</v>
       </c>
       <c r="L77" t="s">
-        <v>608</v>
+        <v>682</v>
       </c>
       <c r="M77" t="n">
         <v>5</v>
       </c>
       <c r="N77" t="s">
-        <v>609</v>
+        <v>683</v>
       </c>
       <c r="O77" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P77" t="n">
         <v>5</v>
@@ -8037,56 +8674,60 @@
         <v>0</v>
       </c>
       <c r="W77" t="s">
-        <v>610</v>
+        <v>684</v>
       </c>
       <c r="X77" t="s">
-        <v>611</v>
+        <v>685</v>
       </c>
       <c r="Y77" t="s">
-        <v>612</v>
+        <v>686</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
         <v>61621</v>
       </c>
-      <c r="B78" t="s"/>
-      <c r="C78" t="s"/>
+      <c r="B78" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C78" t="s">
+        <v>687</v>
+      </c>
       <c r="D78" t="n">
         <v>77</v>
       </c>
       <c r="E78" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F78" t="s">
-        <v>613</v>
+        <v>688</v>
       </c>
       <c r="G78" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H78" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I78" t="s">
-        <v>614</v>
+        <v>689</v>
       </c>
       <c r="J78" t="s">
-        <v>615</v>
+        <v>690</v>
       </c>
       <c r="K78" t="s">
-        <v>616</v>
+        <v>691</v>
       </c>
       <c r="L78" t="s">
-        <v>617</v>
+        <v>692</v>
       </c>
       <c r="M78" t="n">
         <v>5</v>
       </c>
       <c r="N78" t="s">
-        <v>618</v>
+        <v>693</v>
       </c>
       <c r="O78" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P78" t="s"/>
       <c r="Q78" t="s"/>
@@ -8102,56 +8743,60 @@
         <v>0</v>
       </c>
       <c r="W78" t="s">
-        <v>610</v>
+        <v>684</v>
       </c>
       <c r="X78" t="s">
-        <v>611</v>
+        <v>685</v>
       </c>
       <c r="Y78" t="s">
-        <v>619</v>
+        <v>694</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
         <v>61621</v>
       </c>
-      <c r="B79" t="s"/>
-      <c r="C79" t="s"/>
+      <c r="B79" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C79" t="s">
+        <v>695</v>
+      </c>
       <c r="D79" t="n">
         <v>78</v>
       </c>
       <c r="E79" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F79" t="s">
-        <v>620</v>
+        <v>696</v>
       </c>
       <c r="G79" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H79" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I79" t="s">
-        <v>621</v>
+        <v>697</v>
       </c>
       <c r="J79" t="s">
-        <v>622</v>
+        <v>698</v>
       </c>
       <c r="K79" t="s">
-        <v>623</v>
+        <v>699</v>
       </c>
       <c r="L79" t="s">
-        <v>624</v>
+        <v>700</v>
       </c>
       <c r="M79" t="n">
         <v>4</v>
       </c>
       <c r="N79" t="s">
-        <v>609</v>
+        <v>683</v>
       </c>
       <c r="O79" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="P79" t="s"/>
       <c r="Q79" t="n">
@@ -8169,56 +8814,60 @@
         <v>0</v>
       </c>
       <c r="W79" t="s">
-        <v>625</v>
+        <v>701</v>
       </c>
       <c r="X79" t="s">
-        <v>626</v>
+        <v>702</v>
       </c>
       <c r="Y79" t="s">
-        <v>627</v>
+        <v>703</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
         <v>61621</v>
       </c>
-      <c r="B80" t="s"/>
-      <c r="C80" t="s"/>
+      <c r="B80" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C80" t="s">
+        <v>704</v>
+      </c>
       <c r="D80" t="n">
         <v>79</v>
       </c>
       <c r="E80" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F80" t="s">
-        <v>628</v>
+        <v>705</v>
       </c>
       <c r="G80" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H80" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I80" t="s">
-        <v>629</v>
+        <v>706</v>
       </c>
       <c r="J80" t="s">
-        <v>630</v>
+        <v>707</v>
       </c>
       <c r="K80" t="s">
-        <v>631</v>
+        <v>708</v>
       </c>
       <c r="L80" t="s">
-        <v>632</v>
+        <v>709</v>
       </c>
       <c r="M80" t="n">
         <v>4</v>
       </c>
       <c r="N80" t="s">
-        <v>618</v>
+        <v>693</v>
       </c>
       <c r="O80" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P80" t="n">
         <v>5</v>
@@ -8240,56 +8889,60 @@
         <v>0</v>
       </c>
       <c r="W80" t="s">
-        <v>633</v>
+        <v>710</v>
       </c>
       <c r="X80" t="s">
-        <v>634</v>
+        <v>711</v>
       </c>
       <c r="Y80" t="s">
-        <v>635</v>
+        <v>712</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
         <v>61621</v>
       </c>
-      <c r="B81" t="s"/>
-      <c r="C81" t="s"/>
+      <c r="B81" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C81" t="s">
+        <v>713</v>
+      </c>
       <c r="D81" t="n">
         <v>80</v>
       </c>
       <c r="E81" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F81" t="s">
-        <v>636</v>
+        <v>714</v>
       </c>
       <c r="G81" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H81" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I81" t="s">
-        <v>637</v>
+        <v>715</v>
       </c>
       <c r="J81" t="s">
-        <v>638</v>
+        <v>716</v>
       </c>
       <c r="K81" t="s">
-        <v>639</v>
+        <v>717</v>
       </c>
       <c r="L81" t="s">
-        <v>640</v>
+        <v>718</v>
       </c>
       <c r="M81" t="n">
         <v>2</v>
       </c>
       <c r="N81" t="s">
-        <v>618</v>
+        <v>693</v>
       </c>
       <c r="O81" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P81" t="s"/>
       <c r="Q81" t="s"/>
@@ -8301,56 +8954,60 @@
         <v>0</v>
       </c>
       <c r="W81" t="s">
-        <v>641</v>
+        <v>719</v>
       </c>
       <c r="X81" t="s">
-        <v>642</v>
+        <v>720</v>
       </c>
       <c r="Y81" t="s">
-        <v>643</v>
+        <v>721</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
         <v>61621</v>
       </c>
-      <c r="B82" t="s"/>
-      <c r="C82" t="s"/>
+      <c r="B82" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C82" t="s">
+        <v>722</v>
+      </c>
       <c r="D82" t="n">
         <v>81</v>
       </c>
       <c r="E82" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F82" t="s">
-        <v>644</v>
+        <v>723</v>
       </c>
       <c r="G82" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H82" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I82" t="s">
-        <v>645</v>
+        <v>724</v>
       </c>
       <c r="J82" t="s">
-        <v>646</v>
+        <v>725</v>
       </c>
       <c r="K82" t="s">
-        <v>647</v>
+        <v>726</v>
       </c>
       <c r="L82" t="s">
-        <v>648</v>
+        <v>727</v>
       </c>
       <c r="M82" t="n">
         <v>5</v>
       </c>
       <c r="N82" t="s">
-        <v>649</v>
+        <v>728</v>
       </c>
       <c r="O82" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P82" t="n">
         <v>4</v>
@@ -8372,56 +9029,60 @@
         <v>0</v>
       </c>
       <c r="W82" t="s">
-        <v>650</v>
+        <v>729</v>
       </c>
       <c r="X82" t="s">
-        <v>651</v>
+        <v>730</v>
       </c>
       <c r="Y82" t="s">
-        <v>652</v>
+        <v>731</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
         <v>61621</v>
       </c>
-      <c r="B83" t="s"/>
-      <c r="C83" t="s"/>
+      <c r="B83" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C83" t="s">
+        <v>732</v>
+      </c>
       <c r="D83" t="n">
         <v>82</v>
       </c>
       <c r="E83" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F83" t="s">
-        <v>653</v>
+        <v>733</v>
       </c>
       <c r="G83" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H83" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I83" t="s">
-        <v>654</v>
+        <v>734</v>
       </c>
       <c r="J83" t="s">
-        <v>655</v>
+        <v>735</v>
       </c>
       <c r="K83" t="s">
-        <v>656</v>
+        <v>736</v>
       </c>
       <c r="L83" t="s">
-        <v>657</v>
+        <v>737</v>
       </c>
       <c r="M83" t="n">
         <v>5</v>
       </c>
       <c r="N83" t="s">
-        <v>554</v>
+        <v>621</v>
       </c>
       <c r="O83" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="P83" t="n">
         <v>4</v>
@@ -8443,56 +9104,60 @@
         <v>0</v>
       </c>
       <c r="W83" t="s">
-        <v>658</v>
+        <v>738</v>
       </c>
       <c r="X83" t="s">
-        <v>659</v>
+        <v>739</v>
       </c>
       <c r="Y83" t="s">
-        <v>660</v>
+        <v>740</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
         <v>61621</v>
       </c>
-      <c r="B84" t="s"/>
-      <c r="C84" t="s"/>
+      <c r="B84" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C84" t="s">
+        <v>741</v>
+      </c>
       <c r="D84" t="n">
         <v>83</v>
       </c>
       <c r="E84" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F84" t="s">
-        <v>661</v>
+        <v>742</v>
       </c>
       <c r="G84" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H84" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I84" t="s">
-        <v>662</v>
+        <v>743</v>
       </c>
       <c r="J84" t="s">
-        <v>663</v>
+        <v>744</v>
       </c>
       <c r="K84" t="s">
-        <v>664</v>
+        <v>745</v>
       </c>
       <c r="L84" t="s">
-        <v>665</v>
+        <v>746</v>
       </c>
       <c r="M84" t="n">
         <v>4</v>
       </c>
       <c r="N84" t="s">
-        <v>554</v>
+        <v>621</v>
       </c>
       <c r="O84" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="P84" t="n">
         <v>4</v>
@@ -8514,47 +9179,51 @@
         <v>0</v>
       </c>
       <c r="W84" t="s">
-        <v>658</v>
+        <v>738</v>
       </c>
       <c r="X84" t="s">
-        <v>659</v>
+        <v>739</v>
       </c>
       <c r="Y84" t="s">
-        <v>666</v>
+        <v>747</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
         <v>61621</v>
       </c>
-      <c r="B85" t="s"/>
-      <c r="C85" t="s"/>
+      <c r="B85" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C85" t="s">
+        <v>748</v>
+      </c>
       <c r="D85" t="n">
         <v>84</v>
       </c>
       <c r="E85" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F85" t="s">
-        <v>667</v>
+        <v>749</v>
       </c>
       <c r="G85" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H85" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I85" t="s">
-        <v>668</v>
+        <v>750</v>
       </c>
       <c r="J85" t="s">
-        <v>669</v>
+        <v>751</v>
       </c>
       <c r="K85" t="s">
-        <v>670</v>
+        <v>752</v>
       </c>
       <c r="L85" t="s">
-        <v>671</v>
+        <v>753</v>
       </c>
       <c r="M85" t="n">
         <v>4</v>
@@ -8571,56 +9240,60 @@
         <v>0</v>
       </c>
       <c r="W85" t="s">
-        <v>658</v>
+        <v>738</v>
       </c>
       <c r="X85" t="s">
-        <v>659</v>
+        <v>739</v>
       </c>
       <c r="Y85" t="s">
-        <v>672</v>
+        <v>754</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
         <v>61621</v>
       </c>
-      <c r="B86" t="s"/>
-      <c r="C86" t="s"/>
+      <c r="B86" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C86" t="s">
+        <v>755</v>
+      </c>
       <c r="D86" t="n">
         <v>85</v>
       </c>
       <c r="E86" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F86" t="s">
-        <v>673</v>
+        <v>756</v>
       </c>
       <c r="G86" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H86" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I86" t="s">
-        <v>674</v>
+        <v>757</v>
       </c>
       <c r="J86" t="s">
-        <v>675</v>
+        <v>758</v>
       </c>
       <c r="K86" t="s">
-        <v>676</v>
+        <v>759</v>
       </c>
       <c r="L86" t="s">
-        <v>677</v>
+        <v>760</v>
       </c>
       <c r="M86" t="n">
         <v>5</v>
       </c>
       <c r="N86" t="s">
-        <v>678</v>
+        <v>761</v>
       </c>
       <c r="O86" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P86" t="s"/>
       <c r="Q86" t="s"/>
@@ -8632,56 +9305,60 @@
         <v>0</v>
       </c>
       <c r="W86" t="s">
-        <v>679</v>
+        <v>762</v>
       </c>
       <c r="X86" t="s">
-        <v>680</v>
+        <v>763</v>
       </c>
       <c r="Y86" t="s">
-        <v>681</v>
+        <v>764</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
         <v>61621</v>
       </c>
-      <c r="B87" t="s"/>
-      <c r="C87" t="s"/>
+      <c r="B87" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C87" t="s">
+        <v>765</v>
+      </c>
       <c r="D87" t="n">
         <v>86</v>
       </c>
       <c r="E87" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F87" t="s">
-        <v>682</v>
+        <v>766</v>
       </c>
       <c r="G87" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H87" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I87" t="s">
-        <v>683</v>
+        <v>767</v>
       </c>
       <c r="J87" t="s">
-        <v>684</v>
+        <v>768</v>
       </c>
       <c r="K87" t="s">
-        <v>685</v>
+        <v>769</v>
       </c>
       <c r="L87" t="s">
-        <v>686</v>
+        <v>770</v>
       </c>
       <c r="M87" t="n">
         <v>4</v>
       </c>
       <c r="N87" t="s">
-        <v>687</v>
+        <v>771</v>
       </c>
       <c r="O87" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="P87" t="n">
         <v>4</v>
@@ -8703,56 +9380,60 @@
         <v>0</v>
       </c>
       <c r="W87" t="s">
-        <v>688</v>
+        <v>772</v>
       </c>
       <c r="X87" t="s">
-        <v>689</v>
+        <v>773</v>
       </c>
       <c r="Y87" t="s">
-        <v>690</v>
+        <v>774</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
         <v>61621</v>
       </c>
-      <c r="B88" t="s"/>
-      <c r="C88" t="s"/>
+      <c r="B88" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C88" t="s">
+        <v>775</v>
+      </c>
       <c r="D88" t="n">
         <v>87</v>
       </c>
       <c r="E88" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F88" t="s">
-        <v>691</v>
+        <v>776</v>
       </c>
       <c r="G88" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H88" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I88" t="s">
-        <v>692</v>
+        <v>777</v>
       </c>
       <c r="J88" t="s">
-        <v>684</v>
+        <v>768</v>
       </c>
       <c r="K88" t="s">
-        <v>693</v>
+        <v>778</v>
       </c>
       <c r="L88" t="s">
-        <v>694</v>
+        <v>779</v>
       </c>
       <c r="M88" t="n">
         <v>3</v>
       </c>
       <c r="N88" t="s">
-        <v>687</v>
+        <v>771</v>
       </c>
       <c r="O88" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="P88" t="n">
         <v>3</v>
@@ -8774,56 +9455,60 @@
         <v>0</v>
       </c>
       <c r="W88" t="s">
-        <v>688</v>
+        <v>772</v>
       </c>
       <c r="X88" t="s">
-        <v>689</v>
+        <v>773</v>
       </c>
       <c r="Y88" t="s">
-        <v>695</v>
+        <v>780</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
         <v>61621</v>
       </c>
-      <c r="B89" t="s"/>
-      <c r="C89" t="s"/>
+      <c r="B89" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C89" t="s">
+        <v>781</v>
+      </c>
       <c r="D89" t="n">
         <v>88</v>
       </c>
       <c r="E89" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F89" t="s">
-        <v>696</v>
+        <v>782</v>
       </c>
       <c r="G89" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H89" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I89" t="s">
-        <v>697</v>
+        <v>783</v>
       </c>
       <c r="J89" t="s">
-        <v>698</v>
+        <v>784</v>
       </c>
       <c r="K89" t="s">
-        <v>699</v>
+        <v>785</v>
       </c>
       <c r="L89" t="s">
-        <v>700</v>
+        <v>786</v>
       </c>
       <c r="M89" t="n">
         <v>4</v>
       </c>
       <c r="N89" t="s">
-        <v>678</v>
+        <v>761</v>
       </c>
       <c r="O89" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P89" t="n">
         <v>5</v>
@@ -8845,56 +9530,60 @@
         <v>0</v>
       </c>
       <c r="W89" t="s">
-        <v>701</v>
+        <v>787</v>
       </c>
       <c r="X89" t="s">
-        <v>702</v>
+        <v>788</v>
       </c>
       <c r="Y89" t="s">
-        <v>703</v>
+        <v>789</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
         <v>61621</v>
       </c>
-      <c r="B90" t="s"/>
-      <c r="C90" t="s"/>
+      <c r="B90" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C90" t="s">
+        <v>790</v>
+      </c>
       <c r="D90" t="n">
         <v>89</v>
       </c>
       <c r="E90" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F90" t="s">
-        <v>704</v>
+        <v>791</v>
       </c>
       <c r="G90" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H90" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I90" t="s">
-        <v>705</v>
+        <v>792</v>
       </c>
       <c r="J90" t="s">
-        <v>706</v>
+        <v>793</v>
       </c>
       <c r="K90" t="s">
-        <v>707</v>
+        <v>794</v>
       </c>
       <c r="L90" t="s">
-        <v>708</v>
+        <v>795</v>
       </c>
       <c r="M90" t="n">
         <v>4</v>
       </c>
       <c r="N90" t="s">
-        <v>709</v>
+        <v>796</v>
       </c>
       <c r="O90" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P90" t="n">
         <v>4</v>
@@ -8916,56 +9605,60 @@
         <v>0</v>
       </c>
       <c r="W90" t="s">
-        <v>710</v>
+        <v>797</v>
       </c>
       <c r="X90" t="s">
-        <v>711</v>
+        <v>798</v>
       </c>
       <c r="Y90" t="s">
-        <v>712</v>
+        <v>799</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
         <v>61621</v>
       </c>
-      <c r="B91" t="s"/>
-      <c r="C91" t="s"/>
+      <c r="B91" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C91" t="s">
+        <v>800</v>
+      </c>
       <c r="D91" t="n">
         <v>90</v>
       </c>
       <c r="E91" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F91" t="s">
-        <v>713</v>
+        <v>801</v>
       </c>
       <c r="G91" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H91" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I91" t="s">
-        <v>714</v>
+        <v>802</v>
       </c>
       <c r="J91" t="s">
-        <v>715</v>
+        <v>803</v>
       </c>
       <c r="K91" t="s">
-        <v>716</v>
+        <v>804</v>
       </c>
       <c r="L91" t="s">
-        <v>717</v>
+        <v>805</v>
       </c>
       <c r="M91" t="n">
         <v>3</v>
       </c>
       <c r="N91" t="s">
-        <v>709</v>
+        <v>796</v>
       </c>
       <c r="O91" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P91" t="n">
         <v>3</v>
@@ -8987,56 +9680,60 @@
         <v>0</v>
       </c>
       <c r="W91" t="s">
-        <v>710</v>
+        <v>797</v>
       </c>
       <c r="X91" t="s">
-        <v>711</v>
+        <v>798</v>
       </c>
       <c r="Y91" t="s">
-        <v>718</v>
+        <v>806</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
         <v>61621</v>
       </c>
-      <c r="B92" t="s"/>
-      <c r="C92" t="s"/>
+      <c r="B92" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C92" t="s">
+        <v>807</v>
+      </c>
       <c r="D92" t="n">
         <v>91</v>
       </c>
       <c r="E92" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F92" t="s">
-        <v>719</v>
+        <v>808</v>
       </c>
       <c r="G92" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H92" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I92" t="s">
-        <v>720</v>
+        <v>809</v>
       </c>
       <c r="J92" t="s">
-        <v>721</v>
+        <v>810</v>
       </c>
       <c r="K92" t="s">
-        <v>722</v>
+        <v>811</v>
       </c>
       <c r="L92" t="s">
-        <v>723</v>
+        <v>812</v>
       </c>
       <c r="M92" t="n">
         <v>4</v>
       </c>
       <c r="N92" t="s">
-        <v>724</v>
+        <v>813</v>
       </c>
       <c r="O92" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="P92" t="n">
         <v>4</v>
@@ -9060,50 +9757,54 @@
       <c r="W92" t="s"/>
       <c r="X92" t="s"/>
       <c r="Y92" t="s">
-        <v>725</v>
+        <v>814</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
         <v>61621</v>
       </c>
-      <c r="B93" t="s"/>
-      <c r="C93" t="s"/>
+      <c r="B93" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C93" t="s">
+        <v>815</v>
+      </c>
       <c r="D93" t="n">
         <v>92</v>
       </c>
       <c r="E93" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F93" t="s">
-        <v>726</v>
+        <v>816</v>
       </c>
       <c r="G93" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H93" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I93" t="s">
-        <v>727</v>
+        <v>817</v>
       </c>
       <c r="J93" t="s">
-        <v>728</v>
+        <v>818</v>
       </c>
       <c r="K93" t="s">
-        <v>729</v>
+        <v>819</v>
       </c>
       <c r="L93" t="s">
-        <v>730</v>
+        <v>820</v>
       </c>
       <c r="M93" t="n">
         <v>5</v>
       </c>
       <c r="N93" t="s">
-        <v>724</v>
+        <v>813</v>
       </c>
       <c r="O93" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P93" t="n">
         <v>4</v>
@@ -9125,56 +9826,60 @@
         <v>0</v>
       </c>
       <c r="W93" t="s">
-        <v>731</v>
+        <v>821</v>
       </c>
       <c r="X93" t="s">
-        <v>732</v>
+        <v>822</v>
       </c>
       <c r="Y93" t="s">
-        <v>733</v>
+        <v>823</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
         <v>61621</v>
       </c>
-      <c r="B94" t="s"/>
-      <c r="C94" t="s"/>
+      <c r="B94" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C94" t="s">
+        <v>824</v>
+      </c>
       <c r="D94" t="n">
         <v>93</v>
       </c>
       <c r="E94" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F94" t="s">
-        <v>734</v>
+        <v>825</v>
       </c>
       <c r="G94" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H94" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I94" t="s">
-        <v>735</v>
+        <v>826</v>
       </c>
       <c r="J94" t="s">
-        <v>736</v>
+        <v>827</v>
       </c>
       <c r="K94" t="s">
-        <v>737</v>
+        <v>828</v>
       </c>
       <c r="L94" t="s">
-        <v>738</v>
+        <v>829</v>
       </c>
       <c r="M94" t="n">
         <v>4</v>
       </c>
       <c r="N94" t="s">
-        <v>724</v>
+        <v>813</v>
       </c>
       <c r="O94" t="s">
-        <v>307</v>
+        <v>344</v>
       </c>
       <c r="P94" t="n">
         <v>4</v>
@@ -9196,56 +9901,60 @@
         <v>0</v>
       </c>
       <c r="W94" t="s">
-        <v>739</v>
+        <v>830</v>
       </c>
       <c r="X94" t="s">
-        <v>740</v>
+        <v>831</v>
       </c>
       <c r="Y94" t="s">
-        <v>741</v>
+        <v>832</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
         <v>61621</v>
       </c>
-      <c r="B95" t="s"/>
-      <c r="C95" t="s"/>
+      <c r="B95" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C95" t="s">
+        <v>833</v>
+      </c>
       <c r="D95" t="n">
         <v>94</v>
       </c>
       <c r="E95" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F95" t="s">
-        <v>742</v>
+        <v>834</v>
       </c>
       <c r="G95" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H95" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I95" t="s">
-        <v>743</v>
+        <v>835</v>
       </c>
       <c r="J95" t="s">
-        <v>744</v>
+        <v>836</v>
       </c>
       <c r="K95" t="s">
-        <v>745</v>
+        <v>837</v>
       </c>
       <c r="L95" t="s">
-        <v>746</v>
+        <v>838</v>
       </c>
       <c r="M95" t="n">
         <v>5</v>
       </c>
       <c r="N95" t="s">
-        <v>747</v>
+        <v>839</v>
       </c>
       <c r="O95" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P95" t="n">
         <v>5</v>
@@ -9269,50 +9978,54 @@
       <c r="W95" t="s"/>
       <c r="X95" t="s"/>
       <c r="Y95" t="s">
-        <v>746</v>
+        <v>838</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
         <v>61621</v>
       </c>
-      <c r="B96" t="s"/>
-      <c r="C96" t="s"/>
+      <c r="B96" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C96" t="s">
+        <v>840</v>
+      </c>
       <c r="D96" t="n">
         <v>95</v>
       </c>
       <c r="E96" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F96" t="s">
-        <v>748</v>
+        <v>841</v>
       </c>
       <c r="G96" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H96" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I96" t="s">
-        <v>749</v>
+        <v>842</v>
       </c>
       <c r="J96" t="s">
-        <v>750</v>
+        <v>843</v>
       </c>
       <c r="K96" t="s">
-        <v>751</v>
+        <v>844</v>
       </c>
       <c r="L96" t="s">
-        <v>752</v>
+        <v>845</v>
       </c>
       <c r="M96" t="n">
         <v>5</v>
       </c>
       <c r="N96" t="s">
-        <v>747</v>
+        <v>839</v>
       </c>
       <c r="O96" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="P96" t="n">
         <v>4</v>
@@ -9336,50 +10049,54 @@
       <c r="W96" t="s"/>
       <c r="X96" t="s"/>
       <c r="Y96" t="s">
-        <v>753</v>
+        <v>846</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
         <v>61621</v>
       </c>
-      <c r="B97" t="s"/>
-      <c r="C97" t="s"/>
+      <c r="B97" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C97" t="s">
+        <v>847</v>
+      </c>
       <c r="D97" t="n">
         <v>96</v>
       </c>
       <c r="E97" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F97" t="s">
-        <v>754</v>
+        <v>848</v>
       </c>
       <c r="G97" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H97" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I97" t="s">
-        <v>755</v>
+        <v>849</v>
       </c>
       <c r="J97" t="s">
-        <v>756</v>
+        <v>850</v>
       </c>
       <c r="K97" t="s">
-        <v>757</v>
+        <v>851</v>
       </c>
       <c r="L97" t="s">
-        <v>758</v>
+        <v>852</v>
       </c>
       <c r="M97" t="n">
         <v>4</v>
       </c>
       <c r="N97" t="s">
-        <v>747</v>
+        <v>839</v>
       </c>
       <c r="O97" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P97" t="n">
         <v>5</v>
@@ -9403,50 +10120,54 @@
       <c r="W97" t="s"/>
       <c r="X97" t="s"/>
       <c r="Y97" t="s">
-        <v>759</v>
+        <v>853</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
         <v>61621</v>
       </c>
-      <c r="B98" t="s"/>
-      <c r="C98" t="s"/>
+      <c r="B98" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C98" t="s">
+        <v>854</v>
+      </c>
       <c r="D98" t="n">
         <v>97</v>
       </c>
       <c r="E98" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F98" t="s">
-        <v>760</v>
+        <v>855</v>
       </c>
       <c r="G98" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H98" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I98" t="s">
-        <v>761</v>
+        <v>856</v>
       </c>
       <c r="J98" t="s">
-        <v>762</v>
+        <v>857</v>
       </c>
       <c r="K98" t="s">
-        <v>763</v>
+        <v>858</v>
       </c>
       <c r="L98" t="s">
-        <v>764</v>
+        <v>859</v>
       </c>
       <c r="M98" t="n">
         <v>4</v>
       </c>
       <c r="N98" t="s">
-        <v>765</v>
+        <v>860</v>
       </c>
       <c r="O98" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P98" t="n">
         <v>5</v>
@@ -9470,50 +10191,54 @@
       <c r="W98" t="s"/>
       <c r="X98" t="s"/>
       <c r="Y98" t="s">
-        <v>764</v>
+        <v>859</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
         <v>61621</v>
       </c>
-      <c r="B99" t="s"/>
-      <c r="C99" t="s"/>
+      <c r="B99" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C99" t="s">
+        <v>861</v>
+      </c>
       <c r="D99" t="n">
         <v>98</v>
       </c>
       <c r="E99" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F99" t="s">
-        <v>766</v>
+        <v>862</v>
       </c>
       <c r="G99" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H99" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I99" t="s">
-        <v>767</v>
+        <v>863</v>
       </c>
       <c r="J99" t="s">
-        <v>768</v>
+        <v>864</v>
       </c>
       <c r="K99" t="s">
-        <v>769</v>
+        <v>865</v>
       </c>
       <c r="L99" t="s">
-        <v>770</v>
+        <v>866</v>
       </c>
       <c r="M99" t="n">
         <v>4</v>
       </c>
       <c r="N99" t="s">
-        <v>771</v>
+        <v>867</v>
       </c>
       <c r="O99" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="P99" t="n">
         <v>5</v>
@@ -9537,50 +10262,54 @@
       <c r="W99" t="s"/>
       <c r="X99" t="s"/>
       <c r="Y99" t="s">
-        <v>772</v>
+        <v>868</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
         <v>61621</v>
       </c>
-      <c r="B100" t="s"/>
-      <c r="C100" t="s"/>
+      <c r="B100" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C100" t="s">
+        <v>513</v>
+      </c>
       <c r="D100" t="n">
         <v>99</v>
       </c>
       <c r="E100" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F100" t="s">
-        <v>773</v>
+        <v>869</v>
       </c>
       <c r="G100" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H100" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I100" t="s">
-        <v>774</v>
+        <v>870</v>
       </c>
       <c r="J100" t="s">
-        <v>775</v>
+        <v>871</v>
       </c>
       <c r="K100" t="s">
-        <v>776</v>
+        <v>872</v>
       </c>
       <c r="L100" t="s">
-        <v>777</v>
+        <v>873</v>
       </c>
       <c r="M100" t="n">
         <v>5</v>
       </c>
       <c r="N100" t="s">
-        <v>765</v>
+        <v>860</v>
       </c>
       <c r="O100" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="P100" t="n">
         <v>4</v>
@@ -9604,41 +10333,45 @@
       <c r="W100" t="s"/>
       <c r="X100" t="s"/>
       <c r="Y100" t="s">
-        <v>777</v>
+        <v>873</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
         <v>61621</v>
       </c>
-      <c r="B101" t="s"/>
-      <c r="C101" t="s"/>
+      <c r="B101" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C101" t="s">
+        <v>874</v>
+      </c>
       <c r="D101" t="n">
         <v>100</v>
       </c>
       <c r="E101" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F101" t="s">
-        <v>778</v>
+        <v>875</v>
       </c>
       <c r="G101" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H101" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I101" t="s">
-        <v>779</v>
+        <v>876</v>
       </c>
       <c r="J101" t="s">
-        <v>780</v>
+        <v>877</v>
       </c>
       <c r="K101" t="s">
-        <v>781</v>
+        <v>878</v>
       </c>
       <c r="L101" t="s">
-        <v>782</v>
+        <v>879</v>
       </c>
       <c r="M101" t="n">
         <v>5</v>
@@ -9667,50 +10400,54 @@
       <c r="W101" t="s"/>
       <c r="X101" t="s"/>
       <c r="Y101" t="s">
-        <v>782</v>
+        <v>879</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
         <v>61621</v>
       </c>
-      <c r="B102" t="s"/>
-      <c r="C102" t="s"/>
+      <c r="B102" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C102" t="s">
+        <v>880</v>
+      </c>
       <c r="D102" t="n">
         <v>101</v>
       </c>
       <c r="E102" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F102" t="s">
-        <v>783</v>
+        <v>881</v>
       </c>
       <c r="G102" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H102" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I102" t="s">
-        <v>784</v>
+        <v>882</v>
       </c>
       <c r="J102" t="s">
-        <v>785</v>
+        <v>883</v>
       </c>
       <c r="K102" t="s">
-        <v>786</v>
+        <v>884</v>
       </c>
       <c r="L102" t="s">
-        <v>787</v>
+        <v>885</v>
       </c>
       <c r="M102" t="n">
         <v>5</v>
       </c>
       <c r="N102" t="s">
-        <v>788</v>
+        <v>886</v>
       </c>
       <c r="O102" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P102" t="n">
         <v>5</v>
@@ -9734,50 +10471,54 @@
       <c r="W102" t="s"/>
       <c r="X102" t="s"/>
       <c r="Y102" t="s">
-        <v>787</v>
+        <v>885</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
         <v>61621</v>
       </c>
-      <c r="B103" t="s"/>
-      <c r="C103" t="s"/>
+      <c r="B103" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C103" t="s">
+        <v>887</v>
+      </c>
       <c r="D103" t="n">
         <v>102</v>
       </c>
       <c r="E103" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F103" t="s">
-        <v>789</v>
+        <v>888</v>
       </c>
       <c r="G103" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H103" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I103" t="s">
-        <v>790</v>
+        <v>889</v>
       </c>
       <c r="J103" t="s">
-        <v>791</v>
+        <v>890</v>
       </c>
       <c r="K103" t="s">
-        <v>792</v>
+        <v>891</v>
       </c>
       <c r="L103" t="s">
-        <v>793</v>
+        <v>892</v>
       </c>
       <c r="M103" t="n">
         <v>4</v>
       </c>
       <c r="N103" t="s">
-        <v>788</v>
+        <v>886</v>
       </c>
       <c r="O103" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="P103" t="n">
         <v>3</v>
@@ -9801,50 +10542,54 @@
       <c r="W103" t="s"/>
       <c r="X103" t="s"/>
       <c r="Y103" t="s">
-        <v>794</v>
+        <v>893</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
         <v>61621</v>
       </c>
-      <c r="B104" t="s"/>
-      <c r="C104" t="s"/>
+      <c r="B104" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C104" t="s">
+        <v>894</v>
+      </c>
       <c r="D104" t="n">
         <v>103</v>
       </c>
       <c r="E104" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F104" t="s">
-        <v>795</v>
+        <v>895</v>
       </c>
       <c r="G104" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H104" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I104" t="s">
-        <v>796</v>
+        <v>896</v>
       </c>
       <c r="J104" t="s">
-        <v>797</v>
+        <v>897</v>
       </c>
       <c r="K104" t="s">
-        <v>798</v>
+        <v>898</v>
       </c>
       <c r="L104" t="s">
-        <v>799</v>
+        <v>899</v>
       </c>
       <c r="M104" t="n">
         <v>4</v>
       </c>
       <c r="N104" t="s">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="O104" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="P104" t="n">
         <v>5</v>
@@ -9868,50 +10613,54 @@
       <c r="W104" t="s"/>
       <c r="X104" t="s"/>
       <c r="Y104" t="s">
-        <v>801</v>
+        <v>901</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
         <v>61621</v>
       </c>
-      <c r="B105" t="s"/>
-      <c r="C105" t="s"/>
+      <c r="B105" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C105" t="s">
+        <v>902</v>
+      </c>
       <c r="D105" t="n">
         <v>104</v>
       </c>
       <c r="E105" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F105" t="s">
-        <v>802</v>
+        <v>903</v>
       </c>
       <c r="G105" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H105" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I105" t="s">
-        <v>803</v>
+        <v>904</v>
       </c>
       <c r="J105" t="s">
-        <v>804</v>
+        <v>905</v>
       </c>
       <c r="K105" t="s">
-        <v>805</v>
+        <v>906</v>
       </c>
       <c r="L105" t="s">
-        <v>806</v>
+        <v>907</v>
       </c>
       <c r="M105" t="n">
         <v>5</v>
       </c>
       <c r="N105" t="s">
-        <v>807</v>
+        <v>908</v>
       </c>
       <c r="O105" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P105" t="n">
         <v>5</v>
@@ -9935,50 +10684,54 @@
       <c r="W105" t="s"/>
       <c r="X105" t="s"/>
       <c r="Y105" t="s">
-        <v>806</v>
+        <v>907</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
         <v>61621</v>
       </c>
-      <c r="B106" t="s"/>
-      <c r="C106" t="s"/>
+      <c r="B106" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C106" t="s">
+        <v>130</v>
+      </c>
       <c r="D106" t="n">
         <v>105</v>
       </c>
       <c r="E106" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F106" t="s">
-        <v>808</v>
+        <v>909</v>
       </c>
       <c r="G106" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H106" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I106" t="s">
-        <v>809</v>
+        <v>910</v>
       </c>
       <c r="J106" t="s">
-        <v>804</v>
+        <v>905</v>
       </c>
       <c r="K106" t="s">
-        <v>810</v>
+        <v>911</v>
       </c>
       <c r="L106" t="s">
-        <v>811</v>
+        <v>912</v>
       </c>
       <c r="M106" t="n">
         <v>5</v>
       </c>
       <c r="N106" t="s">
-        <v>807</v>
+        <v>908</v>
       </c>
       <c r="O106" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P106" t="n">
         <v>5</v>
@@ -10002,50 +10755,54 @@
       <c r="W106" t="s"/>
       <c r="X106" t="s"/>
       <c r="Y106" t="s">
-        <v>812</v>
+        <v>913</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
         <v>61621</v>
       </c>
-      <c r="B107" t="s"/>
-      <c r="C107" t="s"/>
+      <c r="B107" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C107" t="s">
+        <v>914</v>
+      </c>
       <c r="D107" t="n">
         <v>106</v>
       </c>
       <c r="E107" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F107" t="s">
-        <v>813</v>
+        <v>915</v>
       </c>
       <c r="G107" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H107" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I107" t="s">
-        <v>814</v>
+        <v>916</v>
       </c>
       <c r="J107" t="s">
-        <v>815</v>
+        <v>917</v>
       </c>
       <c r="K107" t="s">
-        <v>816</v>
+        <v>918</v>
       </c>
       <c r="L107" t="s">
-        <v>817</v>
+        <v>919</v>
       </c>
       <c r="M107" t="n">
         <v>2</v>
       </c>
       <c r="N107" t="s">
-        <v>818</v>
+        <v>920</v>
       </c>
       <c r="O107" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P107" t="n">
         <v>1</v>
@@ -10069,50 +10826,54 @@
       <c r="W107" t="s"/>
       <c r="X107" t="s"/>
       <c r="Y107" t="s">
-        <v>817</v>
+        <v>919</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
         <v>61621</v>
       </c>
-      <c r="B108" t="s"/>
-      <c r="C108" t="s"/>
+      <c r="B108" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C108" t="s">
+        <v>921</v>
+      </c>
       <c r="D108" t="n">
         <v>107</v>
       </c>
       <c r="E108" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F108" t="s">
-        <v>819</v>
+        <v>922</v>
       </c>
       <c r="G108" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H108" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I108" t="s">
-        <v>820</v>
+        <v>923</v>
       </c>
       <c r="J108" t="s">
-        <v>821</v>
+        <v>924</v>
       </c>
       <c r="K108" t="s">
-        <v>822</v>
+        <v>925</v>
       </c>
       <c r="L108" t="s">
-        <v>823</v>
+        <v>926</v>
       </c>
       <c r="M108" t="n">
         <v>3</v>
       </c>
       <c r="N108" t="s">
-        <v>824</v>
+        <v>927</v>
       </c>
       <c r="O108" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P108" t="n">
         <v>3</v>
@@ -10136,50 +10897,54 @@
       <c r="W108" t="s"/>
       <c r="X108" t="s"/>
       <c r="Y108" t="s">
-        <v>825</v>
+        <v>928</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
         <v>61621</v>
       </c>
-      <c r="B109" t="s"/>
-      <c r="C109" t="s"/>
+      <c r="B109" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C109" t="s">
+        <v>929</v>
+      </c>
       <c r="D109" t="n">
         <v>108</v>
       </c>
       <c r="E109" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F109" t="s">
-        <v>826</v>
+        <v>930</v>
       </c>
       <c r="G109" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H109" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I109" t="s">
-        <v>827</v>
+        <v>931</v>
       </c>
       <c r="J109" t="s">
-        <v>828</v>
+        <v>932</v>
       </c>
       <c r="K109" t="s">
-        <v>829</v>
+        <v>933</v>
       </c>
       <c r="L109" t="s">
-        <v>830</v>
+        <v>934</v>
       </c>
       <c r="M109" t="n">
         <v>5</v>
       </c>
       <c r="N109" t="s">
-        <v>818</v>
+        <v>920</v>
       </c>
       <c r="O109" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P109" t="n">
         <v>5</v>
@@ -10203,50 +10968,54 @@
       <c r="W109" t="s"/>
       <c r="X109" t="s"/>
       <c r="Y109" t="s">
-        <v>830</v>
+        <v>934</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
         <v>61621</v>
       </c>
-      <c r="B110" t="s"/>
-      <c r="C110" t="s"/>
+      <c r="B110" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C110" t="s">
+        <v>935</v>
+      </c>
       <c r="D110" t="n">
         <v>109</v>
       </c>
       <c r="E110" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F110" t="s">
-        <v>831</v>
+        <v>936</v>
       </c>
       <c r="G110" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H110" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I110" t="s">
-        <v>832</v>
+        <v>937</v>
       </c>
       <c r="J110" t="s">
-        <v>833</v>
+        <v>938</v>
       </c>
       <c r="K110" t="s">
-        <v>834</v>
+        <v>939</v>
       </c>
       <c r="L110" t="s">
-        <v>835</v>
+        <v>940</v>
       </c>
       <c r="M110" t="n">
         <v>3</v>
       </c>
       <c r="N110" t="s">
-        <v>818</v>
+        <v>920</v>
       </c>
       <c r="O110" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P110" t="n">
         <v>3</v>
@@ -10270,50 +11039,54 @@
       <c r="W110" t="s"/>
       <c r="X110" t="s"/>
       <c r="Y110" t="s">
-        <v>836</v>
+        <v>941</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
         <v>61621</v>
       </c>
-      <c r="B111" t="s"/>
-      <c r="C111" t="s"/>
+      <c r="B111" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C111" t="s">
+        <v>942</v>
+      </c>
       <c r="D111" t="n">
         <v>110</v>
       </c>
       <c r="E111" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F111" t="s">
-        <v>837</v>
+        <v>943</v>
       </c>
       <c r="G111" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H111" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I111" t="s">
-        <v>838</v>
+        <v>944</v>
       </c>
       <c r="J111" t="s">
-        <v>839</v>
+        <v>945</v>
       </c>
       <c r="K111" t="s">
-        <v>840</v>
+        <v>946</v>
       </c>
       <c r="L111" t="s">
-        <v>841</v>
+        <v>947</v>
       </c>
       <c r="M111" t="n">
         <v>5</v>
       </c>
       <c r="N111" t="s">
-        <v>842</v>
+        <v>948</v>
       </c>
       <c r="O111" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P111" t="n">
         <v>5</v>
@@ -10337,50 +11110,54 @@
       <c r="W111" t="s"/>
       <c r="X111" t="s"/>
       <c r="Y111" t="s">
-        <v>843</v>
+        <v>949</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
         <v>61621</v>
       </c>
-      <c r="B112" t="s"/>
-      <c r="C112" t="s"/>
+      <c r="B112" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C112" t="s">
+        <v>950</v>
+      </c>
       <c r="D112" t="n">
         <v>111</v>
       </c>
       <c r="E112" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F112" t="s">
-        <v>844</v>
+        <v>951</v>
       </c>
       <c r="G112" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H112" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I112" t="s">
-        <v>845</v>
+        <v>952</v>
       </c>
       <c r="J112" t="s">
-        <v>846</v>
+        <v>953</v>
       </c>
       <c r="K112" t="s">
-        <v>847</v>
+        <v>954</v>
       </c>
       <c r="L112" t="s">
-        <v>848</v>
+        <v>955</v>
       </c>
       <c r="M112" t="n">
         <v>4</v>
       </c>
       <c r="N112" t="s">
-        <v>849</v>
+        <v>956</v>
       </c>
       <c r="O112" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P112" t="n">
         <v>4</v>
@@ -10404,50 +11181,54 @@
       <c r="W112" t="s"/>
       <c r="X112" t="s"/>
       <c r="Y112" t="s">
-        <v>850</v>
+        <v>957</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
         <v>61621</v>
       </c>
-      <c r="B113" t="s"/>
-      <c r="C113" t="s"/>
+      <c r="B113" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C113" t="s">
+        <v>958</v>
+      </c>
       <c r="D113" t="n">
         <v>112</v>
       </c>
       <c r="E113" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F113" t="s">
-        <v>851</v>
+        <v>959</v>
       </c>
       <c r="G113" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H113" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I113" t="s">
-        <v>852</v>
+        <v>960</v>
       </c>
       <c r="J113" t="s">
-        <v>853</v>
+        <v>961</v>
       </c>
       <c r="K113" t="s">
-        <v>854</v>
+        <v>962</v>
       </c>
       <c r="L113" t="s">
-        <v>855</v>
+        <v>963</v>
       </c>
       <c r="M113" t="n">
         <v>5</v>
       </c>
       <c r="N113" t="s">
-        <v>849</v>
+        <v>956</v>
       </c>
       <c r="O113" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P113" t="n">
         <v>3</v>
@@ -10471,50 +11252,54 @@
       <c r="W113" t="s"/>
       <c r="X113" t="s"/>
       <c r="Y113" t="s">
-        <v>855</v>
+        <v>963</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
         <v>61621</v>
       </c>
-      <c r="B114" t="s"/>
-      <c r="C114" t="s"/>
+      <c r="B114" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C114" t="s">
+        <v>964</v>
+      </c>
       <c r="D114" t="n">
         <v>113</v>
       </c>
       <c r="E114" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F114" t="s">
-        <v>856</v>
+        <v>965</v>
       </c>
       <c r="G114" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H114" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I114" t="s">
-        <v>857</v>
+        <v>966</v>
       </c>
       <c r="J114" t="s">
-        <v>858</v>
+        <v>967</v>
       </c>
       <c r="K114" t="s">
-        <v>859</v>
+        <v>968</v>
       </c>
       <c r="L114" t="s">
-        <v>860</v>
+        <v>969</v>
       </c>
       <c r="M114" t="n">
         <v>4</v>
       </c>
       <c r="N114" t="s">
-        <v>861</v>
+        <v>970</v>
       </c>
       <c r="O114" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P114" t="n">
         <v>4</v>
@@ -10538,50 +11323,54 @@
       <c r="W114" t="s"/>
       <c r="X114" t="s"/>
       <c r="Y114" t="s">
-        <v>862</v>
+        <v>971</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
         <v>61621</v>
       </c>
-      <c r="B115" t="s"/>
-      <c r="C115" t="s"/>
+      <c r="B115" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C115" t="s">
+        <v>972</v>
+      </c>
       <c r="D115" t="n">
         <v>114</v>
       </c>
       <c r="E115" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F115" t="s">
-        <v>863</v>
+        <v>973</v>
       </c>
       <c r="G115" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H115" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I115" t="s">
-        <v>864</v>
+        <v>974</v>
       </c>
       <c r="J115" t="s">
-        <v>865</v>
+        <v>975</v>
       </c>
       <c r="K115" t="s">
-        <v>866</v>
+        <v>976</v>
       </c>
       <c r="L115" t="s">
-        <v>867</v>
+        <v>977</v>
       </c>
       <c r="M115" t="n">
         <v>3</v>
       </c>
       <c r="N115" t="s">
-        <v>861</v>
+        <v>970</v>
       </c>
       <c r="O115" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P115" t="n">
         <v>3</v>
@@ -10603,50 +11392,54 @@
       <c r="W115" t="s"/>
       <c r="X115" t="s"/>
       <c r="Y115" t="s">
-        <v>868</v>
+        <v>978</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
         <v>61621</v>
       </c>
-      <c r="B116" t="s"/>
-      <c r="C116" t="s"/>
+      <c r="B116" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C116" t="s">
+        <v>979</v>
+      </c>
       <c r="D116" t="n">
         <v>115</v>
       </c>
       <c r="E116" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F116" t="s">
-        <v>869</v>
+        <v>980</v>
       </c>
       <c r="G116" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H116" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I116" t="s">
-        <v>870</v>
+        <v>981</v>
       </c>
       <c r="J116" t="s">
-        <v>871</v>
+        <v>982</v>
       </c>
       <c r="K116" t="s">
-        <v>872</v>
+        <v>983</v>
       </c>
       <c r="L116" t="s">
-        <v>873</v>
+        <v>984</v>
       </c>
       <c r="M116" t="n">
         <v>4</v>
       </c>
       <c r="N116" t="s">
-        <v>874</v>
+        <v>985</v>
       </c>
       <c r="O116" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P116" t="n">
         <v>4</v>
@@ -10670,7 +11463,7 @@
       <c r="W116" t="s"/>
       <c r="X116" t="s"/>
       <c r="Y116" t="s">
-        <v>875</v>
+        <v>986</v>
       </c>
     </row>
   </sheetData>
